--- a/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(バッチ)_BA10601／期間内プロジェクト一覧出力バッチ.xlsx
+++ b/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(バッチ)_BA10601／期間内プロジェクト一覧出力バッチ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B14828-4B8B-4098-A4BA-D3D74C695028}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7B1D90-EE9B-4B9D-A189-7EB8D1F74EA7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="3510" windowWidth="27225" windowHeight="7905" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
@@ -48,71 +48,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{F93ECBF0-EAA3-4AA5-9616-EBD522C80886}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「取引」の訳は
-「subfunction」
-としてください。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{8B0E11DB-F10C-4303-9229-A4A85858BDE9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-「取引」の訳は「subfunction」としてください。
-他のセルも同様に置き換えてください。</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
@@ -188,7 +123,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
@@ -939,7 +874,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1110,21 +1045,6 @@
       <color indexed="55"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1863,6 +1783,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1929,45 +1930,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2003,78 +1968,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2142,6 +2035,60 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2160,6 +2107,39 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2244,64 +2224,100 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2327,102 +2343,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3492,8 +3412,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5882723" y="6799767"/>
-          <a:ext cx="603802" cy="345799"/>
+          <a:off x="5943600" y="6948854"/>
+          <a:ext cx="609600" cy="352425"/>
           <a:chOff x="454" y="733"/>
           <a:chExt cx="64" cy="39"/>
         </a:xfrm>
@@ -3949,8 +3869,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7608404" y="6356902"/>
-          <a:ext cx="677104" cy="361536"/>
+          <a:off x="7686675" y="6496050"/>
+          <a:ext cx="685800" cy="371475"/>
           <a:chOff x="537" y="600"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -4174,8 +4094,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7608404" y="6823213"/>
-          <a:ext cx="677104" cy="361536"/>
+          <a:off x="7686675" y="6972300"/>
+          <a:ext cx="685800" cy="371475"/>
           <a:chOff x="536" y="660"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -4578,8 +4498,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4223716" y="5919166"/>
-          <a:ext cx="142875" cy="158612"/>
+          <a:off x="4267200" y="6048375"/>
+          <a:ext cx="142875" cy="161925"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -5621,8 +5541,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4166566" y="2289291"/>
-          <a:ext cx="142875" cy="158611"/>
+          <a:off x="4210050" y="2338987"/>
+          <a:ext cx="142875" cy="161924"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -6156,42 +6076,42 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -6202,7 +6122,7 @@
       <c r="K23" s="24"/>
       <c r="L23" s="24"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -6211,7 +6131,7 @@
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -6223,7 +6143,7 @@
       <c r="K25" s="168"/>
       <c r="L25" s="24"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -6232,7 +6152,7 @@
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -6241,7 +6161,7 @@
       <c r="K27" s="24"/>
       <c r="L27" s="24"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -6250,7 +6170,7 @@
       <c r="K28" s="24"/>
       <c r="L28" s="24"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="24"/>
@@ -6258,7 +6178,7 @@
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -6267,7 +6187,7 @@
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -6276,7 +6196,7 @@
       <c r="K31" s="24"/>
       <c r="L31" s="24"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75" customHeight="1">
+    <row r="32" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -6285,7 +6205,7 @@
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="24"/>
@@ -6297,7 +6217,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" customHeight="1">
+    <row r="34" spans="6:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="24"/>
@@ -6312,515 +6232,515 @@
       <c r="R34" s="170"/>
       <c r="S34" s="170"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="170"/>
       <c r="R35" s="170"/>
       <c r="S35" s="170"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="171"/>
       <c r="P36" s="170"/>
       <c r="Q36" s="171"/>
       <c r="R36" s="170"/>
       <c r="S36" s="23"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="172"/>
       <c r="P37" s="173"/>
       <c r="Q37" s="172"/>
       <c r="R37" s="173"/>
       <c r="S37" s="172"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="173"/>
       <c r="P38" s="173"/>
       <c r="Q38" s="173"/>
       <c r="R38" s="173"/>
       <c r="S38" s="173"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="173"/>
       <c r="P39" s="173"/>
       <c r="Q39" s="173"/>
       <c r="R39" s="173"/>
       <c r="S39" s="173"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="I25:K25"/>
@@ -6850,170 +6770,170 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="174" t="s">
+    <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="235" t="s">
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="189" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="180" t="s">
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="181"/>
-      <c r="Q1" s="181"/>
-      <c r="R1" s="182"/>
-      <c r="S1" s="189" t="s">
+      <c r="P1" s="208"/>
+      <c r="Q1" s="208"/>
+      <c r="R1" s="209"/>
+      <c r="S1" s="216" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="191"/>
-      <c r="AA1" s="174" t="s">
+      <c r="T1" s="217"/>
+      <c r="U1" s="217"/>
+      <c r="V1" s="217"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="217"/>
+      <c r="Y1" s="217"/>
+      <c r="Z1" s="218"/>
+      <c r="AA1" s="201" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="208" t="str">
+      <c r="AB1" s="203"/>
+      <c r="AC1" s="180" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="209"/>
-      <c r="AE1" s="209"/>
-      <c r="AF1" s="210"/>
-      <c r="AG1" s="229">
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="174">
         <f>IF(D8="","",D8)</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="230"/>
-      <c r="AI1" s="231"/>
+      <c r="AH1" s="175"/>
+      <c r="AI1" s="176"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
       <c r="AM1" s="9"/>
       <c r="AN1" s="10"/>
     </row>
-    <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="174" t="s">
+    <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="235" t="s">
+      <c r="B2" s="202"/>
+      <c r="C2" s="202"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="236"/>
-      <c r="G2" s="236"/>
-      <c r="H2" s="236"/>
-      <c r="I2" s="236"/>
-      <c r="J2" s="236"/>
-      <c r="K2" s="236"/>
-      <c r="L2" s="236"/>
-      <c r="M2" s="236"/>
-      <c r="N2" s="237"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="192"/>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
-      <c r="W2" s="193"/>
-      <c r="X2" s="193"/>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="194"/>
-      <c r="AA2" s="174" t="s">
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="190"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="190"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="210"/>
+      <c r="P2" s="211"/>
+      <c r="Q2" s="211"/>
+      <c r="R2" s="212"/>
+      <c r="S2" s="219"/>
+      <c r="T2" s="220"/>
+      <c r="U2" s="220"/>
+      <c r="V2" s="220"/>
+      <c r="W2" s="220"/>
+      <c r="X2" s="220"/>
+      <c r="Y2" s="220"/>
+      <c r="Z2" s="221"/>
+      <c r="AA2" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="176"/>
-      <c r="AC2" s="232" t="str">
+      <c r="AB2" s="203"/>
+      <c r="AC2" s="177" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="233"/>
-      <c r="AE2" s="233"/>
-      <c r="AF2" s="234"/>
-      <c r="AG2" s="229" t="str">
+      <c r="AD2" s="178"/>
+      <c r="AE2" s="178"/>
+      <c r="AF2" s="179"/>
+      <c r="AG2" s="174" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="230"/>
-      <c r="AI2" s="231"/>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="176"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
       <c r="AM2" s="9"/>
       <c r="AN2" s="9"/>
     </row>
-    <row r="3" spans="1:40" s="11" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="177" t="s">
+    <row r="3" spans="1:40" s="11" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="204" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="235" t="s">
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="189" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="236"/>
-      <c r="G3" s="236"/>
-      <c r="H3" s="236"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="236"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="237"/>
-      <c r="O3" s="186"/>
-      <c r="P3" s="187"/>
-      <c r="Q3" s="187"/>
-      <c r="R3" s="188"/>
-      <c r="S3" s="195"/>
-      <c r="T3" s="196"/>
-      <c r="U3" s="196"/>
-      <c r="V3" s="196"/>
-      <c r="W3" s="196"/>
-      <c r="X3" s="196"/>
-      <c r="Y3" s="196"/>
-      <c r="Z3" s="197"/>
-      <c r="AA3" s="177"/>
-      <c r="AB3" s="179"/>
-      <c r="AC3" s="208"/>
-      <c r="AD3" s="209"/>
-      <c r="AE3" s="209"/>
-      <c r="AF3" s="210"/>
-      <c r="AG3" s="229"/>
-      <c r="AH3" s="230"/>
-      <c r="AI3" s="231"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
+      <c r="J3" s="190"/>
+      <c r="K3" s="190"/>
+      <c r="L3" s="190"/>
+      <c r="M3" s="190"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="213"/>
+      <c r="P3" s="214"/>
+      <c r="Q3" s="214"/>
+      <c r="R3" s="215"/>
+      <c r="S3" s="222"/>
+      <c r="T3" s="223"/>
+      <c r="U3" s="223"/>
+      <c r="V3" s="223"/>
+      <c r="W3" s="223"/>
+      <c r="X3" s="223"/>
+      <c r="Y3" s="223"/>
+      <c r="Z3" s="224"/>
+      <c r="AA3" s="204"/>
+      <c r="AB3" s="206"/>
+      <c r="AC3" s="180"/>
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="175"/>
+      <c r="AI3" s="176"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -7055,7 +6975,7 @@
       <c r="AM4" s="17"/>
       <c r="AN4" s="17"/>
     </row>
-    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -7099,7 +7019,7 @@
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
     </row>
-    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -7141,1169 +7061,1169 @@
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
     </row>
-    <row r="7" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="204" t="s">
+      <c r="B7" s="192" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="205"/>
-      <c r="D7" s="204" t="s">
+      <c r="C7" s="194"/>
+      <c r="D7" s="192" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="206"/>
-      <c r="F7" s="205"/>
-      <c r="G7" s="204" t="s">
+      <c r="E7" s="193"/>
+      <c r="F7" s="194"/>
+      <c r="G7" s="192" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="206"/>
-      <c r="I7" s="205"/>
-      <c r="J7" s="207" t="s">
+      <c r="H7" s="193"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="225" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="206"/>
-      <c r="L7" s="206"/>
-      <c r="M7" s="206"/>
-      <c r="N7" s="206"/>
-      <c r="O7" s="206"/>
-      <c r="P7" s="205"/>
-      <c r="Q7" s="204" t="s">
+      <c r="K7" s="193"/>
+      <c r="L7" s="193"/>
+      <c r="M7" s="193"/>
+      <c r="N7" s="193"/>
+      <c r="O7" s="193"/>
+      <c r="P7" s="194"/>
+      <c r="Q7" s="192" t="s">
         <v>41</v>
       </c>
-      <c r="R7" s="206"/>
-      <c r="S7" s="206"/>
-      <c r="T7" s="206"/>
-      <c r="U7" s="206"/>
-      <c r="V7" s="206"/>
-      <c r="W7" s="206"/>
-      <c r="X7" s="206"/>
-      <c r="Y7" s="206"/>
-      <c r="Z7" s="206"/>
-      <c r="AA7" s="206"/>
-      <c r="AB7" s="206"/>
-      <c r="AC7" s="206"/>
-      <c r="AD7" s="206"/>
-      <c r="AE7" s="205"/>
-      <c r="AF7" s="204" t="s">
+      <c r="R7" s="193"/>
+      <c r="S7" s="193"/>
+      <c r="T7" s="193"/>
+      <c r="U7" s="193"/>
+      <c r="V7" s="193"/>
+      <c r="W7" s="193"/>
+      <c r="X7" s="193"/>
+      <c r="Y7" s="193"/>
+      <c r="Z7" s="193"/>
+      <c r="AA7" s="193"/>
+      <c r="AB7" s="193"/>
+      <c r="AC7" s="193"/>
+      <c r="AD7" s="193"/>
+      <c r="AE7" s="194"/>
+      <c r="AF7" s="192" t="s">
         <v>42</v>
       </c>
-      <c r="AG7" s="206"/>
-      <c r="AH7" s="206"/>
-      <c r="AI7" s="205"/>
+      <c r="AG7" s="193"/>
+      <c r="AH7" s="193"/>
+      <c r="AI7" s="194"/>
       <c r="AJ7" s="31"/>
       <c r="AK7" s="31"/>
       <c r="AL7" s="31"/>
       <c r="AM7" s="31"/>
       <c r="AN7" s="31"/>
     </row>
-    <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1">
+    <row r="8" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="211" t="s">
+      <c r="B8" s="226" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="212"/>
-      <c r="D8" s="213">
+      <c r="C8" s="227"/>
+      <c r="D8" s="228">
         <v>43634</v>
       </c>
-      <c r="E8" s="214"/>
-      <c r="F8" s="215"/>
-      <c r="G8" s="211" t="s">
+      <c r="E8" s="229"/>
+      <c r="F8" s="230"/>
+      <c r="G8" s="226" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="216"/>
-      <c r="I8" s="212"/>
-      <c r="J8" s="217" t="s">
+      <c r="H8" s="231"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="232" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="218"/>
-      <c r="L8" s="218"/>
-      <c r="M8" s="218"/>
-      <c r="N8" s="218"/>
-      <c r="O8" s="218"/>
-      <c r="P8" s="219"/>
-      <c r="Q8" s="220" t="s">
+      <c r="K8" s="233"/>
+      <c r="L8" s="233"/>
+      <c r="M8" s="233"/>
+      <c r="N8" s="233"/>
+      <c r="O8" s="233"/>
+      <c r="P8" s="234"/>
+      <c r="Q8" s="235" t="s">
         <v>46</v>
       </c>
-      <c r="R8" s="221"/>
-      <c r="S8" s="221"/>
-      <c r="T8" s="221"/>
-      <c r="U8" s="221"/>
-      <c r="V8" s="221"/>
-      <c r="W8" s="221"/>
-      <c r="X8" s="221"/>
-      <c r="Y8" s="221"/>
-      <c r="Z8" s="221"/>
-      <c r="AA8" s="221"/>
-      <c r="AB8" s="221"/>
-      <c r="AC8" s="221"/>
-      <c r="AD8" s="221"/>
-      <c r="AE8" s="222"/>
-      <c r="AF8" s="217" t="s">
+      <c r="R8" s="236"/>
+      <c r="S8" s="236"/>
+      <c r="T8" s="236"/>
+      <c r="U8" s="236"/>
+      <c r="V8" s="236"/>
+      <c r="W8" s="236"/>
+      <c r="X8" s="236"/>
+      <c r="Y8" s="236"/>
+      <c r="Z8" s="236"/>
+      <c r="AA8" s="236"/>
+      <c r="AB8" s="236"/>
+      <c r="AC8" s="236"/>
+      <c r="AD8" s="236"/>
+      <c r="AE8" s="237"/>
+      <c r="AF8" s="232" t="s">
         <v>47</v>
       </c>
-      <c r="AG8" s="218"/>
-      <c r="AH8" s="218"/>
-      <c r="AI8" s="219"/>
+      <c r="AG8" s="233"/>
+      <c r="AH8" s="233"/>
+      <c r="AI8" s="234"/>
       <c r="AJ8" s="31"/>
       <c r="AK8" s="31"/>
       <c r="AL8" s="31"/>
       <c r="AM8" s="31"/>
       <c r="AN8" s="31"/>
     </row>
-    <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="22"/>
-      <c r="B9" s="198"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="200"/>
-      <c r="E9" s="201"/>
-      <c r="F9" s="202"/>
-      <c r="G9" s="198"/>
-      <c r="H9" s="203"/>
-      <c r="I9" s="199"/>
-      <c r="J9" s="223"/>
-      <c r="K9" s="224"/>
-      <c r="L9" s="224"/>
-      <c r="M9" s="224"/>
-      <c r="N9" s="224"/>
-      <c r="O9" s="224"/>
-      <c r="P9" s="225"/>
-      <c r="Q9" s="226"/>
-      <c r="R9" s="227"/>
-      <c r="S9" s="227"/>
-      <c r="T9" s="227"/>
-      <c r="U9" s="227"/>
-      <c r="V9" s="227"/>
-      <c r="W9" s="227"/>
-      <c r="X9" s="227"/>
-      <c r="Y9" s="227"/>
-      <c r="Z9" s="227"/>
-      <c r="AA9" s="227"/>
-      <c r="AB9" s="227"/>
-      <c r="AC9" s="227"/>
-      <c r="AD9" s="227"/>
-      <c r="AE9" s="228"/>
-      <c r="AF9" s="223"/>
-      <c r="AG9" s="224"/>
-      <c r="AH9" s="224"/>
-      <c r="AI9" s="225"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="196"/>
+      <c r="D9" s="197"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="195"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="183"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="184"/>
+      <c r="O9" s="184"/>
+      <c r="P9" s="185"/>
+      <c r="Q9" s="186"/>
+      <c r="R9" s="187"/>
+      <c r="S9" s="187"/>
+      <c r="T9" s="187"/>
+      <c r="U9" s="187"/>
+      <c r="V9" s="187"/>
+      <c r="W9" s="187"/>
+      <c r="X9" s="187"/>
+      <c r="Y9" s="187"/>
+      <c r="Z9" s="187"/>
+      <c r="AA9" s="187"/>
+      <c r="AB9" s="187"/>
+      <c r="AC9" s="187"/>
+      <c r="AD9" s="187"/>
+      <c r="AE9" s="188"/>
+      <c r="AF9" s="183"/>
+      <c r="AG9" s="184"/>
+      <c r="AH9" s="184"/>
+      <c r="AI9" s="185"/>
       <c r="AJ9" s="31"/>
       <c r="AK9" s="31"/>
       <c r="AL9" s="31"/>
       <c r="AM9" s="31"/>
       <c r="AN9" s="31"/>
     </row>
-    <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22"/>
-      <c r="B10" s="198"/>
-      <c r="C10" s="199"/>
-      <c r="D10" s="200"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="203"/>
-      <c r="I10" s="199"/>
-      <c r="J10" s="223"/>
-      <c r="K10" s="224"/>
-      <c r="L10" s="224"/>
-      <c r="M10" s="224"/>
-      <c r="N10" s="224"/>
-      <c r="O10" s="224"/>
-      <c r="P10" s="225"/>
-      <c r="Q10" s="226"/>
-      <c r="R10" s="227"/>
-      <c r="S10" s="227"/>
-      <c r="T10" s="227"/>
-      <c r="U10" s="227"/>
-      <c r="V10" s="227"/>
-      <c r="W10" s="227"/>
-      <c r="X10" s="227"/>
-      <c r="Y10" s="227"/>
-      <c r="Z10" s="227"/>
-      <c r="AA10" s="227"/>
-      <c r="AB10" s="227"/>
-      <c r="AC10" s="227"/>
-      <c r="AD10" s="227"/>
-      <c r="AE10" s="228"/>
-      <c r="AF10" s="223"/>
-      <c r="AG10" s="224"/>
-      <c r="AH10" s="224"/>
-      <c r="AI10" s="225"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="197"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="199"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="196"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="184"/>
+      <c r="L10" s="184"/>
+      <c r="M10" s="184"/>
+      <c r="N10" s="184"/>
+      <c r="O10" s="184"/>
+      <c r="P10" s="185"/>
+      <c r="Q10" s="186"/>
+      <c r="R10" s="187"/>
+      <c r="S10" s="187"/>
+      <c r="T10" s="187"/>
+      <c r="U10" s="187"/>
+      <c r="V10" s="187"/>
+      <c r="W10" s="187"/>
+      <c r="X10" s="187"/>
+      <c r="Y10" s="187"/>
+      <c r="Z10" s="187"/>
+      <c r="AA10" s="187"/>
+      <c r="AB10" s="187"/>
+      <c r="AC10" s="187"/>
+      <c r="AD10" s="187"/>
+      <c r="AE10" s="188"/>
+      <c r="AF10" s="183"/>
+      <c r="AG10" s="184"/>
+      <c r="AH10" s="184"/>
+      <c r="AI10" s="185"/>
       <c r="AJ10" s="31"/>
       <c r="AK10" s="31"/>
       <c r="AL10" s="31"/>
       <c r="AM10" s="31"/>
       <c r="AN10" s="31"/>
     </row>
-    <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
-      <c r="B11" s="198"/>
-      <c r="C11" s="199"/>
-      <c r="D11" s="200"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="202"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="203"/>
-      <c r="I11" s="199"/>
-      <c r="J11" s="223"/>
-      <c r="K11" s="224"/>
-      <c r="L11" s="224"/>
-      <c r="M11" s="224"/>
-      <c r="N11" s="224"/>
-      <c r="O11" s="224"/>
-      <c r="P11" s="225"/>
-      <c r="Q11" s="226"/>
-      <c r="R11" s="227"/>
-      <c r="S11" s="227"/>
-      <c r="T11" s="227"/>
-      <c r="U11" s="227"/>
-      <c r="V11" s="227"/>
-      <c r="W11" s="227"/>
-      <c r="X11" s="227"/>
-      <c r="Y11" s="227"/>
-      <c r="Z11" s="227"/>
-      <c r="AA11" s="227"/>
-      <c r="AB11" s="227"/>
-      <c r="AC11" s="227"/>
-      <c r="AD11" s="227"/>
-      <c r="AE11" s="228"/>
-      <c r="AF11" s="223"/>
-      <c r="AG11" s="224"/>
-      <c r="AH11" s="224"/>
-      <c r="AI11" s="225"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="196"/>
+      <c r="D11" s="197"/>
+      <c r="E11" s="198"/>
+      <c r="F11" s="199"/>
+      <c r="G11" s="195"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="196"/>
+      <c r="J11" s="183"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="184"/>
+      <c r="M11" s="184"/>
+      <c r="N11" s="184"/>
+      <c r="O11" s="184"/>
+      <c r="P11" s="185"/>
+      <c r="Q11" s="186"/>
+      <c r="R11" s="187"/>
+      <c r="S11" s="187"/>
+      <c r="T11" s="187"/>
+      <c r="U11" s="187"/>
+      <c r="V11" s="187"/>
+      <c r="W11" s="187"/>
+      <c r="X11" s="187"/>
+      <c r="Y11" s="187"/>
+      <c r="Z11" s="187"/>
+      <c r="AA11" s="187"/>
+      <c r="AB11" s="187"/>
+      <c r="AC11" s="187"/>
+      <c r="AD11" s="187"/>
+      <c r="AE11" s="188"/>
+      <c r="AF11" s="183"/>
+      <c r="AG11" s="184"/>
+      <c r="AH11" s="184"/>
+      <c r="AI11" s="185"/>
       <c r="AJ11" s="31"/>
       <c r="AK11" s="31"/>
       <c r="AL11" s="31"/>
       <c r="AM11" s="31"/>
       <c r="AN11" s="31"/>
     </row>
-    <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
-      <c r="B12" s="198"/>
-      <c r="C12" s="199"/>
-      <c r="D12" s="200"/>
-      <c r="E12" s="201"/>
-      <c r="F12" s="202"/>
-      <c r="G12" s="198"/>
-      <c r="H12" s="203"/>
-      <c r="I12" s="199"/>
-      <c r="J12" s="223"/>
-      <c r="K12" s="224"/>
-      <c r="L12" s="224"/>
-      <c r="M12" s="224"/>
-      <c r="N12" s="224"/>
-      <c r="O12" s="224"/>
-      <c r="P12" s="225"/>
-      <c r="Q12" s="226"/>
-      <c r="R12" s="227"/>
-      <c r="S12" s="227"/>
-      <c r="T12" s="227"/>
-      <c r="U12" s="227"/>
-      <c r="V12" s="227"/>
-      <c r="W12" s="227"/>
-      <c r="X12" s="227"/>
-      <c r="Y12" s="227"/>
-      <c r="Z12" s="227"/>
-      <c r="AA12" s="227"/>
-      <c r="AB12" s="227"/>
-      <c r="AC12" s="227"/>
-      <c r="AD12" s="227"/>
-      <c r="AE12" s="228"/>
-      <c r="AF12" s="223"/>
-      <c r="AG12" s="224"/>
-      <c r="AH12" s="224"/>
-      <c r="AI12" s="225"/>
+      <c r="B12" s="195"/>
+      <c r="C12" s="196"/>
+      <c r="D12" s="197"/>
+      <c r="E12" s="198"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="195"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="196"/>
+      <c r="J12" s="183"/>
+      <c r="K12" s="184"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="184"/>
+      <c r="N12" s="184"/>
+      <c r="O12" s="184"/>
+      <c r="P12" s="185"/>
+      <c r="Q12" s="186"/>
+      <c r="R12" s="187"/>
+      <c r="S12" s="187"/>
+      <c r="T12" s="187"/>
+      <c r="U12" s="187"/>
+      <c r="V12" s="187"/>
+      <c r="W12" s="187"/>
+      <c r="X12" s="187"/>
+      <c r="Y12" s="187"/>
+      <c r="Z12" s="187"/>
+      <c r="AA12" s="187"/>
+      <c r="AB12" s="187"/>
+      <c r="AC12" s="187"/>
+      <c r="AD12" s="187"/>
+      <c r="AE12" s="188"/>
+      <c r="AF12" s="183"/>
+      <c r="AG12" s="184"/>
+      <c r="AH12" s="184"/>
+      <c r="AI12" s="185"/>
       <c r="AJ12" s="31"/>
       <c r="AK12" s="31"/>
       <c r="AL12" s="31"/>
       <c r="AM12" s="31"/>
       <c r="AN12" s="31"/>
     </row>
-    <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="22"/>
-      <c r="B13" s="198"/>
-      <c r="C13" s="199"/>
-      <c r="D13" s="200"/>
-      <c r="E13" s="201"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="198"/>
-      <c r="H13" s="203"/>
-      <c r="I13" s="199"/>
-      <c r="J13" s="223"/>
-      <c r="K13" s="224"/>
-      <c r="L13" s="224"/>
-      <c r="M13" s="224"/>
-      <c r="N13" s="224"/>
-      <c r="O13" s="224"/>
-      <c r="P13" s="225"/>
-      <c r="Q13" s="226"/>
-      <c r="R13" s="227"/>
-      <c r="S13" s="227"/>
-      <c r="T13" s="227"/>
-      <c r="U13" s="227"/>
-      <c r="V13" s="227"/>
-      <c r="W13" s="227"/>
-      <c r="X13" s="227"/>
-      <c r="Y13" s="227"/>
-      <c r="Z13" s="227"/>
-      <c r="AA13" s="227"/>
-      <c r="AB13" s="227"/>
-      <c r="AC13" s="227"/>
-      <c r="AD13" s="227"/>
-      <c r="AE13" s="228"/>
-      <c r="AF13" s="223"/>
-      <c r="AG13" s="224"/>
-      <c r="AH13" s="224"/>
-      <c r="AI13" s="225"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="196"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="200"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="183"/>
+      <c r="K13" s="184"/>
+      <c r="L13" s="184"/>
+      <c r="M13" s="184"/>
+      <c r="N13" s="184"/>
+      <c r="O13" s="184"/>
+      <c r="P13" s="185"/>
+      <c r="Q13" s="186"/>
+      <c r="R13" s="187"/>
+      <c r="S13" s="187"/>
+      <c r="T13" s="187"/>
+      <c r="U13" s="187"/>
+      <c r="V13" s="187"/>
+      <c r="W13" s="187"/>
+      <c r="X13" s="187"/>
+      <c r="Y13" s="187"/>
+      <c r="Z13" s="187"/>
+      <c r="AA13" s="187"/>
+      <c r="AB13" s="187"/>
+      <c r="AC13" s="187"/>
+      <c r="AD13" s="187"/>
+      <c r="AE13" s="188"/>
+      <c r="AF13" s="183"/>
+      <c r="AG13" s="184"/>
+      <c r="AH13" s="184"/>
+      <c r="AI13" s="185"/>
       <c r="AJ13" s="31"/>
       <c r="AK13" s="31"/>
       <c r="AL13" s="31"/>
       <c r="AM13" s="31"/>
       <c r="AN13" s="31"/>
     </row>
-    <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="22"/>
-      <c r="B14" s="198"/>
-      <c r="C14" s="199"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="201"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="198"/>
-      <c r="H14" s="203"/>
-      <c r="I14" s="199"/>
-      <c r="J14" s="223"/>
-      <c r="K14" s="224"/>
-      <c r="L14" s="224"/>
-      <c r="M14" s="224"/>
-      <c r="N14" s="224"/>
-      <c r="O14" s="224"/>
-      <c r="P14" s="225"/>
-      <c r="Q14" s="226"/>
-      <c r="R14" s="227"/>
-      <c r="S14" s="227"/>
-      <c r="T14" s="227"/>
-      <c r="U14" s="227"/>
-      <c r="V14" s="227"/>
-      <c r="W14" s="227"/>
-      <c r="X14" s="227"/>
-      <c r="Y14" s="227"/>
-      <c r="Z14" s="227"/>
-      <c r="AA14" s="227"/>
-      <c r="AB14" s="227"/>
-      <c r="AC14" s="227"/>
-      <c r="AD14" s="227"/>
-      <c r="AE14" s="228"/>
-      <c r="AF14" s="223"/>
-      <c r="AG14" s="224"/>
-      <c r="AH14" s="224"/>
-      <c r="AI14" s="225"/>
+      <c r="B14" s="195"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="197"/>
+      <c r="E14" s="198"/>
+      <c r="F14" s="199"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="183"/>
+      <c r="K14" s="184"/>
+      <c r="L14" s="184"/>
+      <c r="M14" s="184"/>
+      <c r="N14" s="184"/>
+      <c r="O14" s="184"/>
+      <c r="P14" s="185"/>
+      <c r="Q14" s="186"/>
+      <c r="R14" s="187"/>
+      <c r="S14" s="187"/>
+      <c r="T14" s="187"/>
+      <c r="U14" s="187"/>
+      <c r="V14" s="187"/>
+      <c r="W14" s="187"/>
+      <c r="X14" s="187"/>
+      <c r="Y14" s="187"/>
+      <c r="Z14" s="187"/>
+      <c r="AA14" s="187"/>
+      <c r="AB14" s="187"/>
+      <c r="AC14" s="187"/>
+      <c r="AD14" s="187"/>
+      <c r="AE14" s="188"/>
+      <c r="AF14" s="183"/>
+      <c r="AG14" s="184"/>
+      <c r="AH14" s="184"/>
+      <c r="AI14" s="185"/>
       <c r="AJ14" s="31"/>
       <c r="AK14" s="31"/>
       <c r="AL14" s="31"/>
       <c r="AM14" s="31"/>
       <c r="AN14" s="31"/>
     </row>
-    <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="22"/>
-      <c r="B15" s="198"/>
-      <c r="C15" s="199"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="198"/>
-      <c r="H15" s="203"/>
-      <c r="I15" s="199"/>
-      <c r="J15" s="223"/>
-      <c r="K15" s="224"/>
-      <c r="L15" s="224"/>
-      <c r="M15" s="224"/>
-      <c r="N15" s="224"/>
-      <c r="O15" s="224"/>
-      <c r="P15" s="225"/>
-      <c r="Q15" s="226"/>
-      <c r="R15" s="227"/>
-      <c r="S15" s="227"/>
-      <c r="T15" s="227"/>
-      <c r="U15" s="227"/>
-      <c r="V15" s="227"/>
-      <c r="W15" s="227"/>
-      <c r="X15" s="227"/>
-      <c r="Y15" s="227"/>
-      <c r="Z15" s="227"/>
-      <c r="AA15" s="227"/>
-      <c r="AB15" s="227"/>
-      <c r="AC15" s="227"/>
-      <c r="AD15" s="227"/>
-      <c r="AE15" s="228"/>
-      <c r="AF15" s="223"/>
-      <c r="AG15" s="224"/>
-      <c r="AH15" s="224"/>
-      <c r="AI15" s="225"/>
+      <c r="B15" s="195"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="197"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="195"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="183"/>
+      <c r="K15" s="184"/>
+      <c r="L15" s="184"/>
+      <c r="M15" s="184"/>
+      <c r="N15" s="184"/>
+      <c r="O15" s="184"/>
+      <c r="P15" s="185"/>
+      <c r="Q15" s="186"/>
+      <c r="R15" s="187"/>
+      <c r="S15" s="187"/>
+      <c r="T15" s="187"/>
+      <c r="U15" s="187"/>
+      <c r="V15" s="187"/>
+      <c r="W15" s="187"/>
+      <c r="X15" s="187"/>
+      <c r="Y15" s="187"/>
+      <c r="Z15" s="187"/>
+      <c r="AA15" s="187"/>
+      <c r="AB15" s="187"/>
+      <c r="AC15" s="187"/>
+      <c r="AD15" s="187"/>
+      <c r="AE15" s="188"/>
+      <c r="AF15" s="183"/>
+      <c r="AG15" s="184"/>
+      <c r="AH15" s="184"/>
+      <c r="AI15" s="185"/>
       <c r="AJ15" s="31"/>
       <c r="AK15" s="31"/>
       <c r="AL15" s="31"/>
       <c r="AM15" s="31"/>
       <c r="AN15" s="31"/>
     </row>
-    <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="22"/>
-      <c r="B16" s="198"/>
-      <c r="C16" s="199"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="202"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="203"/>
-      <c r="I16" s="199"/>
-      <c r="J16" s="223"/>
-      <c r="K16" s="224"/>
-      <c r="L16" s="224"/>
-      <c r="M16" s="224"/>
-      <c r="N16" s="224"/>
-      <c r="O16" s="224"/>
-      <c r="P16" s="225"/>
-      <c r="Q16" s="226"/>
-      <c r="R16" s="227"/>
-      <c r="S16" s="227"/>
-      <c r="T16" s="227"/>
-      <c r="U16" s="227"/>
-      <c r="V16" s="227"/>
-      <c r="W16" s="227"/>
-      <c r="X16" s="227"/>
-      <c r="Y16" s="227"/>
-      <c r="Z16" s="227"/>
-      <c r="AA16" s="227"/>
-      <c r="AB16" s="227"/>
-      <c r="AC16" s="227"/>
-      <c r="AD16" s="227"/>
-      <c r="AE16" s="228"/>
-      <c r="AF16" s="223"/>
-      <c r="AG16" s="224"/>
-      <c r="AH16" s="224"/>
-      <c r="AI16" s="225"/>
+      <c r="B16" s="195"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="197"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="199"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="184"/>
+      <c r="L16" s="184"/>
+      <c r="M16" s="184"/>
+      <c r="N16" s="184"/>
+      <c r="O16" s="184"/>
+      <c r="P16" s="185"/>
+      <c r="Q16" s="186"/>
+      <c r="R16" s="187"/>
+      <c r="S16" s="187"/>
+      <c r="T16" s="187"/>
+      <c r="U16" s="187"/>
+      <c r="V16" s="187"/>
+      <c r="W16" s="187"/>
+      <c r="X16" s="187"/>
+      <c r="Y16" s="187"/>
+      <c r="Z16" s="187"/>
+      <c r="AA16" s="187"/>
+      <c r="AB16" s="187"/>
+      <c r="AC16" s="187"/>
+      <c r="AD16" s="187"/>
+      <c r="AE16" s="188"/>
+      <c r="AF16" s="183"/>
+      <c r="AG16" s="184"/>
+      <c r="AH16" s="184"/>
+      <c r="AI16" s="185"/>
       <c r="AJ16" s="31"/>
       <c r="AK16" s="31"/>
       <c r="AL16" s="31"/>
       <c r="AM16" s="31"/>
       <c r="AN16" s="31"/>
     </row>
-    <row r="17" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22"/>
-      <c r="B17" s="198"/>
-      <c r="C17" s="199"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="202"/>
-      <c r="G17" s="198"/>
-      <c r="H17" s="203"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="223"/>
-      <c r="K17" s="224"/>
-      <c r="L17" s="224"/>
-      <c r="M17" s="224"/>
-      <c r="N17" s="224"/>
-      <c r="O17" s="224"/>
-      <c r="P17" s="225"/>
-      <c r="Q17" s="226"/>
-      <c r="R17" s="227"/>
-      <c r="S17" s="227"/>
-      <c r="T17" s="227"/>
-      <c r="U17" s="227"/>
-      <c r="V17" s="227"/>
-      <c r="W17" s="227"/>
-      <c r="X17" s="227"/>
-      <c r="Y17" s="227"/>
-      <c r="Z17" s="227"/>
-      <c r="AA17" s="227"/>
-      <c r="AB17" s="227"/>
-      <c r="AC17" s="227"/>
-      <c r="AD17" s="227"/>
-      <c r="AE17" s="228"/>
-      <c r="AF17" s="223"/>
-      <c r="AG17" s="224"/>
-      <c r="AH17" s="224"/>
-      <c r="AI17" s="225"/>
+      <c r="B17" s="195"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="199"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="196"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="184"/>
+      <c r="L17" s="184"/>
+      <c r="M17" s="184"/>
+      <c r="N17" s="184"/>
+      <c r="O17" s="184"/>
+      <c r="P17" s="185"/>
+      <c r="Q17" s="186"/>
+      <c r="R17" s="187"/>
+      <c r="S17" s="187"/>
+      <c r="T17" s="187"/>
+      <c r="U17" s="187"/>
+      <c r="V17" s="187"/>
+      <c r="W17" s="187"/>
+      <c r="X17" s="187"/>
+      <c r="Y17" s="187"/>
+      <c r="Z17" s="187"/>
+      <c r="AA17" s="187"/>
+      <c r="AB17" s="187"/>
+      <c r="AC17" s="187"/>
+      <c r="AD17" s="187"/>
+      <c r="AE17" s="188"/>
+      <c r="AF17" s="183"/>
+      <c r="AG17" s="184"/>
+      <c r="AH17" s="184"/>
+      <c r="AI17" s="185"/>
       <c r="AJ17" s="31"/>
       <c r="AK17" s="31"/>
       <c r="AL17" s="31"/>
       <c r="AM17" s="31"/>
       <c r="AN17" s="31"/>
     </row>
-    <row r="18" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="22"/>
-      <c r="B18" s="198"/>
-      <c r="C18" s="199"/>
-      <c r="D18" s="200"/>
-      <c r="E18" s="201"/>
-      <c r="F18" s="202"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="203"/>
-      <c r="I18" s="199"/>
-      <c r="J18" s="223"/>
-      <c r="K18" s="224"/>
-      <c r="L18" s="224"/>
-      <c r="M18" s="224"/>
-      <c r="N18" s="224"/>
-      <c r="O18" s="224"/>
-      <c r="P18" s="225"/>
-      <c r="Q18" s="226"/>
-      <c r="R18" s="227"/>
-      <c r="S18" s="227"/>
-      <c r="T18" s="227"/>
-      <c r="U18" s="227"/>
-      <c r="V18" s="227"/>
-      <c r="W18" s="227"/>
-      <c r="X18" s="227"/>
-      <c r="Y18" s="227"/>
-      <c r="Z18" s="227"/>
-      <c r="AA18" s="227"/>
-      <c r="AB18" s="227"/>
-      <c r="AC18" s="227"/>
-      <c r="AD18" s="227"/>
-      <c r="AE18" s="228"/>
-      <c r="AF18" s="223"/>
-      <c r="AG18" s="224"/>
-      <c r="AH18" s="224"/>
-      <c r="AI18" s="225"/>
+      <c r="B18" s="195"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="197"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="199"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="196"/>
+      <c r="J18" s="183"/>
+      <c r="K18" s="184"/>
+      <c r="L18" s="184"/>
+      <c r="M18" s="184"/>
+      <c r="N18" s="184"/>
+      <c r="O18" s="184"/>
+      <c r="P18" s="185"/>
+      <c r="Q18" s="186"/>
+      <c r="R18" s="187"/>
+      <c r="S18" s="187"/>
+      <c r="T18" s="187"/>
+      <c r="U18" s="187"/>
+      <c r="V18" s="187"/>
+      <c r="W18" s="187"/>
+      <c r="X18" s="187"/>
+      <c r="Y18" s="187"/>
+      <c r="Z18" s="187"/>
+      <c r="AA18" s="187"/>
+      <c r="AB18" s="187"/>
+      <c r="AC18" s="187"/>
+      <c r="AD18" s="187"/>
+      <c r="AE18" s="188"/>
+      <c r="AF18" s="183"/>
+      <c r="AG18" s="184"/>
+      <c r="AH18" s="184"/>
+      <c r="AI18" s="185"/>
       <c r="AJ18" s="31"/>
       <c r="AK18" s="31"/>
       <c r="AL18" s="31"/>
       <c r="AM18" s="31"/>
       <c r="AN18" s="31"/>
     </row>
-    <row r="19" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="22"/>
-      <c r="B19" s="198"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="201"/>
-      <c r="F19" s="202"/>
-      <c r="G19" s="198"/>
-      <c r="H19" s="203"/>
-      <c r="I19" s="199"/>
-      <c r="J19" s="223"/>
-      <c r="K19" s="224"/>
-      <c r="L19" s="224"/>
-      <c r="M19" s="224"/>
-      <c r="N19" s="224"/>
-      <c r="O19" s="224"/>
-      <c r="P19" s="225"/>
-      <c r="Q19" s="226"/>
-      <c r="R19" s="227"/>
-      <c r="S19" s="227"/>
-      <c r="T19" s="227"/>
-      <c r="U19" s="227"/>
-      <c r="V19" s="227"/>
-      <c r="W19" s="227"/>
-      <c r="X19" s="227"/>
-      <c r="Y19" s="227"/>
-      <c r="Z19" s="227"/>
-      <c r="AA19" s="227"/>
-      <c r="AB19" s="227"/>
-      <c r="AC19" s="227"/>
-      <c r="AD19" s="227"/>
-      <c r="AE19" s="228"/>
-      <c r="AF19" s="223"/>
-      <c r="AG19" s="224"/>
-      <c r="AH19" s="224"/>
-      <c r="AI19" s="225"/>
+      <c r="B19" s="195"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="197"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="199"/>
+      <c r="G19" s="195"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="196"/>
+      <c r="J19" s="183"/>
+      <c r="K19" s="184"/>
+      <c r="L19" s="184"/>
+      <c r="M19" s="184"/>
+      <c r="N19" s="184"/>
+      <c r="O19" s="184"/>
+      <c r="P19" s="185"/>
+      <c r="Q19" s="186"/>
+      <c r="R19" s="187"/>
+      <c r="S19" s="187"/>
+      <c r="T19" s="187"/>
+      <c r="U19" s="187"/>
+      <c r="V19" s="187"/>
+      <c r="W19" s="187"/>
+      <c r="X19" s="187"/>
+      <c r="Y19" s="187"/>
+      <c r="Z19" s="187"/>
+      <c r="AA19" s="187"/>
+      <c r="AB19" s="187"/>
+      <c r="AC19" s="187"/>
+      <c r="AD19" s="187"/>
+      <c r="AE19" s="188"/>
+      <c r="AF19" s="183"/>
+      <c r="AG19" s="184"/>
+      <c r="AH19" s="184"/>
+      <c r="AI19" s="185"/>
       <c r="AJ19" s="31"/>
       <c r="AK19" s="31"/>
       <c r="AL19" s="31"/>
       <c r="AM19" s="31"/>
       <c r="AN19" s="31"/>
     </row>
-    <row r="20" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="22"/>
-      <c r="B20" s="198"/>
-      <c r="C20" s="199"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="201"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="198"/>
-      <c r="H20" s="203"/>
-      <c r="I20" s="199"/>
-      <c r="J20" s="223"/>
-      <c r="K20" s="224"/>
-      <c r="L20" s="224"/>
-      <c r="M20" s="224"/>
-      <c r="N20" s="224"/>
-      <c r="O20" s="224"/>
-      <c r="P20" s="225"/>
-      <c r="Q20" s="226"/>
-      <c r="R20" s="227"/>
-      <c r="S20" s="227"/>
-      <c r="T20" s="227"/>
-      <c r="U20" s="227"/>
-      <c r="V20" s="227"/>
-      <c r="W20" s="227"/>
-      <c r="X20" s="227"/>
-      <c r="Y20" s="227"/>
-      <c r="Z20" s="227"/>
-      <c r="AA20" s="227"/>
-      <c r="AB20" s="227"/>
-      <c r="AC20" s="227"/>
-      <c r="AD20" s="227"/>
-      <c r="AE20" s="228"/>
-      <c r="AF20" s="223"/>
-      <c r="AG20" s="224"/>
-      <c r="AH20" s="224"/>
-      <c r="AI20" s="225"/>
+      <c r="B20" s="195"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="197"/>
+      <c r="E20" s="198"/>
+      <c r="F20" s="199"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="200"/>
+      <c r="I20" s="196"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="184"/>
+      <c r="L20" s="184"/>
+      <c r="M20" s="184"/>
+      <c r="N20" s="184"/>
+      <c r="O20" s="184"/>
+      <c r="P20" s="185"/>
+      <c r="Q20" s="186"/>
+      <c r="R20" s="187"/>
+      <c r="S20" s="187"/>
+      <c r="T20" s="187"/>
+      <c r="U20" s="187"/>
+      <c r="V20" s="187"/>
+      <c r="W20" s="187"/>
+      <c r="X20" s="187"/>
+      <c r="Y20" s="187"/>
+      <c r="Z20" s="187"/>
+      <c r="AA20" s="187"/>
+      <c r="AB20" s="187"/>
+      <c r="AC20" s="187"/>
+      <c r="AD20" s="187"/>
+      <c r="AE20" s="188"/>
+      <c r="AF20" s="183"/>
+      <c r="AG20" s="184"/>
+      <c r="AH20" s="184"/>
+      <c r="AI20" s="185"/>
       <c r="AJ20" s="31"/>
       <c r="AK20" s="31"/>
       <c r="AL20" s="31"/>
       <c r="AM20" s="31"/>
       <c r="AN20" s="31"/>
     </row>
-    <row r="21" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="22"/>
-      <c r="B21" s="198"/>
-      <c r="C21" s="199"/>
-      <c r="D21" s="200"/>
-      <c r="E21" s="201"/>
-      <c r="F21" s="202"/>
-      <c r="G21" s="198"/>
-      <c r="H21" s="203"/>
-      <c r="I21" s="199"/>
-      <c r="J21" s="223"/>
-      <c r="K21" s="224"/>
-      <c r="L21" s="224"/>
-      <c r="M21" s="224"/>
-      <c r="N21" s="224"/>
-      <c r="O21" s="224"/>
-      <c r="P21" s="225"/>
-      <c r="Q21" s="226"/>
-      <c r="R21" s="227"/>
-      <c r="S21" s="227"/>
-      <c r="T21" s="227"/>
-      <c r="U21" s="227"/>
-      <c r="V21" s="227"/>
-      <c r="W21" s="227"/>
-      <c r="X21" s="227"/>
-      <c r="Y21" s="227"/>
-      <c r="Z21" s="227"/>
-      <c r="AA21" s="227"/>
-      <c r="AB21" s="227"/>
-      <c r="AC21" s="227"/>
-      <c r="AD21" s="227"/>
-      <c r="AE21" s="228"/>
-      <c r="AF21" s="223"/>
-      <c r="AG21" s="224"/>
-      <c r="AH21" s="224"/>
-      <c r="AI21" s="225"/>
+      <c r="B21" s="195"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="199"/>
+      <c r="G21" s="195"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="196"/>
+      <c r="J21" s="183"/>
+      <c r="K21" s="184"/>
+      <c r="L21" s="184"/>
+      <c r="M21" s="184"/>
+      <c r="N21" s="184"/>
+      <c r="O21" s="184"/>
+      <c r="P21" s="185"/>
+      <c r="Q21" s="186"/>
+      <c r="R21" s="187"/>
+      <c r="S21" s="187"/>
+      <c r="T21" s="187"/>
+      <c r="U21" s="187"/>
+      <c r="V21" s="187"/>
+      <c r="W21" s="187"/>
+      <c r="X21" s="187"/>
+      <c r="Y21" s="187"/>
+      <c r="Z21" s="187"/>
+      <c r="AA21" s="187"/>
+      <c r="AB21" s="187"/>
+      <c r="AC21" s="187"/>
+      <c r="AD21" s="187"/>
+      <c r="AE21" s="188"/>
+      <c r="AF21" s="183"/>
+      <c r="AG21" s="184"/>
+      <c r="AH21" s="184"/>
+      <c r="AI21" s="185"/>
       <c r="AJ21" s="31"/>
       <c r="AK21" s="31"/>
       <c r="AL21" s="31"/>
       <c r="AM21" s="31"/>
       <c r="AN21" s="31"/>
     </row>
-    <row r="22" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="22"/>
-      <c r="B22" s="198"/>
-      <c r="C22" s="199"/>
-      <c r="D22" s="200"/>
-      <c r="E22" s="201"/>
-      <c r="F22" s="202"/>
-      <c r="G22" s="198"/>
-      <c r="H22" s="203"/>
-      <c r="I22" s="199"/>
-      <c r="J22" s="223"/>
-      <c r="K22" s="224"/>
-      <c r="L22" s="224"/>
-      <c r="M22" s="224"/>
-      <c r="N22" s="224"/>
-      <c r="O22" s="224"/>
-      <c r="P22" s="225"/>
-      <c r="Q22" s="226"/>
-      <c r="R22" s="227"/>
-      <c r="S22" s="227"/>
-      <c r="T22" s="227"/>
-      <c r="U22" s="227"/>
-      <c r="V22" s="227"/>
-      <c r="W22" s="227"/>
-      <c r="X22" s="227"/>
-      <c r="Y22" s="227"/>
-      <c r="Z22" s="227"/>
-      <c r="AA22" s="227"/>
-      <c r="AB22" s="227"/>
-      <c r="AC22" s="227"/>
-      <c r="AD22" s="227"/>
-      <c r="AE22" s="228"/>
-      <c r="AF22" s="223"/>
-      <c r="AG22" s="224"/>
-      <c r="AH22" s="224"/>
-      <c r="AI22" s="225"/>
+      <c r="B22" s="195"/>
+      <c r="C22" s="196"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="198"/>
+      <c r="F22" s="199"/>
+      <c r="G22" s="195"/>
+      <c r="H22" s="200"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="183"/>
+      <c r="K22" s="184"/>
+      <c r="L22" s="184"/>
+      <c r="M22" s="184"/>
+      <c r="N22" s="184"/>
+      <c r="O22" s="184"/>
+      <c r="P22" s="185"/>
+      <c r="Q22" s="186"/>
+      <c r="R22" s="187"/>
+      <c r="S22" s="187"/>
+      <c r="T22" s="187"/>
+      <c r="U22" s="187"/>
+      <c r="V22" s="187"/>
+      <c r="W22" s="187"/>
+      <c r="X22" s="187"/>
+      <c r="Y22" s="187"/>
+      <c r="Z22" s="187"/>
+      <c r="AA22" s="187"/>
+      <c r="AB22" s="187"/>
+      <c r="AC22" s="187"/>
+      <c r="AD22" s="187"/>
+      <c r="AE22" s="188"/>
+      <c r="AF22" s="183"/>
+      <c r="AG22" s="184"/>
+      <c r="AH22" s="184"/>
+      <c r="AI22" s="185"/>
       <c r="AJ22" s="31"/>
       <c r="AK22" s="31"/>
       <c r="AL22" s="31"/>
       <c r="AM22" s="31"/>
       <c r="AN22" s="31"/>
     </row>
-    <row r="23" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="22"/>
-      <c r="B23" s="198"/>
-      <c r="C23" s="199"/>
-      <c r="D23" s="200"/>
-      <c r="E23" s="201"/>
-      <c r="F23" s="202"/>
-      <c r="G23" s="198"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="199"/>
-      <c r="J23" s="223"/>
-      <c r="K23" s="224"/>
-      <c r="L23" s="224"/>
-      <c r="M23" s="224"/>
-      <c r="N23" s="224"/>
-      <c r="O23" s="224"/>
-      <c r="P23" s="225"/>
-      <c r="Q23" s="226"/>
-      <c r="R23" s="227"/>
-      <c r="S23" s="227"/>
-      <c r="T23" s="227"/>
-      <c r="U23" s="227"/>
-      <c r="V23" s="227"/>
-      <c r="W23" s="227"/>
-      <c r="X23" s="227"/>
-      <c r="Y23" s="227"/>
-      <c r="Z23" s="227"/>
-      <c r="AA23" s="227"/>
-      <c r="AB23" s="227"/>
-      <c r="AC23" s="227"/>
-      <c r="AD23" s="227"/>
-      <c r="AE23" s="228"/>
-      <c r="AF23" s="223"/>
-      <c r="AG23" s="224"/>
-      <c r="AH23" s="224"/>
-      <c r="AI23" s="225"/>
+      <c r="B23" s="195"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="197"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="195"/>
+      <c r="H23" s="200"/>
+      <c r="I23" s="196"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="184"/>
+      <c r="L23" s="184"/>
+      <c r="M23" s="184"/>
+      <c r="N23" s="184"/>
+      <c r="O23" s="184"/>
+      <c r="P23" s="185"/>
+      <c r="Q23" s="186"/>
+      <c r="R23" s="187"/>
+      <c r="S23" s="187"/>
+      <c r="T23" s="187"/>
+      <c r="U23" s="187"/>
+      <c r="V23" s="187"/>
+      <c r="W23" s="187"/>
+      <c r="X23" s="187"/>
+      <c r="Y23" s="187"/>
+      <c r="Z23" s="187"/>
+      <c r="AA23" s="187"/>
+      <c r="AB23" s="187"/>
+      <c r="AC23" s="187"/>
+      <c r="AD23" s="187"/>
+      <c r="AE23" s="188"/>
+      <c r="AF23" s="183"/>
+      <c r="AG23" s="184"/>
+      <c r="AH23" s="184"/>
+      <c r="AI23" s="185"/>
       <c r="AJ23" s="31"/>
       <c r="AK23" s="31"/>
       <c r="AL23" s="31"/>
       <c r="AM23" s="31"/>
       <c r="AN23" s="31"/>
     </row>
-    <row r="24" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="22"/>
-      <c r="B24" s="198"/>
-      <c r="C24" s="199"/>
-      <c r="D24" s="200"/>
-      <c r="E24" s="201"/>
-      <c r="F24" s="202"/>
-      <c r="G24" s="198"/>
-      <c r="H24" s="203"/>
-      <c r="I24" s="199"/>
-      <c r="J24" s="223"/>
-      <c r="K24" s="224"/>
-      <c r="L24" s="224"/>
-      <c r="M24" s="224"/>
-      <c r="N24" s="224"/>
-      <c r="O24" s="224"/>
-      <c r="P24" s="225"/>
-      <c r="Q24" s="226"/>
-      <c r="R24" s="227"/>
-      <c r="S24" s="227"/>
-      <c r="T24" s="227"/>
-      <c r="U24" s="227"/>
-      <c r="V24" s="227"/>
-      <c r="W24" s="227"/>
-      <c r="X24" s="227"/>
-      <c r="Y24" s="227"/>
-      <c r="Z24" s="227"/>
-      <c r="AA24" s="227"/>
-      <c r="AB24" s="227"/>
-      <c r="AC24" s="227"/>
-      <c r="AD24" s="227"/>
-      <c r="AE24" s="228"/>
-      <c r="AF24" s="223"/>
-      <c r="AG24" s="224"/>
-      <c r="AH24" s="224"/>
-      <c r="AI24" s="225"/>
+      <c r="B24" s="195"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="198"/>
+      <c r="F24" s="199"/>
+      <c r="G24" s="195"/>
+      <c r="H24" s="200"/>
+      <c r="I24" s="196"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="184"/>
+      <c r="L24" s="184"/>
+      <c r="M24" s="184"/>
+      <c r="N24" s="184"/>
+      <c r="O24" s="184"/>
+      <c r="P24" s="185"/>
+      <c r="Q24" s="186"/>
+      <c r="R24" s="187"/>
+      <c r="S24" s="187"/>
+      <c r="T24" s="187"/>
+      <c r="U24" s="187"/>
+      <c r="V24" s="187"/>
+      <c r="W24" s="187"/>
+      <c r="X24" s="187"/>
+      <c r="Y24" s="187"/>
+      <c r="Z24" s="187"/>
+      <c r="AA24" s="187"/>
+      <c r="AB24" s="187"/>
+      <c r="AC24" s="187"/>
+      <c r="AD24" s="187"/>
+      <c r="AE24" s="188"/>
+      <c r="AF24" s="183"/>
+      <c r="AG24" s="184"/>
+      <c r="AH24" s="184"/>
+      <c r="AI24" s="185"/>
       <c r="AJ24" s="31"/>
       <c r="AK24" s="31"/>
       <c r="AL24" s="31"/>
       <c r="AM24" s="31"/>
       <c r="AN24" s="31"/>
     </row>
-    <row r="25" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="22"/>
-      <c r="B25" s="198"/>
-      <c r="C25" s="199"/>
-      <c r="D25" s="200"/>
-      <c r="E25" s="201"/>
-      <c r="F25" s="202"/>
-      <c r="G25" s="198"/>
-      <c r="H25" s="203"/>
-      <c r="I25" s="199"/>
-      <c r="J25" s="223"/>
-      <c r="K25" s="224"/>
-      <c r="L25" s="224"/>
-      <c r="M25" s="224"/>
-      <c r="N25" s="224"/>
-      <c r="O25" s="224"/>
-      <c r="P25" s="225"/>
-      <c r="Q25" s="226"/>
-      <c r="R25" s="227"/>
-      <c r="S25" s="227"/>
-      <c r="T25" s="227"/>
-      <c r="U25" s="227"/>
-      <c r="V25" s="227"/>
-      <c r="W25" s="227"/>
-      <c r="X25" s="227"/>
-      <c r="Y25" s="227"/>
-      <c r="Z25" s="227"/>
-      <c r="AA25" s="227"/>
-      <c r="AB25" s="227"/>
-      <c r="AC25" s="227"/>
-      <c r="AD25" s="227"/>
-      <c r="AE25" s="228"/>
-      <c r="AF25" s="223"/>
-      <c r="AG25" s="224"/>
-      <c r="AH25" s="224"/>
-      <c r="AI25" s="225"/>
+      <c r="B25" s="195"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="197"/>
+      <c r="E25" s="198"/>
+      <c r="F25" s="199"/>
+      <c r="G25" s="195"/>
+      <c r="H25" s="200"/>
+      <c r="I25" s="196"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="184"/>
+      <c r="L25" s="184"/>
+      <c r="M25" s="184"/>
+      <c r="N25" s="184"/>
+      <c r="O25" s="184"/>
+      <c r="P25" s="185"/>
+      <c r="Q25" s="186"/>
+      <c r="R25" s="187"/>
+      <c r="S25" s="187"/>
+      <c r="T25" s="187"/>
+      <c r="U25" s="187"/>
+      <c r="V25" s="187"/>
+      <c r="W25" s="187"/>
+      <c r="X25" s="187"/>
+      <c r="Y25" s="187"/>
+      <c r="Z25" s="187"/>
+      <c r="AA25" s="187"/>
+      <c r="AB25" s="187"/>
+      <c r="AC25" s="187"/>
+      <c r="AD25" s="187"/>
+      <c r="AE25" s="188"/>
+      <c r="AF25" s="183"/>
+      <c r="AG25" s="184"/>
+      <c r="AH25" s="184"/>
+      <c r="AI25" s="185"/>
       <c r="AJ25" s="31"/>
       <c r="AK25" s="31"/>
       <c r="AL25" s="31"/>
       <c r="AM25" s="31"/>
       <c r="AN25" s="31"/>
     </row>
-    <row r="26" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="22"/>
-      <c r="B26" s="198"/>
-      <c r="C26" s="199"/>
-      <c r="D26" s="200"/>
-      <c r="E26" s="201"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="198"/>
-      <c r="H26" s="203"/>
-      <c r="I26" s="199"/>
-      <c r="J26" s="223"/>
-      <c r="K26" s="224"/>
-      <c r="L26" s="224"/>
-      <c r="M26" s="224"/>
-      <c r="N26" s="224"/>
-      <c r="O26" s="224"/>
-      <c r="P26" s="225"/>
-      <c r="Q26" s="226"/>
-      <c r="R26" s="227"/>
-      <c r="S26" s="227"/>
-      <c r="T26" s="227"/>
-      <c r="U26" s="227"/>
-      <c r="V26" s="227"/>
-      <c r="W26" s="227"/>
-      <c r="X26" s="227"/>
-      <c r="Y26" s="227"/>
-      <c r="Z26" s="227"/>
-      <c r="AA26" s="227"/>
-      <c r="AB26" s="227"/>
-      <c r="AC26" s="227"/>
-      <c r="AD26" s="227"/>
-      <c r="AE26" s="228"/>
-      <c r="AF26" s="223"/>
-      <c r="AG26" s="224"/>
-      <c r="AH26" s="224"/>
-      <c r="AI26" s="225"/>
+      <c r="B26" s="195"/>
+      <c r="C26" s="196"/>
+      <c r="D26" s="197"/>
+      <c r="E26" s="198"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="195"/>
+      <c r="H26" s="200"/>
+      <c r="I26" s="196"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="184"/>
+      <c r="L26" s="184"/>
+      <c r="M26" s="184"/>
+      <c r="N26" s="184"/>
+      <c r="O26" s="184"/>
+      <c r="P26" s="185"/>
+      <c r="Q26" s="186"/>
+      <c r="R26" s="187"/>
+      <c r="S26" s="187"/>
+      <c r="T26" s="187"/>
+      <c r="U26" s="187"/>
+      <c r="V26" s="187"/>
+      <c r="W26" s="187"/>
+      <c r="X26" s="187"/>
+      <c r="Y26" s="187"/>
+      <c r="Z26" s="187"/>
+      <c r="AA26" s="187"/>
+      <c r="AB26" s="187"/>
+      <c r="AC26" s="187"/>
+      <c r="AD26" s="187"/>
+      <c r="AE26" s="188"/>
+      <c r="AF26" s="183"/>
+      <c r="AG26" s="184"/>
+      <c r="AH26" s="184"/>
+      <c r="AI26" s="185"/>
       <c r="AJ26" s="31"/>
       <c r="AK26" s="31"/>
       <c r="AL26" s="31"/>
       <c r="AM26" s="31"/>
       <c r="AN26" s="31"/>
     </row>
-    <row r="27" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="22"/>
-      <c r="B27" s="198"/>
-      <c r="C27" s="199"/>
-      <c r="D27" s="200"/>
-      <c r="E27" s="201"/>
-      <c r="F27" s="202"/>
-      <c r="G27" s="198"/>
-      <c r="H27" s="203"/>
-      <c r="I27" s="199"/>
-      <c r="J27" s="223"/>
-      <c r="K27" s="224"/>
-      <c r="L27" s="224"/>
-      <c r="M27" s="224"/>
-      <c r="N27" s="224"/>
-      <c r="O27" s="224"/>
-      <c r="P27" s="225"/>
-      <c r="Q27" s="226"/>
-      <c r="R27" s="227"/>
-      <c r="S27" s="227"/>
-      <c r="T27" s="227"/>
-      <c r="U27" s="227"/>
-      <c r="V27" s="227"/>
-      <c r="W27" s="227"/>
-      <c r="X27" s="227"/>
-      <c r="Y27" s="227"/>
-      <c r="Z27" s="227"/>
-      <c r="AA27" s="227"/>
-      <c r="AB27" s="227"/>
-      <c r="AC27" s="227"/>
-      <c r="AD27" s="227"/>
-      <c r="AE27" s="228"/>
-      <c r="AF27" s="223"/>
-      <c r="AG27" s="224"/>
-      <c r="AH27" s="224"/>
-      <c r="AI27" s="225"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="197"/>
+      <c r="E27" s="198"/>
+      <c r="F27" s="199"/>
+      <c r="G27" s="195"/>
+      <c r="H27" s="200"/>
+      <c r="I27" s="196"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="184"/>
+      <c r="L27" s="184"/>
+      <c r="M27" s="184"/>
+      <c r="N27" s="184"/>
+      <c r="O27" s="184"/>
+      <c r="P27" s="185"/>
+      <c r="Q27" s="186"/>
+      <c r="R27" s="187"/>
+      <c r="S27" s="187"/>
+      <c r="T27" s="187"/>
+      <c r="U27" s="187"/>
+      <c r="V27" s="187"/>
+      <c r="W27" s="187"/>
+      <c r="X27" s="187"/>
+      <c r="Y27" s="187"/>
+      <c r="Z27" s="187"/>
+      <c r="AA27" s="187"/>
+      <c r="AB27" s="187"/>
+      <c r="AC27" s="187"/>
+      <c r="AD27" s="187"/>
+      <c r="AE27" s="188"/>
+      <c r="AF27" s="183"/>
+      <c r="AG27" s="184"/>
+      <c r="AH27" s="184"/>
+      <c r="AI27" s="185"/>
       <c r="AJ27" s="31"/>
       <c r="AK27" s="31"/>
       <c r="AL27" s="31"/>
       <c r="AM27" s="31"/>
       <c r="AN27" s="31"/>
     </row>
-    <row r="28" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="22"/>
-      <c r="B28" s="198"/>
-      <c r="C28" s="199"/>
-      <c r="D28" s="200"/>
-      <c r="E28" s="201"/>
-      <c r="F28" s="202"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="203"/>
-      <c r="I28" s="199"/>
-      <c r="J28" s="223"/>
-      <c r="K28" s="224"/>
-      <c r="L28" s="224"/>
-      <c r="M28" s="224"/>
-      <c r="N28" s="224"/>
-      <c r="O28" s="224"/>
-      <c r="P28" s="225"/>
-      <c r="Q28" s="226"/>
-      <c r="R28" s="227"/>
-      <c r="S28" s="227"/>
-      <c r="T28" s="227"/>
-      <c r="U28" s="227"/>
-      <c r="V28" s="227"/>
-      <c r="W28" s="227"/>
-      <c r="X28" s="227"/>
-      <c r="Y28" s="227"/>
-      <c r="Z28" s="227"/>
-      <c r="AA28" s="227"/>
-      <c r="AB28" s="227"/>
-      <c r="AC28" s="227"/>
-      <c r="AD28" s="227"/>
-      <c r="AE28" s="228"/>
-      <c r="AF28" s="223"/>
-      <c r="AG28" s="224"/>
-      <c r="AH28" s="224"/>
-      <c r="AI28" s="225"/>
+      <c r="B28" s="195"/>
+      <c r="C28" s="196"/>
+      <c r="D28" s="197"/>
+      <c r="E28" s="198"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="195"/>
+      <c r="H28" s="200"/>
+      <c r="I28" s="196"/>
+      <c r="J28" s="183"/>
+      <c r="K28" s="184"/>
+      <c r="L28" s="184"/>
+      <c r="M28" s="184"/>
+      <c r="N28" s="184"/>
+      <c r="O28" s="184"/>
+      <c r="P28" s="185"/>
+      <c r="Q28" s="186"/>
+      <c r="R28" s="187"/>
+      <c r="S28" s="187"/>
+      <c r="T28" s="187"/>
+      <c r="U28" s="187"/>
+      <c r="V28" s="187"/>
+      <c r="W28" s="187"/>
+      <c r="X28" s="187"/>
+      <c r="Y28" s="187"/>
+      <c r="Z28" s="187"/>
+      <c r="AA28" s="187"/>
+      <c r="AB28" s="187"/>
+      <c r="AC28" s="187"/>
+      <c r="AD28" s="187"/>
+      <c r="AE28" s="188"/>
+      <c r="AF28" s="183"/>
+      <c r="AG28" s="184"/>
+      <c r="AH28" s="184"/>
+      <c r="AI28" s="185"/>
       <c r="AJ28" s="31"/>
       <c r="AK28" s="31"/>
       <c r="AL28" s="31"/>
       <c r="AM28" s="31"/>
       <c r="AN28" s="31"/>
     </row>
-    <row r="29" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="22"/>
-      <c r="B29" s="198"/>
-      <c r="C29" s="199"/>
-      <c r="D29" s="200"/>
-      <c r="E29" s="201"/>
-      <c r="F29" s="202"/>
-      <c r="G29" s="198"/>
-      <c r="H29" s="203"/>
-      <c r="I29" s="199"/>
-      <c r="J29" s="223"/>
-      <c r="K29" s="224"/>
-      <c r="L29" s="224"/>
-      <c r="M29" s="224"/>
-      <c r="N29" s="224"/>
-      <c r="O29" s="224"/>
-      <c r="P29" s="225"/>
-      <c r="Q29" s="226"/>
-      <c r="R29" s="227"/>
-      <c r="S29" s="227"/>
-      <c r="T29" s="227"/>
-      <c r="U29" s="227"/>
-      <c r="V29" s="227"/>
-      <c r="W29" s="227"/>
-      <c r="X29" s="227"/>
-      <c r="Y29" s="227"/>
-      <c r="Z29" s="227"/>
-      <c r="AA29" s="227"/>
-      <c r="AB29" s="227"/>
-      <c r="AC29" s="227"/>
-      <c r="AD29" s="227"/>
-      <c r="AE29" s="228"/>
-      <c r="AF29" s="223"/>
-      <c r="AG29" s="224"/>
-      <c r="AH29" s="224"/>
-      <c r="AI29" s="225"/>
+      <c r="B29" s="195"/>
+      <c r="C29" s="196"/>
+      <c r="D29" s="197"/>
+      <c r="E29" s="198"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="195"/>
+      <c r="H29" s="200"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="184"/>
+      <c r="L29" s="184"/>
+      <c r="M29" s="184"/>
+      <c r="N29" s="184"/>
+      <c r="O29" s="184"/>
+      <c r="P29" s="185"/>
+      <c r="Q29" s="186"/>
+      <c r="R29" s="187"/>
+      <c r="S29" s="187"/>
+      <c r="T29" s="187"/>
+      <c r="U29" s="187"/>
+      <c r="V29" s="187"/>
+      <c r="W29" s="187"/>
+      <c r="X29" s="187"/>
+      <c r="Y29" s="187"/>
+      <c r="Z29" s="187"/>
+      <c r="AA29" s="187"/>
+      <c r="AB29" s="187"/>
+      <c r="AC29" s="187"/>
+      <c r="AD29" s="187"/>
+      <c r="AE29" s="188"/>
+      <c r="AF29" s="183"/>
+      <c r="AG29" s="184"/>
+      <c r="AH29" s="184"/>
+      <c r="AI29" s="185"/>
       <c r="AJ29" s="31"/>
       <c r="AK29" s="31"/>
       <c r="AL29" s="31"/>
       <c r="AM29" s="31"/>
       <c r="AN29" s="31"/>
     </row>
-    <row r="30" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="22"/>
-      <c r="B30" s="198"/>
-      <c r="C30" s="199"/>
-      <c r="D30" s="200"/>
-      <c r="E30" s="201"/>
-      <c r="F30" s="202"/>
-      <c r="G30" s="198"/>
-      <c r="H30" s="203"/>
-      <c r="I30" s="199"/>
-      <c r="J30" s="223"/>
-      <c r="K30" s="224"/>
-      <c r="L30" s="224"/>
-      <c r="M30" s="224"/>
-      <c r="N30" s="224"/>
-      <c r="O30" s="224"/>
-      <c r="P30" s="225"/>
-      <c r="Q30" s="226"/>
-      <c r="R30" s="227"/>
-      <c r="S30" s="227"/>
-      <c r="T30" s="227"/>
-      <c r="U30" s="227"/>
-      <c r="V30" s="227"/>
-      <c r="W30" s="227"/>
-      <c r="X30" s="227"/>
-      <c r="Y30" s="227"/>
-      <c r="Z30" s="227"/>
-      <c r="AA30" s="227"/>
-      <c r="AB30" s="227"/>
-      <c r="AC30" s="227"/>
-      <c r="AD30" s="227"/>
-      <c r="AE30" s="228"/>
-      <c r="AF30" s="223"/>
-      <c r="AG30" s="224"/>
-      <c r="AH30" s="224"/>
-      <c r="AI30" s="225"/>
+      <c r="B30" s="195"/>
+      <c r="C30" s="196"/>
+      <c r="D30" s="197"/>
+      <c r="E30" s="198"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="195"/>
+      <c r="H30" s="200"/>
+      <c r="I30" s="196"/>
+      <c r="J30" s="183"/>
+      <c r="K30" s="184"/>
+      <c r="L30" s="184"/>
+      <c r="M30" s="184"/>
+      <c r="N30" s="184"/>
+      <c r="O30" s="184"/>
+      <c r="P30" s="185"/>
+      <c r="Q30" s="186"/>
+      <c r="R30" s="187"/>
+      <c r="S30" s="187"/>
+      <c r="T30" s="187"/>
+      <c r="U30" s="187"/>
+      <c r="V30" s="187"/>
+      <c r="W30" s="187"/>
+      <c r="X30" s="187"/>
+      <c r="Y30" s="187"/>
+      <c r="Z30" s="187"/>
+      <c r="AA30" s="187"/>
+      <c r="AB30" s="187"/>
+      <c r="AC30" s="187"/>
+      <c r="AD30" s="187"/>
+      <c r="AE30" s="188"/>
+      <c r="AF30" s="183"/>
+      <c r="AG30" s="184"/>
+      <c r="AH30" s="184"/>
+      <c r="AI30" s="185"/>
       <c r="AJ30" s="31"/>
       <c r="AK30" s="31"/>
       <c r="AL30" s="31"/>
       <c r="AM30" s="31"/>
       <c r="AN30" s="31"/>
     </row>
-    <row r="31" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="22"/>
-      <c r="B31" s="198"/>
-      <c r="C31" s="199"/>
-      <c r="D31" s="200"/>
-      <c r="E31" s="201"/>
-      <c r="F31" s="202"/>
-      <c r="G31" s="198"/>
-      <c r="H31" s="203"/>
-      <c r="I31" s="199"/>
-      <c r="J31" s="223"/>
-      <c r="K31" s="224"/>
-      <c r="L31" s="224"/>
-      <c r="M31" s="224"/>
-      <c r="N31" s="224"/>
-      <c r="O31" s="224"/>
-      <c r="P31" s="225"/>
-      <c r="Q31" s="226"/>
-      <c r="R31" s="227"/>
-      <c r="S31" s="227"/>
-      <c r="T31" s="227"/>
-      <c r="U31" s="227"/>
-      <c r="V31" s="227"/>
-      <c r="W31" s="227"/>
-      <c r="X31" s="227"/>
-      <c r="Y31" s="227"/>
-      <c r="Z31" s="227"/>
-      <c r="AA31" s="227"/>
-      <c r="AB31" s="227"/>
-      <c r="AC31" s="227"/>
-      <c r="AD31" s="227"/>
-      <c r="AE31" s="228"/>
-      <c r="AF31" s="223"/>
-      <c r="AG31" s="224"/>
-      <c r="AH31" s="224"/>
-      <c r="AI31" s="225"/>
+      <c r="B31" s="195"/>
+      <c r="C31" s="196"/>
+      <c r="D31" s="197"/>
+      <c r="E31" s="198"/>
+      <c r="F31" s="199"/>
+      <c r="G31" s="195"/>
+      <c r="H31" s="200"/>
+      <c r="I31" s="196"/>
+      <c r="J31" s="183"/>
+      <c r="K31" s="184"/>
+      <c r="L31" s="184"/>
+      <c r="M31" s="184"/>
+      <c r="N31" s="184"/>
+      <c r="O31" s="184"/>
+      <c r="P31" s="185"/>
+      <c r="Q31" s="186"/>
+      <c r="R31" s="187"/>
+      <c r="S31" s="187"/>
+      <c r="T31" s="187"/>
+      <c r="U31" s="187"/>
+      <c r="V31" s="187"/>
+      <c r="W31" s="187"/>
+      <c r="X31" s="187"/>
+      <c r="Y31" s="187"/>
+      <c r="Z31" s="187"/>
+      <c r="AA31" s="187"/>
+      <c r="AB31" s="187"/>
+      <c r="AC31" s="187"/>
+      <c r="AD31" s="187"/>
+      <c r="AE31" s="188"/>
+      <c r="AF31" s="183"/>
+      <c r="AG31" s="184"/>
+      <c r="AH31" s="184"/>
+      <c r="AI31" s="185"/>
       <c r="AJ31" s="31"/>
       <c r="AK31" s="31"/>
       <c r="AL31" s="31"/>
       <c r="AM31" s="31"/>
       <c r="AN31" s="31"/>
     </row>
-    <row r="32" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="22"/>
-      <c r="B32" s="198"/>
-      <c r="C32" s="199"/>
-      <c r="D32" s="200"/>
-      <c r="E32" s="201"/>
-      <c r="F32" s="202"/>
-      <c r="G32" s="198"/>
-      <c r="H32" s="203"/>
-      <c r="I32" s="199"/>
-      <c r="J32" s="223"/>
-      <c r="K32" s="224"/>
-      <c r="L32" s="224"/>
-      <c r="M32" s="224"/>
-      <c r="N32" s="224"/>
-      <c r="O32" s="224"/>
-      <c r="P32" s="225"/>
-      <c r="Q32" s="226"/>
-      <c r="R32" s="227"/>
-      <c r="S32" s="227"/>
-      <c r="T32" s="227"/>
-      <c r="U32" s="227"/>
-      <c r="V32" s="227"/>
-      <c r="W32" s="227"/>
-      <c r="X32" s="227"/>
-      <c r="Y32" s="227"/>
-      <c r="Z32" s="227"/>
-      <c r="AA32" s="227"/>
-      <c r="AB32" s="227"/>
-      <c r="AC32" s="227"/>
-      <c r="AD32" s="227"/>
-      <c r="AE32" s="228"/>
-      <c r="AF32" s="223"/>
-      <c r="AG32" s="224"/>
-      <c r="AH32" s="224"/>
-      <c r="AI32" s="225"/>
+      <c r="B32" s="195"/>
+      <c r="C32" s="196"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="198"/>
+      <c r="F32" s="199"/>
+      <c r="G32" s="195"/>
+      <c r="H32" s="200"/>
+      <c r="I32" s="196"/>
+      <c r="J32" s="183"/>
+      <c r="K32" s="184"/>
+      <c r="L32" s="184"/>
+      <c r="M32" s="184"/>
+      <c r="N32" s="184"/>
+      <c r="O32" s="184"/>
+      <c r="P32" s="185"/>
+      <c r="Q32" s="186"/>
+      <c r="R32" s="187"/>
+      <c r="S32" s="187"/>
+      <c r="T32" s="187"/>
+      <c r="U32" s="187"/>
+      <c r="V32" s="187"/>
+      <c r="W32" s="187"/>
+      <c r="X32" s="187"/>
+      <c r="Y32" s="187"/>
+      <c r="Z32" s="187"/>
+      <c r="AA32" s="187"/>
+      <c r="AB32" s="187"/>
+      <c r="AC32" s="187"/>
+      <c r="AD32" s="187"/>
+      <c r="AE32" s="188"/>
+      <c r="AF32" s="183"/>
+      <c r="AG32" s="184"/>
+      <c r="AH32" s="184"/>
+      <c r="AI32" s="185"/>
       <c r="AJ32" s="31"/>
       <c r="AK32" s="31"/>
       <c r="AL32" s="31"/>
       <c r="AM32" s="31"/>
       <c r="AN32" s="31"/>
     </row>
-    <row r="33" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="22"/>
-      <c r="B33" s="198"/>
-      <c r="C33" s="199"/>
-      <c r="D33" s="200"/>
-      <c r="E33" s="201"/>
-      <c r="F33" s="202"/>
-      <c r="G33" s="198"/>
-      <c r="H33" s="203"/>
-      <c r="I33" s="199"/>
-      <c r="J33" s="223"/>
-      <c r="K33" s="224"/>
-      <c r="L33" s="224"/>
-      <c r="M33" s="224"/>
-      <c r="N33" s="224"/>
-      <c r="O33" s="224"/>
-      <c r="P33" s="225"/>
-      <c r="Q33" s="226"/>
-      <c r="R33" s="227"/>
-      <c r="S33" s="227"/>
-      <c r="T33" s="227"/>
-      <c r="U33" s="227"/>
-      <c r="V33" s="227"/>
-      <c r="W33" s="227"/>
-      <c r="X33" s="227"/>
-      <c r="Y33" s="227"/>
-      <c r="Z33" s="227"/>
-      <c r="AA33" s="227"/>
-      <c r="AB33" s="227"/>
-      <c r="AC33" s="227"/>
-      <c r="AD33" s="227"/>
-      <c r="AE33" s="228"/>
-      <c r="AF33" s="223"/>
-      <c r="AG33" s="224"/>
-      <c r="AH33" s="224"/>
-      <c r="AI33" s="225"/>
+      <c r="B33" s="195"/>
+      <c r="C33" s="196"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="198"/>
+      <c r="F33" s="199"/>
+      <c r="G33" s="195"/>
+      <c r="H33" s="200"/>
+      <c r="I33" s="196"/>
+      <c r="J33" s="183"/>
+      <c r="K33" s="184"/>
+      <c r="L33" s="184"/>
+      <c r="M33" s="184"/>
+      <c r="N33" s="184"/>
+      <c r="O33" s="184"/>
+      <c r="P33" s="185"/>
+      <c r="Q33" s="186"/>
+      <c r="R33" s="187"/>
+      <c r="S33" s="187"/>
+      <c r="T33" s="187"/>
+      <c r="U33" s="187"/>
+      <c r="V33" s="187"/>
+      <c r="W33" s="187"/>
+      <c r="X33" s="187"/>
+      <c r="Y33" s="187"/>
+      <c r="Z33" s="187"/>
+      <c r="AA33" s="187"/>
+      <c r="AB33" s="187"/>
+      <c r="AC33" s="187"/>
+      <c r="AD33" s="187"/>
+      <c r="AE33" s="188"/>
+      <c r="AF33" s="183"/>
+      <c r="AG33" s="184"/>
+      <c r="AH33" s="184"/>
+      <c r="AI33" s="185"/>
       <c r="AJ33" s="31"/>
       <c r="AK33" s="31"/>
       <c r="AL33" s="31"/>
       <c r="AM33" s="31"/>
       <c r="AN33" s="31"/>
     </row>
-    <row r="34" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:40" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -8345,7 +8265,7 @@
       <c r="AM34" s="31"/>
       <c r="AN34" s="31"/>
     </row>
-    <row r="35" spans="1:40">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -8387,7 +8307,7 @@
       <c r="AM35" s="17"/>
       <c r="AN35" s="17"/>
     </row>
-    <row r="36" spans="1:40">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -8429,7 +8349,7 @@
       <c r="AM36" s="17"/>
       <c r="AN36" s="17"/>
     </row>
-    <row r="37" spans="1:40">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -8471,7 +8391,7 @@
       <c r="AM37" s="17"/>
       <c r="AN37" s="17"/>
     </row>
-    <row r="38" spans="1:40">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -8513,7 +8433,7 @@
       <c r="AM38" s="17"/>
       <c r="AN38" s="17"/>
     </row>
-    <row r="39" spans="1:40">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -8555,7 +8475,7 @@
       <c r="AM39" s="17"/>
       <c r="AN39" s="17"/>
     </row>
-    <row r="40" spans="1:40">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -8597,7 +8517,7 @@
       <c r="AM40" s="17"/>
       <c r="AN40" s="17"/>
     </row>
-    <row r="41" spans="1:40">
+    <row r="41" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -8639,7 +8559,7 @@
       <c r="AM41" s="17"/>
       <c r="AN41" s="17"/>
     </row>
-    <row r="42" spans="1:40">
+    <row r="42" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -8683,161 +8603,6 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -8862,6 +8627,161 @@
     <mergeCell ref="Q8:AE8"/>
     <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="J13:P13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AF7:AI7"/>
   </mergeCells>
   <phoneticPr fontId="15"/>
   <printOptions horizontalCentered="1"/>
@@ -8871,7 +8791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8881,7 +8801,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="138" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="158" customWidth="1"/>
@@ -9016,161 +8936,161 @@
     <col min="16163" max="16384" width="4.83203125" style="138"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A1" s="247" t="s">
+    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="244" t="str">
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="246"/>
-      <c r="O1" s="250" t="s">
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="264"/>
+      <c r="O1" s="241" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="252"/>
-      <c r="S1" s="259" t="str">
+      <c r="P1" s="242"/>
+      <c r="Q1" s="242"/>
+      <c r="R1" s="243"/>
+      <c r="S1" s="250" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="260"/>
-      <c r="U1" s="260"/>
-      <c r="V1" s="260"/>
-      <c r="W1" s="260"/>
-      <c r="X1" s="260"/>
-      <c r="Y1" s="260"/>
-      <c r="Z1" s="261"/>
-      <c r="AA1" s="247" t="s">
+      <c r="T1" s="251"/>
+      <c r="U1" s="251"/>
+      <c r="V1" s="251"/>
+      <c r="W1" s="251"/>
+      <c r="X1" s="251"/>
+      <c r="Y1" s="251"/>
+      <c r="Z1" s="252"/>
+      <c r="AA1" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="249"/>
-      <c r="AC1" s="238" t="str">
+      <c r="AB1" s="240"/>
+      <c r="AC1" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="241">
+      <c r="AD1" s="266"/>
+      <c r="AE1" s="266"/>
+      <c r="AF1" s="267"/>
+      <c r="AG1" s="268">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="242"/>
-      <c r="AI1" s="243"/>
-    </row>
-    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A2" s="247" t="s">
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="270"/>
+    </row>
+    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="244" t="str">
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="245"/>
-      <c r="G2" s="245"/>
-      <c r="H2" s="245"/>
-      <c r="I2" s="245"/>
-      <c r="J2" s="245"/>
-      <c r="K2" s="245"/>
-      <c r="L2" s="245"/>
-      <c r="M2" s="245"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="253"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="255"/>
-      <c r="S2" s="262"/>
-      <c r="T2" s="263"/>
-      <c r="U2" s="263"/>
-      <c r="V2" s="263"/>
-      <c r="W2" s="263"/>
-      <c r="X2" s="263"/>
-      <c r="Y2" s="263"/>
-      <c r="Z2" s="264"/>
-      <c r="AA2" s="247" t="s">
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="263"/>
+      <c r="N2" s="264"/>
+      <c r="O2" s="244"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="246"/>
+      <c r="S2" s="253"/>
+      <c r="T2" s="254"/>
+      <c r="U2" s="254"/>
+      <c r="V2" s="254"/>
+      <c r="W2" s="254"/>
+      <c r="X2" s="254"/>
+      <c r="Y2" s="254"/>
+      <c r="Z2" s="255"/>
+      <c r="AA2" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="249"/>
-      <c r="AC2" s="238" t="str">
+      <c r="AB2" s="240"/>
+      <c r="AC2" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="239"/>
-      <c r="AE2" s="239"/>
-      <c r="AF2" s="240"/>
-      <c r="AG2" s="241" t="str">
+      <c r="AD2" s="266"/>
+      <c r="AE2" s="266"/>
+      <c r="AF2" s="267"/>
+      <c r="AG2" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="242"/>
-      <c r="AI2" s="243"/>
-    </row>
-    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A3" s="268" t="s">
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="270"/>
+    </row>
+    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="259" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="269"/>
-      <c r="C3" s="269"/>
-      <c r="D3" s="270"/>
-      <c r="E3" s="244" t="str">
+      <c r="B3" s="260"/>
+      <c r="C3" s="260"/>
+      <c r="D3" s="261"/>
+      <c r="E3" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="245"/>
-      <c r="K3" s="245"/>
-      <c r="L3" s="245"/>
-      <c r="M3" s="245"/>
-      <c r="N3" s="246"/>
-      <c r="O3" s="256"/>
-      <c r="P3" s="257"/>
-      <c r="Q3" s="257"/>
-      <c r="R3" s="258"/>
-      <c r="S3" s="265"/>
-      <c r="T3" s="266"/>
-      <c r="U3" s="266"/>
-      <c r="V3" s="266"/>
-      <c r="W3" s="266"/>
-      <c r="X3" s="266"/>
-      <c r="Y3" s="266"/>
-      <c r="Z3" s="267"/>
-      <c r="AA3" s="268"/>
-      <c r="AB3" s="270"/>
-      <c r="AC3" s="238" t="str">
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="263"/>
+      <c r="N3" s="264"/>
+      <c r="O3" s="247"/>
+      <c r="P3" s="248"/>
+      <c r="Q3" s="248"/>
+      <c r="R3" s="249"/>
+      <c r="S3" s="256"/>
+      <c r="T3" s="257"/>
+      <c r="U3" s="257"/>
+      <c r="V3" s="257"/>
+      <c r="W3" s="257"/>
+      <c r="X3" s="257"/>
+      <c r="Y3" s="257"/>
+      <c r="Z3" s="258"/>
+      <c r="AA3" s="259"/>
+      <c r="AB3" s="261"/>
+      <c r="AC3" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="239"/>
-      <c r="AE3" s="239"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="241" t="str">
+      <c r="AD3" s="266"/>
+      <c r="AE3" s="266"/>
+      <c r="AF3" s="267"/>
+      <c r="AG3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="242"/>
-      <c r="AI3" s="243"/>
-    </row>
-    <row r="4" spans="1:35" s="122" customFormat="1" ht="19.5" customHeight="1">
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="270"/>
+    </row>
+    <row r="4" spans="1:35" s="122" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="129"/>
       <c r="B4" s="129"/>
       <c r="C4" s="129"/>
@@ -9207,7 +9127,7 @@
       <c r="AH4" s="129"/>
       <c r="AI4" s="129"/>
     </row>
-    <row r="5" spans="1:35" s="122" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:35" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="129"/>
       <c r="B5" s="129"/>
       <c r="C5" s="129"/>
@@ -9246,7 +9166,7 @@
       <c r="AH5" s="129"/>
       <c r="AI5" s="129"/>
     </row>
-    <row r="6" spans="1:35" s="122" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:35" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="129"/>
       <c r="B6" s="129"/>
       <c r="C6" s="129"/>
@@ -9283,7 +9203,7 @@
       <c r="AH6" s="129"/>
       <c r="AI6" s="129"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="86"/>
       <c r="B7" s="87" t="s">
         <v>168</v>
@@ -9322,7 +9242,7 @@
       <c r="AH7" s="136"/>
       <c r="AI7" s="137"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="86"/>
       <c r="B8" s="87"/>
       <c r="C8" s="87" t="s">
@@ -9361,7 +9281,7 @@
       <c r="AH8" s="140"/>
       <c r="AI8" s="137"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="86"/>
       <c r="B9" s="132"/>
       <c r="C9" s="38" t="s">
@@ -9399,7 +9319,7 @@
       <c r="AH9" s="141"/>
       <c r="AI9" s="86"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="86"/>
       <c r="B10" s="132"/>
       <c r="C10" s="87" t="s">
@@ -9438,7 +9358,7 @@
       <c r="AH10" s="141"/>
       <c r="AI10" s="86"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="86"/>
       <c r="B11" s="132"/>
       <c r="C11" s="132"/>
@@ -9475,7 +9395,7 @@
       <c r="AH11" s="136"/>
       <c r="AI11" s="137"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="86"/>
       <c r="B12" s="135" t="s">
         <v>166</v>
@@ -9513,7 +9433,7 @@
       <c r="AH12" s="136"/>
       <c r="AI12" s="137"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="86"/>
       <c r="B13" s="132"/>
       <c r="C13" s="38" t="s">
@@ -9552,7 +9472,7 @@
       <c r="AH13" s="136"/>
       <c r="AI13" s="137"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="86"/>
       <c r="B14" s="132"/>
       <c r="C14" s="38" t="s">
@@ -9586,7 +9506,7 @@
       <c r="AH14" s="136"/>
       <c r="AI14" s="137"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="86"/>
       <c r="B15" s="137"/>
       <c r="C15" s="38" t="s">
@@ -9625,7 +9545,7 @@
       <c r="AH15" s="136"/>
       <c r="AI15" s="137"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="86"/>
       <c r="B16" s="135"/>
       <c r="C16" s="38" t="s">
@@ -9664,7 +9584,7 @@
       <c r="AH16" s="136"/>
       <c r="AI16" s="137"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="86"/>
       <c r="B17" s="135"/>
       <c r="C17" s="38" t="s">
@@ -9699,7 +9619,7 @@
       <c r="AH17" s="136"/>
       <c r="AI17" s="137"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="86"/>
       <c r="B18" s="129"/>
       <c r="C18" s="38" t="s">
@@ -9738,7 +9658,7 @@
       <c r="AH18" s="136"/>
       <c r="AI18" s="137"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="86"/>
       <c r="B19" s="129"/>
       <c r="C19" s="38" t="s">
@@ -9777,7 +9697,7 @@
       <c r="AH19" s="136"/>
       <c r="AI19" s="137"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="86"/>
       <c r="B20" s="142"/>
       <c r="C20" s="83"/>
@@ -9814,7 +9734,7 @@
       <c r="AH20" s="136"/>
       <c r="AI20" s="137"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="86"/>
       <c r="B21" s="142"/>
       <c r="C21" s="83"/>
@@ -9851,7 +9771,7 @@
       <c r="AH21" s="136"/>
       <c r="AI21" s="137"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="86"/>
       <c r="B22" s="142"/>
       <c r="C22" s="83"/>
@@ -9888,7 +9808,7 @@
       <c r="AH22" s="136"/>
       <c r="AI22" s="137"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="86"/>
       <c r="B23" s="143"/>
       <c r="C23" s="60"/>
@@ -9925,7 +9845,7 @@
       <c r="AH23" s="136"/>
       <c r="AI23" s="137"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="86"/>
       <c r="B24" s="142"/>
       <c r="C24" s="83"/>
@@ -9962,7 +9882,7 @@
       <c r="AH24" s="136"/>
       <c r="AI24" s="137"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="86"/>
       <c r="B25" s="142"/>
       <c r="C25" s="83"/>
@@ -9999,7 +9919,7 @@
       <c r="AH25" s="136"/>
       <c r="AI25" s="137"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="86"/>
       <c r="B26" s="142"/>
       <c r="C26" s="83"/>
@@ -10036,7 +9956,7 @@
       <c r="AH26" s="136"/>
       <c r="AI26" s="137"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="86"/>
       <c r="B27" s="142"/>
       <c r="C27" s="83"/>
@@ -10073,7 +9993,7 @@
       <c r="AH27" s="136"/>
       <c r="AI27" s="137"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="86"/>
       <c r="B28" s="142"/>
       <c r="C28" s="83"/>
@@ -10110,7 +10030,7 @@
       <c r="AH28" s="136"/>
       <c r="AI28" s="137"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="86"/>
       <c r="B29" s="129"/>
       <c r="C29" s="86"/>
@@ -10147,7 +10067,7 @@
       <c r="AH29" s="136"/>
       <c r="AI29" s="137"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="86"/>
       <c r="B30" s="129"/>
       <c r="C30" s="86"/>
@@ -10184,7 +10104,7 @@
       <c r="AH30" s="136"/>
       <c r="AI30" s="137"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="144"/>
       <c r="B31" s="129"/>
       <c r="C31" s="129"/>
@@ -10221,7 +10141,7 @@
       <c r="AH31" s="147"/>
       <c r="AI31" s="148"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="144"/>
       <c r="B32" s="129"/>
       <c r="C32" s="130"/>
@@ -10258,7 +10178,7 @@
       <c r="AH32" s="147"/>
       <c r="AI32" s="148"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="144"/>
       <c r="B33" s="150"/>
       <c r="C33" s="86"/>
@@ -10295,7 +10215,7 @@
       <c r="AH33" s="147"/>
       <c r="AI33" s="148"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="144"/>
       <c r="B34" s="150"/>
       <c r="C34" s="86"/>
@@ -10332,7 +10252,7 @@
       <c r="AH34" s="147"/>
       <c r="AI34" s="148"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="144"/>
       <c r="B35" s="150"/>
       <c r="C35" s="86"/>
@@ -10369,7 +10289,7 @@
       <c r="AH35" s="147"/>
       <c r="AI35" s="148"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="144"/>
       <c r="B36" s="150"/>
       <c r="C36" s="86"/>
@@ -10406,7 +10326,7 @@
       <c r="AH36" s="147"/>
       <c r="AI36" s="148"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="144"/>
       <c r="B37" s="144"/>
       <c r="C37" s="144"/>
@@ -10443,7 +10363,7 @@
       <c r="AH37" s="155"/>
       <c r="AI37" s="144"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="156"/>
       <c r="E38" s="156"/>
       <c r="F38" s="156"/>
@@ -10475,7 +10395,7 @@
       <c r="AH38" s="162"/>
       <c r="AI38" s="159"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S39" s="159"/>
       <c r="T39" s="159"/>
       <c r="U39" s="160"/>
@@ -10494,7 +10414,7 @@
       <c r="AH39" s="165"/>
       <c r="AI39" s="159"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q40" s="166"/>
       <c r="S40" s="159"/>
       <c r="T40" s="160"/>
@@ -10514,7 +10434,7 @@
       <c r="AH40" s="165"/>
       <c r="AI40" s="159"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S41" s="159"/>
       <c r="T41" s="159"/>
       <c r="U41" s="159"/>
@@ -10533,7 +10453,7 @@
       <c r="AH41" s="165"/>
       <c r="AI41" s="159"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J42" s="156"/>
       <c r="K42" s="156"/>
       <c r="L42" s="156"/>
@@ -10547,37 +10467,37 @@
       <c r="AH42" s="165"/>
       <c r="AI42" s="159"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE43" s="159"/>
       <c r="AF43" s="163"/>
       <c r="AG43" s="164"/>
       <c r="AH43" s="165"/>
       <c r="AI43" s="159"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE44" s="159"/>
       <c r="AF44" s="163"/>
       <c r="AG44" s="163"/>
       <c r="AH44" s="165"/>
       <c r="AI44" s="159"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="156"/>
       <c r="AF45" s="167"/>
       <c r="AG45" s="167"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="156"/>
       <c r="AG46" s="167"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF47" s="167"/>
       <c r="AG47" s="167"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG48" s="167"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1">
+    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S49" s="156"/>
       <c r="T49" s="156"/>
       <c r="V49" s="156"/>
@@ -10590,7 +10510,7 @@
       <c r="AC49" s="156"/>
       <c r="AD49" s="156"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R50" s="156"/>
       <c r="S50" s="156"/>
       <c r="T50" s="156"/>
@@ -10605,10 +10525,10 @@
       <c r="AD50" s="156"/>
       <c r="AG50" s="167"/>
     </row>
-    <row r="51" spans="1:34" ht="15" customHeight="1">
+    <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R51" s="156"/>
     </row>
-    <row r="52" spans="1:34" s="156" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:34" s="156" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="138"/>
       <c r="B52" s="138"/>
       <c r="C52" s="138"/>
@@ -10641,7 +10561,7 @@
       <c r="AD52" s="138"/>
       <c r="AH52" s="166"/>
     </row>
-    <row r="53" spans="1:34" s="156" customFormat="1" ht="15" customHeight="1">
+    <row r="53" spans="1:34" s="156" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="138"/>
       <c r="B53" s="138"/>
       <c r="C53" s="138"/>
@@ -10676,6 +10596,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
@@ -10685,20 +10613,11 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10713,258 +10632,258 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A1" s="247" t="s">
+    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="238" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="244" t="str">
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="246"/>
-      <c r="O1" s="250" t="s">
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="264"/>
+      <c r="O1" s="241" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="252"/>
-      <c r="S1" s="259" t="str">
+      <c r="P1" s="242"/>
+      <c r="Q1" s="242"/>
+      <c r="R1" s="243"/>
+      <c r="S1" s="250" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="260"/>
-      <c r="U1" s="260"/>
-      <c r="V1" s="260"/>
-      <c r="W1" s="260"/>
-      <c r="X1" s="260"/>
-      <c r="Y1" s="260"/>
-      <c r="Z1" s="261"/>
-      <c r="AA1" s="247" t="s">
+      <c r="T1" s="251"/>
+      <c r="U1" s="251"/>
+      <c r="V1" s="251"/>
+      <c r="W1" s="251"/>
+      <c r="X1" s="251"/>
+      <c r="Y1" s="251"/>
+      <c r="Z1" s="252"/>
+      <c r="AA1" s="238" t="s">
         <v>8</v>
       </c>
-      <c r="AB1" s="249"/>
-      <c r="AC1" s="238" t="str">
+      <c r="AB1" s="240"/>
+      <c r="AC1" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="241">
+      <c r="AD1" s="266"/>
+      <c r="AE1" s="266"/>
+      <c r="AF1" s="267"/>
+      <c r="AG1" s="268">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="242"/>
-      <c r="AI1" s="243"/>
-    </row>
-    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A2" s="247" t="s">
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="270"/>
+    </row>
+    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="238" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="244" t="str">
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="245"/>
-      <c r="G2" s="245"/>
-      <c r="H2" s="245"/>
-      <c r="I2" s="245"/>
-      <c r="J2" s="245"/>
-      <c r="K2" s="245"/>
-      <c r="L2" s="245"/>
-      <c r="M2" s="245"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="253"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="255"/>
-      <c r="S2" s="262"/>
-      <c r="T2" s="263"/>
-      <c r="U2" s="263"/>
-      <c r="V2" s="263"/>
-      <c r="W2" s="263"/>
-      <c r="X2" s="263"/>
-      <c r="Y2" s="263"/>
-      <c r="Z2" s="264"/>
-      <c r="AA2" s="247" t="s">
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="263"/>
+      <c r="N2" s="264"/>
+      <c r="O2" s="244"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="246"/>
+      <c r="S2" s="253"/>
+      <c r="T2" s="254"/>
+      <c r="U2" s="254"/>
+      <c r="V2" s="254"/>
+      <c r="W2" s="254"/>
+      <c r="X2" s="254"/>
+      <c r="Y2" s="254"/>
+      <c r="Z2" s="255"/>
+      <c r="AA2" s="238" t="s">
         <v>10</v>
       </c>
-      <c r="AB2" s="249"/>
-      <c r="AC2" s="238" t="str">
+      <c r="AB2" s="240"/>
+      <c r="AC2" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="239"/>
-      <c r="AE2" s="239"/>
-      <c r="AF2" s="240"/>
-      <c r="AG2" s="241" t="str">
+      <c r="AD2" s="266"/>
+      <c r="AE2" s="266"/>
+      <c r="AF2" s="267"/>
+      <c r="AG2" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="242"/>
-      <c r="AI2" s="243"/>
-    </row>
-    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A3" s="268" t="s">
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="270"/>
+    </row>
+    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="259" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="269"/>
-      <c r="C3" s="269"/>
-      <c r="D3" s="270"/>
-      <c r="E3" s="244" t="str">
+      <c r="B3" s="260"/>
+      <c r="C3" s="260"/>
+      <c r="D3" s="261"/>
+      <c r="E3" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="245"/>
-      <c r="K3" s="245"/>
-      <c r="L3" s="245"/>
-      <c r="M3" s="245"/>
-      <c r="N3" s="246"/>
-      <c r="O3" s="256"/>
-      <c r="P3" s="257"/>
-      <c r="Q3" s="257"/>
-      <c r="R3" s="258"/>
-      <c r="S3" s="265"/>
-      <c r="T3" s="266"/>
-      <c r="U3" s="266"/>
-      <c r="V3" s="266"/>
-      <c r="W3" s="266"/>
-      <c r="X3" s="266"/>
-      <c r="Y3" s="266"/>
-      <c r="Z3" s="267"/>
-      <c r="AA3" s="268"/>
-      <c r="AB3" s="270"/>
-      <c r="AC3" s="238" t="str">
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="263"/>
+      <c r="N3" s="264"/>
+      <c r="O3" s="247"/>
+      <c r="P3" s="248"/>
+      <c r="Q3" s="248"/>
+      <c r="R3" s="249"/>
+      <c r="S3" s="256"/>
+      <c r="T3" s="257"/>
+      <c r="U3" s="257"/>
+      <c r="V3" s="257"/>
+      <c r="W3" s="257"/>
+      <c r="X3" s="257"/>
+      <c r="Y3" s="257"/>
+      <c r="Z3" s="258"/>
+      <c r="AA3" s="259"/>
+      <c r="AB3" s="261"/>
+      <c r="AC3" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="239"/>
-      <c r="AE3" s="239"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="241" t="str">
+      <c r="AD3" s="266"/>
+      <c r="AE3" s="266"/>
+      <c r="AF3" s="267"/>
+      <c r="AG3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="242"/>
-      <c r="AI3" s="243"/>
-    </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1"/>
-    <row r="5" spans="1:35" ht="12" customHeight="1">
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="270"/>
+    </row>
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="12" customHeight="1">
+    <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="38" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="12" customHeight="1"/>
-    <row r="8" spans="1:35" s="85" customFormat="1" ht="12" customHeight="1">
-      <c r="D8" s="305" t="s">
+    <row r="7" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:35" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D8" s="271" t="s">
         <v>170</v>
       </c>
-      <c r="E8" s="306"/>
-      <c r="F8" s="306"/>
-      <c r="G8" s="307"/>
-      <c r="H8" s="310" t="s">
+      <c r="E8" s="272"/>
+      <c r="F8" s="272"/>
+      <c r="G8" s="273"/>
+      <c r="H8" s="276" t="s">
         <v>149</v>
       </c>
-      <c r="I8" s="311"/>
-      <c r="J8" s="311"/>
-      <c r="K8" s="311"/>
-      <c r="L8" s="311"/>
-      <c r="M8" s="312"/>
-      <c r="N8" s="312"/>
-      <c r="O8" s="312"/>
-      <c r="P8" s="312"/>
-      <c r="Q8" s="312"/>
-      <c r="R8" s="312"/>
-      <c r="S8" s="312"/>
-      <c r="T8" s="312"/>
-      <c r="U8" s="312"/>
-      <c r="V8" s="312"/>
-      <c r="W8" s="312"/>
-      <c r="X8" s="312"/>
-      <c r="Y8" s="312"/>
-      <c r="Z8" s="312"/>
-      <c r="AA8" s="312"/>
-      <c r="AB8" s="312"/>
-      <c r="AC8" s="312"/>
-      <c r="AD8" s="312"/>
-      <c r="AE8" s="312"/>
-      <c r="AF8" s="312"/>
-      <c r="AG8" s="312"/>
-      <c r="AH8" s="313"/>
-    </row>
-    <row r="9" spans="1:35" s="85" customFormat="1" ht="12" customHeight="1">
-      <c r="D9" s="319" t="s">
+      <c r="I8" s="277"/>
+      <c r="J8" s="277"/>
+      <c r="K8" s="277"/>
+      <c r="L8" s="277"/>
+      <c r="M8" s="278"/>
+      <c r="N8" s="278"/>
+      <c r="O8" s="278"/>
+      <c r="P8" s="278"/>
+      <c r="Q8" s="278"/>
+      <c r="R8" s="278"/>
+      <c r="S8" s="278"/>
+      <c r="T8" s="278"/>
+      <c r="U8" s="278"/>
+      <c r="V8" s="278"/>
+      <c r="W8" s="278"/>
+      <c r="X8" s="278"/>
+      <c r="Y8" s="278"/>
+      <c r="Z8" s="278"/>
+      <c r="AA8" s="278"/>
+      <c r="AB8" s="278"/>
+      <c r="AC8" s="278"/>
+      <c r="AD8" s="278"/>
+      <c r="AE8" s="278"/>
+      <c r="AF8" s="278"/>
+      <c r="AG8" s="278"/>
+      <c r="AH8" s="279"/>
+    </row>
+    <row r="9" spans="1:35" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D9" s="291" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="320"/>
-      <c r="F9" s="320"/>
-      <c r="G9" s="321"/>
-      <c r="H9" s="310" t="s">
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="293"/>
+      <c r="H9" s="276" t="s">
         <v>150</v>
       </c>
-      <c r="I9" s="312"/>
-      <c r="J9" s="312"/>
-      <c r="K9" s="312"/>
-      <c r="L9" s="312"/>
-      <c r="M9" s="312"/>
-      <c r="N9" s="312"/>
-      <c r="O9" s="312"/>
-      <c r="P9" s="312"/>
-      <c r="Q9" s="312"/>
-      <c r="R9" s="312"/>
-      <c r="S9" s="312"/>
-      <c r="T9" s="312"/>
-      <c r="U9" s="312"/>
-      <c r="V9" s="312"/>
-      <c r="W9" s="312"/>
-      <c r="X9" s="312"/>
-      <c r="Y9" s="312"/>
-      <c r="Z9" s="312"/>
-      <c r="AA9" s="312"/>
-      <c r="AB9" s="312"/>
-      <c r="AC9" s="312"/>
-      <c r="AD9" s="312"/>
-      <c r="AE9" s="312"/>
-      <c r="AF9" s="312"/>
-      <c r="AG9" s="312"/>
-      <c r="AH9" s="313"/>
-    </row>
-    <row r="10" spans="1:35" s="85" customFormat="1">
-      <c r="D10" s="271" t="s">
+      <c r="I9" s="278"/>
+      <c r="J9" s="278"/>
+      <c r="K9" s="278"/>
+      <c r="L9" s="278"/>
+      <c r="M9" s="278"/>
+      <c r="N9" s="278"/>
+      <c r="O9" s="278"/>
+      <c r="P9" s="278"/>
+      <c r="Q9" s="278"/>
+      <c r="R9" s="278"/>
+      <c r="S9" s="278"/>
+      <c r="T9" s="278"/>
+      <c r="U9" s="278"/>
+      <c r="V9" s="278"/>
+      <c r="W9" s="278"/>
+      <c r="X9" s="278"/>
+      <c r="Y9" s="278"/>
+      <c r="Z9" s="278"/>
+      <c r="AA9" s="278"/>
+      <c r="AB9" s="278"/>
+      <c r="AC9" s="278"/>
+      <c r="AD9" s="278"/>
+      <c r="AE9" s="278"/>
+      <c r="AF9" s="278"/>
+      <c r="AG9" s="278"/>
+      <c r="AH9" s="279"/>
+    </row>
+    <row r="10" spans="1:35" s="85" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="280" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="272"/>
-      <c r="F10" s="272"/>
-      <c r="G10" s="273"/>
+      <c r="E10" s="281"/>
+      <c r="F10" s="281"/>
+      <c r="G10" s="282"/>
       <c r="H10" s="118" t="s">
         <v>151</v>
       </c>
@@ -10995,11 +10914,11 @@
       <c r="AG10" s="119"/>
       <c r="AH10" s="120"/>
     </row>
-    <row r="11" spans="1:35" s="85" customFormat="1">
-      <c r="D11" s="322"/>
-      <c r="E11" s="323"/>
-      <c r="F11" s="323"/>
-      <c r="G11" s="324"/>
+    <row r="11" spans="1:35" s="85" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="294"/>
+      <c r="E11" s="295"/>
+      <c r="F11" s="295"/>
+      <c r="G11" s="296"/>
       <c r="H11" s="121"/>
       <c r="I11" s="122"/>
       <c r="J11" s="122"/>
@@ -11028,13 +10947,13 @@
       <c r="AG11" s="122"/>
       <c r="AH11" s="123"/>
     </row>
-    <row r="12" spans="1:35" s="85" customFormat="1">
-      <c r="D12" s="271" t="s">
+    <row r="12" spans="1:35" s="85" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="280" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="272"/>
-      <c r="F12" s="272"/>
-      <c r="G12" s="273"/>
+      <c r="E12" s="281"/>
+      <c r="F12" s="281"/>
+      <c r="G12" s="282"/>
       <c r="H12" s="118" t="s">
         <v>59</v>
       </c>
@@ -11065,11 +10984,11 @@
       <c r="AG12" s="119"/>
       <c r="AH12" s="120"/>
     </row>
-    <row r="13" spans="1:35" s="85" customFormat="1">
-      <c r="D13" s="322"/>
-      <c r="E13" s="323"/>
-      <c r="F13" s="323"/>
-      <c r="G13" s="324"/>
+    <row r="13" spans="1:35" s="85" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="294"/>
+      <c r="E13" s="295"/>
+      <c r="F13" s="295"/>
+      <c r="G13" s="296"/>
       <c r="H13" s="121"/>
       <c r="I13" s="122"/>
       <c r="J13" s="122"/>
@@ -11098,11 +11017,11 @@
       <c r="AG13" s="122"/>
       <c r="AH13" s="123"/>
     </row>
-    <row r="14" spans="1:35" s="85" customFormat="1">
-      <c r="D14" s="274"/>
-      <c r="E14" s="275"/>
-      <c r="F14" s="275"/>
-      <c r="G14" s="276"/>
+    <row r="14" spans="1:35" s="85" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="283"/>
+      <c r="E14" s="284"/>
+      <c r="F14" s="284"/>
+      <c r="G14" s="285"/>
       <c r="H14" s="124"/>
       <c r="I14" s="125"/>
       <c r="J14" s="125"/>
@@ -11131,13 +11050,13 @@
       <c r="AG14" s="125"/>
       <c r="AH14" s="126"/>
     </row>
-    <row r="15" spans="1:35" s="85" customFormat="1">
-      <c r="D15" s="271" t="s">
+    <row r="15" spans="1:35" s="85" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D15" s="280" t="s">
         <v>153</v>
       </c>
-      <c r="E15" s="272"/>
-      <c r="F15" s="272"/>
-      <c r="G15" s="273"/>
+      <c r="E15" s="281"/>
+      <c r="F15" s="281"/>
+      <c r="G15" s="282"/>
       <c r="H15" s="118" t="s">
         <v>59</v>
       </c>
@@ -11168,11 +11087,11 @@
       <c r="AG15" s="119"/>
       <c r="AH15" s="120"/>
     </row>
-    <row r="16" spans="1:35" s="85" customFormat="1">
-      <c r="D16" s="274"/>
-      <c r="E16" s="275"/>
-      <c r="F16" s="275"/>
-      <c r="G16" s="276"/>
+    <row r="16" spans="1:35" s="85" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="283"/>
+      <c r="E16" s="284"/>
+      <c r="F16" s="284"/>
+      <c r="G16" s="285"/>
       <c r="H16" s="124"/>
       <c r="I16" s="125"/>
       <c r="J16" s="125"/>
@@ -11201,7 +11120,7 @@
       <c r="AG16" s="125"/>
       <c r="AH16" s="126"/>
     </row>
-    <row r="17" spans="3:34" s="127" customFormat="1">
+    <row r="17" spans="3:34" s="127" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D17" s="75"/>
       <c r="E17" s="75"/>
       <c r="F17" s="75"/>
@@ -11234,214 +11153,225 @@
       <c r="AG17" s="128"/>
       <c r="AH17" s="128"/>
     </row>
-    <row r="18" spans="3:34">
+    <row r="18" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C18" s="38" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="3:34">
-      <c r="D20" s="308" t="s">
+    <row r="20" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="D20" s="274" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="271" t="s">
+      <c r="E20" s="280" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="272"/>
-      <c r="G20" s="272"/>
-      <c r="H20" s="273"/>
-      <c r="I20" s="271" t="s">
+      <c r="F20" s="281"/>
+      <c r="G20" s="281"/>
+      <c r="H20" s="282"/>
+      <c r="I20" s="280" t="s">
         <v>156</v>
       </c>
-      <c r="J20" s="272"/>
-      <c r="K20" s="272"/>
-      <c r="L20" s="272"/>
-      <c r="M20" s="272"/>
-      <c r="N20" s="272"/>
-      <c r="O20" s="272"/>
-      <c r="P20" s="273"/>
-      <c r="Q20" s="271" t="s">
+      <c r="J20" s="281"/>
+      <c r="K20" s="281"/>
+      <c r="L20" s="281"/>
+      <c r="M20" s="281"/>
+      <c r="N20" s="281"/>
+      <c r="O20" s="281"/>
+      <c r="P20" s="282"/>
+      <c r="Q20" s="280" t="s">
         <v>157</v>
       </c>
-      <c r="R20" s="273"/>
-      <c r="S20" s="316" t="s">
+      <c r="R20" s="282"/>
+      <c r="S20" s="288" t="s">
         <v>158</v>
       </c>
-      <c r="T20" s="317"/>
-      <c r="U20" s="317"/>
-      <c r="V20" s="318"/>
-      <c r="W20" s="271" t="s">
+      <c r="T20" s="289"/>
+      <c r="U20" s="289"/>
+      <c r="V20" s="290"/>
+      <c r="W20" s="280" t="s">
         <v>159</v>
       </c>
-      <c r="X20" s="272"/>
-      <c r="Y20" s="272"/>
-      <c r="Z20" s="272"/>
-      <c r="AA20" s="272"/>
-      <c r="AB20" s="272"/>
-      <c r="AC20" s="272"/>
-      <c r="AD20" s="272"/>
-      <c r="AE20" s="272"/>
-      <c r="AF20" s="272"/>
-      <c r="AG20" s="272"/>
-      <c r="AH20" s="273"/>
-    </row>
-    <row r="21" spans="3:34" ht="11.25" customHeight="1">
-      <c r="D21" s="309"/>
-      <c r="E21" s="274"/>
-      <c r="F21" s="275"/>
-      <c r="G21" s="275"/>
-      <c r="H21" s="276"/>
-      <c r="I21" s="274"/>
-      <c r="J21" s="275"/>
-      <c r="K21" s="275"/>
-      <c r="L21" s="275"/>
-      <c r="M21" s="275"/>
-      <c r="N21" s="275"/>
-      <c r="O21" s="275"/>
-      <c r="P21" s="276"/>
-      <c r="Q21" s="274"/>
-      <c r="R21" s="276"/>
-      <c r="S21" s="314" t="s">
+      <c r="X20" s="281"/>
+      <c r="Y20" s="281"/>
+      <c r="Z20" s="281"/>
+      <c r="AA20" s="281"/>
+      <c r="AB20" s="281"/>
+      <c r="AC20" s="281"/>
+      <c r="AD20" s="281"/>
+      <c r="AE20" s="281"/>
+      <c r="AF20" s="281"/>
+      <c r="AG20" s="281"/>
+      <c r="AH20" s="282"/>
+    </row>
+    <row r="21" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="275"/>
+      <c r="E21" s="283"/>
+      <c r="F21" s="284"/>
+      <c r="G21" s="284"/>
+      <c r="H21" s="285"/>
+      <c r="I21" s="283"/>
+      <c r="J21" s="284"/>
+      <c r="K21" s="284"/>
+      <c r="L21" s="284"/>
+      <c r="M21" s="284"/>
+      <c r="N21" s="284"/>
+      <c r="O21" s="284"/>
+      <c r="P21" s="285"/>
+      <c r="Q21" s="283"/>
+      <c r="R21" s="285"/>
+      <c r="S21" s="286" t="s">
         <v>160</v>
       </c>
-      <c r="T21" s="315"/>
-      <c r="U21" s="314" t="s">
+      <c r="T21" s="287"/>
+      <c r="U21" s="286" t="s">
         <v>161</v>
       </c>
-      <c r="V21" s="315"/>
-      <c r="W21" s="274"/>
-      <c r="X21" s="275"/>
-      <c r="Y21" s="275"/>
-      <c r="Z21" s="275"/>
-      <c r="AA21" s="275"/>
-      <c r="AB21" s="275"/>
-      <c r="AC21" s="275"/>
-      <c r="AD21" s="275"/>
-      <c r="AE21" s="275"/>
-      <c r="AF21" s="275"/>
-      <c r="AG21" s="275"/>
-      <c r="AH21" s="276"/>
-    </row>
-    <row r="22" spans="3:34">
-      <c r="D22" s="278">
+      <c r="V21" s="287"/>
+      <c r="W21" s="283"/>
+      <c r="X21" s="284"/>
+      <c r="Y21" s="284"/>
+      <c r="Z21" s="284"/>
+      <c r="AA21" s="284"/>
+      <c r="AB21" s="284"/>
+      <c r="AC21" s="284"/>
+      <c r="AD21" s="284"/>
+      <c r="AE21" s="284"/>
+      <c r="AF21" s="284"/>
+      <c r="AG21" s="284"/>
+      <c r="AH21" s="285"/>
+    </row>
+    <row r="22" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="D22" s="298">
         <v>1</v>
       </c>
-      <c r="E22" s="296" t="s">
+      <c r="E22" s="316" t="s">
         <v>162</v>
       </c>
-      <c r="F22" s="297"/>
-      <c r="G22" s="297"/>
-      <c r="H22" s="298"/>
-      <c r="I22" s="281" t="s">
+      <c r="F22" s="317"/>
+      <c r="G22" s="317"/>
+      <c r="H22" s="318"/>
+      <c r="I22" s="301" t="s">
         <v>163</v>
       </c>
-      <c r="J22" s="282"/>
-      <c r="K22" s="282"/>
-      <c r="L22" s="282"/>
-      <c r="M22" s="282"/>
-      <c r="N22" s="282"/>
-      <c r="O22" s="282"/>
-      <c r="P22" s="283"/>
-      <c r="Q22" s="290" t="s">
+      <c r="J22" s="302"/>
+      <c r="K22" s="302"/>
+      <c r="L22" s="302"/>
+      <c r="M22" s="302"/>
+      <c r="N22" s="302"/>
+      <c r="O22" s="302"/>
+      <c r="P22" s="303"/>
+      <c r="Q22" s="310" t="s">
         <v>45</v>
       </c>
-      <c r="R22" s="291"/>
-      <c r="S22" s="290" t="s">
+      <c r="R22" s="311"/>
+      <c r="S22" s="310" t="s">
         <v>45</v>
       </c>
-      <c r="T22" s="291"/>
-      <c r="U22" s="290" t="s">
+      <c r="T22" s="311"/>
+      <c r="U22" s="310" t="s">
         <v>45</v>
       </c>
-      <c r="V22" s="291"/>
-      <c r="W22" s="277" t="s">
+      <c r="V22" s="311"/>
+      <c r="W22" s="297" t="s">
         <v>164</v>
       </c>
-      <c r="X22" s="277"/>
-      <c r="Y22" s="277"/>
-      <c r="Z22" s="277"/>
-      <c r="AA22" s="277"/>
-      <c r="AB22" s="277"/>
-      <c r="AC22" s="277"/>
-      <c r="AD22" s="277"/>
-      <c r="AE22" s="277"/>
-      <c r="AF22" s="277"/>
-      <c r="AG22" s="277"/>
-      <c r="AH22" s="277"/>
-    </row>
-    <row r="23" spans="3:34">
-      <c r="D23" s="279"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="300"/>
-      <c r="G23" s="300"/>
-      <c r="H23" s="301"/>
-      <c r="I23" s="284"/>
-      <c r="J23" s="285"/>
-      <c r="K23" s="285"/>
-      <c r="L23" s="285"/>
-      <c r="M23" s="285"/>
-      <c r="N23" s="285"/>
-      <c r="O23" s="285"/>
-      <c r="P23" s="286"/>
-      <c r="Q23" s="292"/>
-      <c r="R23" s="293"/>
-      <c r="S23" s="292"/>
-      <c r="T23" s="293"/>
-      <c r="U23" s="292"/>
-      <c r="V23" s="293"/>
-      <c r="W23" s="277"/>
-      <c r="X23" s="277"/>
-      <c r="Y23" s="277"/>
-      <c r="Z23" s="277"/>
-      <c r="AA23" s="277"/>
-      <c r="AB23" s="277"/>
-      <c r="AC23" s="277"/>
-      <c r="AD23" s="277"/>
-      <c r="AE23" s="277"/>
-      <c r="AF23" s="277"/>
-      <c r="AG23" s="277"/>
-      <c r="AH23" s="277"/>
-    </row>
-    <row r="24" spans="3:34">
-      <c r="D24" s="280"/>
-      <c r="E24" s="302"/>
-      <c r="F24" s="303"/>
-      <c r="G24" s="303"/>
-      <c r="H24" s="304"/>
-      <c r="I24" s="287"/>
-      <c r="J24" s="288"/>
-      <c r="K24" s="288"/>
-      <c r="L24" s="288"/>
-      <c r="M24" s="288"/>
-      <c r="N24" s="288"/>
-      <c r="O24" s="288"/>
-      <c r="P24" s="289"/>
-      <c r="Q24" s="294"/>
-      <c r="R24" s="295"/>
-      <c r="S24" s="294"/>
-      <c r="T24" s="295"/>
-      <c r="U24" s="294"/>
-      <c r="V24" s="295"/>
-      <c r="W24" s="277"/>
-      <c r="X24" s="277"/>
-      <c r="Y24" s="277"/>
-      <c r="Z24" s="277"/>
-      <c r="AA24" s="277"/>
-      <c r="AB24" s="277"/>
-      <c r="AC24" s="277"/>
-      <c r="AD24" s="277"/>
-      <c r="AE24" s="277"/>
-      <c r="AF24" s="277"/>
-      <c r="AG24" s="277"/>
-      <c r="AH24" s="277"/>
+      <c r="X22" s="297"/>
+      <c r="Y22" s="297"/>
+      <c r="Z22" s="297"/>
+      <c r="AA22" s="297"/>
+      <c r="AB22" s="297"/>
+      <c r="AC22" s="297"/>
+      <c r="AD22" s="297"/>
+      <c r="AE22" s="297"/>
+      <c r="AF22" s="297"/>
+      <c r="AG22" s="297"/>
+      <c r="AH22" s="297"/>
+    </row>
+    <row r="23" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="D23" s="299"/>
+      <c r="E23" s="319"/>
+      <c r="F23" s="320"/>
+      <c r="G23" s="320"/>
+      <c r="H23" s="321"/>
+      <c r="I23" s="304"/>
+      <c r="J23" s="305"/>
+      <c r="K23" s="305"/>
+      <c r="L23" s="305"/>
+      <c r="M23" s="305"/>
+      <c r="N23" s="305"/>
+      <c r="O23" s="305"/>
+      <c r="P23" s="306"/>
+      <c r="Q23" s="312"/>
+      <c r="R23" s="313"/>
+      <c r="S23" s="312"/>
+      <c r="T23" s="313"/>
+      <c r="U23" s="312"/>
+      <c r="V23" s="313"/>
+      <c r="W23" s="297"/>
+      <c r="X23" s="297"/>
+      <c r="Y23" s="297"/>
+      <c r="Z23" s="297"/>
+      <c r="AA23" s="297"/>
+      <c r="AB23" s="297"/>
+      <c r="AC23" s="297"/>
+      <c r="AD23" s="297"/>
+      <c r="AE23" s="297"/>
+      <c r="AF23" s="297"/>
+      <c r="AG23" s="297"/>
+      <c r="AH23" s="297"/>
+    </row>
+    <row r="24" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="D24" s="300"/>
+      <c r="E24" s="322"/>
+      <c r="F24" s="323"/>
+      <c r="G24" s="323"/>
+      <c r="H24" s="324"/>
+      <c r="I24" s="307"/>
+      <c r="J24" s="308"/>
+      <c r="K24" s="308"/>
+      <c r="L24" s="308"/>
+      <c r="M24" s="308"/>
+      <c r="N24" s="308"/>
+      <c r="O24" s="308"/>
+      <c r="P24" s="309"/>
+      <c r="Q24" s="314"/>
+      <c r="R24" s="315"/>
+      <c r="S24" s="314"/>
+      <c r="T24" s="315"/>
+      <c r="U24" s="314"/>
+      <c r="V24" s="315"/>
+      <c r="W24" s="297"/>
+      <c r="X24" s="297"/>
+      <c r="Y24" s="297"/>
+      <c r="Z24" s="297"/>
+      <c r="AA24" s="297"/>
+      <c r="AB24" s="297"/>
+      <c r="AC24" s="297"/>
+      <c r="AD24" s="297"/>
+      <c r="AE24" s="297"/>
+      <c r="AF24" s="297"/>
+      <c r="AG24" s="297"/>
+      <c r="AH24" s="297"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E20:H21"/>
+    <mergeCell ref="W20:AH21"/>
+    <mergeCell ref="W22:AH24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="I22:P24"/>
+    <mergeCell ref="Q22:R24"/>
+    <mergeCell ref="S22:T24"/>
+    <mergeCell ref="U22:V24"/>
+    <mergeCell ref="E22:H24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -11458,23 +11388,12 @@
     <mergeCell ref="D10:G11"/>
     <mergeCell ref="D12:G14"/>
     <mergeCell ref="D15:G16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E20:H21"/>
-    <mergeCell ref="W20:AH21"/>
-    <mergeCell ref="W22:AH24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="I22:P24"/>
-    <mergeCell ref="Q22:R24"/>
-    <mergeCell ref="S22:T24"/>
-    <mergeCell ref="U22:V24"/>
-    <mergeCell ref="E22:H24"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="1">
@@ -11499,178 +11418,186 @@
   </sheetPr>
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A1" s="247" t="s">
+    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="244" t="str">
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="246"/>
-      <c r="O1" s="250" t="s">
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="264"/>
+      <c r="O1" s="241" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="252"/>
-      <c r="S1" s="259" t="str">
+      <c r="P1" s="242"/>
+      <c r="Q1" s="242"/>
+      <c r="R1" s="243"/>
+      <c r="S1" s="250" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="260"/>
-      <c r="U1" s="260"/>
-      <c r="V1" s="260"/>
-      <c r="W1" s="260"/>
-      <c r="X1" s="260"/>
-      <c r="Y1" s="260"/>
-      <c r="Z1" s="261"/>
-      <c r="AA1" s="247" t="s">
+      <c r="T1" s="251"/>
+      <c r="U1" s="251"/>
+      <c r="V1" s="251"/>
+      <c r="W1" s="251"/>
+      <c r="X1" s="251"/>
+      <c r="Y1" s="251"/>
+      <c r="Z1" s="252"/>
+      <c r="AA1" s="238" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="249"/>
-      <c r="AC1" s="238" t="str">
+      <c r="AB1" s="240"/>
+      <c r="AC1" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="241">
+      <c r="AD1" s="266"/>
+      <c r="AE1" s="266"/>
+      <c r="AF1" s="267"/>
+      <c r="AG1" s="268">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="242"/>
-      <c r="AI1" s="243"/>
-    </row>
-    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A2" s="247" t="s">
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="270"/>
+    </row>
+    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="238" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="244" t="str">
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="245"/>
-      <c r="G2" s="245"/>
-      <c r="H2" s="245"/>
-      <c r="I2" s="245"/>
-      <c r="J2" s="245"/>
-      <c r="K2" s="245"/>
-      <c r="L2" s="245"/>
-      <c r="M2" s="245"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="253"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="255"/>
-      <c r="S2" s="262"/>
-      <c r="T2" s="263"/>
-      <c r="U2" s="263"/>
-      <c r="V2" s="263"/>
-      <c r="W2" s="263"/>
-      <c r="X2" s="263"/>
-      <c r="Y2" s="263"/>
-      <c r="Z2" s="264"/>
-      <c r="AA2" s="247" t="s">
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="263"/>
+      <c r="N2" s="264"/>
+      <c r="O2" s="244"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="246"/>
+      <c r="S2" s="253"/>
+      <c r="T2" s="254"/>
+      <c r="U2" s="254"/>
+      <c r="V2" s="254"/>
+      <c r="W2" s="254"/>
+      <c r="X2" s="254"/>
+      <c r="Y2" s="254"/>
+      <c r="Z2" s="255"/>
+      <c r="AA2" s="238" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="249"/>
-      <c r="AC2" s="238" t="str">
+      <c r="AB2" s="240"/>
+      <c r="AC2" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="239"/>
-      <c r="AE2" s="239"/>
-      <c r="AF2" s="240"/>
-      <c r="AG2" s="241" t="str">
+      <c r="AD2" s="266"/>
+      <c r="AE2" s="266"/>
+      <c r="AF2" s="267"/>
+      <c r="AG2" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="242"/>
-      <c r="AI2" s="243"/>
-    </row>
-    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A3" s="268" t="s">
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="270"/>
+    </row>
+    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="259" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="269"/>
-      <c r="C3" s="269"/>
-      <c r="D3" s="270"/>
-      <c r="E3" s="244" t="str">
+      <c r="B3" s="260"/>
+      <c r="C3" s="260"/>
+      <c r="D3" s="261"/>
+      <c r="E3" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="245"/>
-      <c r="K3" s="245"/>
-      <c r="L3" s="245"/>
-      <c r="M3" s="245"/>
-      <c r="N3" s="246"/>
-      <c r="O3" s="256"/>
-      <c r="P3" s="257"/>
-      <c r="Q3" s="257"/>
-      <c r="R3" s="258"/>
-      <c r="S3" s="265"/>
-      <c r="T3" s="266"/>
-      <c r="U3" s="266"/>
-      <c r="V3" s="266"/>
-      <c r="W3" s="266"/>
-      <c r="X3" s="266"/>
-      <c r="Y3" s="266"/>
-      <c r="Z3" s="267"/>
-      <c r="AA3" s="268"/>
-      <c r="AB3" s="270"/>
-      <c r="AC3" s="238" t="str">
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="263"/>
+      <c r="N3" s="264"/>
+      <c r="O3" s="247"/>
+      <c r="P3" s="248"/>
+      <c r="Q3" s="248"/>
+      <c r="R3" s="249"/>
+      <c r="S3" s="256"/>
+      <c r="T3" s="257"/>
+      <c r="U3" s="257"/>
+      <c r="V3" s="257"/>
+      <c r="W3" s="257"/>
+      <c r="X3" s="257"/>
+      <c r="Y3" s="257"/>
+      <c r="Z3" s="258"/>
+      <c r="AA3" s="259"/>
+      <c r="AB3" s="261"/>
+      <c r="AC3" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="239"/>
-      <c r="AE3" s="239"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="241" t="str">
+      <c r="AD3" s="266"/>
+      <c r="AE3" s="266"/>
+      <c r="AF3" s="267"/>
+      <c r="AG3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="242"/>
-      <c r="AI3" s="243"/>
-    </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1"/>
-    <row r="5" spans="1:35" ht="12" customHeight="1">
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="270"/>
+    </row>
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="38" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="12" customHeight="1"/>
+    <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
@@ -11680,14 +11607,6 @@
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <printOptions horizontalCentered="1"/>
@@ -11711,303 +11630,303 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A1" s="247" t="s">
+    <row r="1" spans="1:38" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="238" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="249"/>
-      <c r="E1" s="244" t="str">
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="246"/>
-      <c r="O1" s="250" t="s">
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="264"/>
+      <c r="O1" s="241" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
-      <c r="R1" s="252"/>
-      <c r="S1" s="259" t="str">
+      <c r="P1" s="242"/>
+      <c r="Q1" s="242"/>
+      <c r="R1" s="243"/>
+      <c r="S1" s="250" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書(バッチ)
 BA10601/期間内プロジェクト一覧出力バッチ</v>
       </c>
-      <c r="T1" s="260"/>
-      <c r="U1" s="260"/>
-      <c r="V1" s="260"/>
-      <c r="W1" s="260"/>
-      <c r="X1" s="260"/>
-      <c r="Y1" s="260"/>
-      <c r="Z1" s="261"/>
-      <c r="AA1" s="247" t="s">
+      <c r="T1" s="251"/>
+      <c r="U1" s="251"/>
+      <c r="V1" s="251"/>
+      <c r="W1" s="251"/>
+      <c r="X1" s="251"/>
+      <c r="Y1" s="251"/>
+      <c r="Z1" s="252"/>
+      <c r="AA1" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="249"/>
-      <c r="AC1" s="238" t="str">
+      <c r="AB1" s="240"/>
+      <c r="AC1" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="239"/>
-      <c r="AE1" s="239"/>
-      <c r="AF1" s="240"/>
-      <c r="AG1" s="241">
+      <c r="AD1" s="266"/>
+      <c r="AE1" s="266"/>
+      <c r="AF1" s="267"/>
+      <c r="AG1" s="268">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43634</v>
       </c>
-      <c r="AH1" s="242"/>
-      <c r="AI1" s="243"/>
+      <c r="AH1" s="269"/>
+      <c r="AI1" s="270"/>
       <c r="AJ1" s="35"/>
       <c r="AK1" s="35"/>
       <c r="AL1" s="36"/>
     </row>
-    <row r="2" spans="1:38" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A2" s="247" t="s">
+    <row r="2" spans="1:38" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="238" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="244" t="str">
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="245"/>
-      <c r="G2" s="245"/>
-      <c r="H2" s="245"/>
-      <c r="I2" s="245"/>
-      <c r="J2" s="245"/>
-      <c r="K2" s="245"/>
-      <c r="L2" s="245"/>
-      <c r="M2" s="245"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="253"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="255"/>
-      <c r="S2" s="262"/>
-      <c r="T2" s="263"/>
-      <c r="U2" s="263"/>
-      <c r="V2" s="263"/>
-      <c r="W2" s="263"/>
-      <c r="X2" s="263"/>
-      <c r="Y2" s="263"/>
-      <c r="Z2" s="264"/>
-      <c r="AA2" s="247" t="s">
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="263"/>
+      <c r="N2" s="264"/>
+      <c r="O2" s="244"/>
+      <c r="P2" s="245"/>
+      <c r="Q2" s="245"/>
+      <c r="R2" s="246"/>
+      <c r="S2" s="253"/>
+      <c r="T2" s="254"/>
+      <c r="U2" s="254"/>
+      <c r="V2" s="254"/>
+      <c r="W2" s="254"/>
+      <c r="X2" s="254"/>
+      <c r="Y2" s="254"/>
+      <c r="Z2" s="255"/>
+      <c r="AA2" s="238" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="249"/>
-      <c r="AC2" s="238" t="str">
+      <c r="AB2" s="240"/>
+      <c r="AC2" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="239"/>
-      <c r="AE2" s="239"/>
-      <c r="AF2" s="240"/>
-      <c r="AG2" s="241" t="str">
+      <c r="AD2" s="266"/>
+      <c r="AE2" s="266"/>
+      <c r="AF2" s="267"/>
+      <c r="AG2" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="242"/>
-      <c r="AI2" s="243"/>
+      <c r="AH2" s="269"/>
+      <c r="AI2" s="270"/>
       <c r="AJ2" s="35"/>
       <c r="AK2" s="35"/>
       <c r="AL2" s="35"/>
     </row>
-    <row r="3" spans="1:38" s="37" customFormat="1" ht="12" hidden="1" customHeight="1">
-      <c r="A3" s="268" t="s">
+    <row r="3" spans="1:38" s="37" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="259" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="269"/>
-      <c r="C3" s="269"/>
-      <c r="D3" s="270"/>
-      <c r="E3" s="244" t="str">
+      <c r="B3" s="260"/>
+      <c r="C3" s="260"/>
+      <c r="D3" s="261"/>
+      <c r="E3" s="262" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="245"/>
-      <c r="G3" s="245"/>
-      <c r="H3" s="245"/>
-      <c r="I3" s="245"/>
-      <c r="J3" s="245"/>
-      <c r="K3" s="245"/>
-      <c r="L3" s="245"/>
-      <c r="M3" s="245"/>
-      <c r="N3" s="246"/>
-      <c r="O3" s="256"/>
-      <c r="P3" s="257"/>
-      <c r="Q3" s="257"/>
-      <c r="R3" s="258"/>
-      <c r="S3" s="265"/>
-      <c r="T3" s="266"/>
-      <c r="U3" s="266"/>
-      <c r="V3" s="266"/>
-      <c r="W3" s="266"/>
-      <c r="X3" s="266"/>
-      <c r="Y3" s="266"/>
-      <c r="Z3" s="267"/>
-      <c r="AA3" s="268"/>
-      <c r="AB3" s="270"/>
-      <c r="AC3" s="238" t="str">
+      <c r="F3" s="263"/>
+      <c r="G3" s="263"/>
+      <c r="H3" s="263"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="263"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="263"/>
+      <c r="N3" s="264"/>
+      <c r="O3" s="247"/>
+      <c r="P3" s="248"/>
+      <c r="Q3" s="248"/>
+      <c r="R3" s="249"/>
+      <c r="S3" s="256"/>
+      <c r="T3" s="257"/>
+      <c r="U3" s="257"/>
+      <c r="V3" s="257"/>
+      <c r="W3" s="257"/>
+      <c r="X3" s="257"/>
+      <c r="Y3" s="257"/>
+      <c r="Z3" s="258"/>
+      <c r="AA3" s="259"/>
+      <c r="AB3" s="261"/>
+      <c r="AC3" s="265" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="239"/>
-      <c r="AE3" s="239"/>
-      <c r="AF3" s="240"/>
-      <c r="AG3" s="241" t="str">
+      <c r="AD3" s="266"/>
+      <c r="AE3" s="266"/>
+      <c r="AF3" s="267"/>
+      <c r="AG3" s="268" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="242"/>
-      <c r="AI3" s="243"/>
+      <c r="AH3" s="269"/>
+      <c r="AI3" s="270"/>
       <c r="AJ3" s="35"/>
       <c r="AK3" s="35"/>
       <c r="AL3" s="35"/>
     </row>
-    <row r="4" spans="1:38" ht="12" customHeight="1"/>
-    <row r="5" spans="1:38" ht="12" customHeight="1"/>
-    <row r="6" spans="1:38" ht="12" customHeight="1"/>
-    <row r="7" spans="1:38" ht="12" customHeight="1">
+    <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="12" customHeight="1">
+    <row r="8" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="38" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="12" customHeight="1"/>
-    <row r="10" spans="1:38" s="39" customFormat="1">
-      <c r="D10" s="314" t="s">
+    <row r="9" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:38" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="286" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="334"/>
-      <c r="F10" s="334"/>
-      <c r="G10" s="334"/>
-      <c r="H10" s="315"/>
-      <c r="I10" s="335" t="s">
+      <c r="E10" s="344"/>
+      <c r="F10" s="344"/>
+      <c r="G10" s="344"/>
+      <c r="H10" s="287"/>
+      <c r="I10" s="331" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="336"/>
-      <c r="K10" s="336"/>
-      <c r="L10" s="336"/>
-      <c r="M10" s="336"/>
-      <c r="N10" s="336"/>
-      <c r="O10" s="336"/>
-      <c r="P10" s="336"/>
-      <c r="Q10" s="336"/>
-      <c r="R10" s="336"/>
-      <c r="S10" s="336"/>
-      <c r="T10" s="336"/>
-      <c r="U10" s="336"/>
-      <c r="V10" s="336"/>
-      <c r="W10" s="336"/>
-      <c r="X10" s="336"/>
-      <c r="Y10" s="336"/>
-      <c r="Z10" s="336"/>
-      <c r="AA10" s="336"/>
-      <c r="AB10" s="336"/>
-      <c r="AC10" s="336"/>
-      <c r="AD10" s="336"/>
-      <c r="AE10" s="336"/>
-      <c r="AF10" s="336"/>
-      <c r="AG10" s="336"/>
-      <c r="AH10" s="337"/>
+      <c r="J10" s="328"/>
+      <c r="K10" s="328"/>
+      <c r="L10" s="328"/>
+      <c r="M10" s="328"/>
+      <c r="N10" s="328"/>
+      <c r="O10" s="328"/>
+      <c r="P10" s="328"/>
+      <c r="Q10" s="328"/>
+      <c r="R10" s="328"/>
+      <c r="S10" s="328"/>
+      <c r="T10" s="328"/>
+      <c r="U10" s="328"/>
+      <c r="V10" s="328"/>
+      <c r="W10" s="328"/>
+      <c r="X10" s="328"/>
+      <c r="Y10" s="328"/>
+      <c r="Z10" s="328"/>
+      <c r="AA10" s="328"/>
+      <c r="AB10" s="328"/>
+      <c r="AC10" s="328"/>
+      <c r="AD10" s="328"/>
+      <c r="AE10" s="328"/>
+      <c r="AF10" s="328"/>
+      <c r="AG10" s="328"/>
+      <c r="AH10" s="329"/>
       <c r="AI10" s="40"/>
     </row>
-    <row r="11" spans="1:38" s="39" customFormat="1">
-      <c r="D11" s="314" t="s">
+    <row r="11" spans="1:38" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="286" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="334"/>
-      <c r="F11" s="334"/>
-      <c r="G11" s="334"/>
-      <c r="H11" s="315"/>
-      <c r="I11" s="335" t="s">
+      <c r="E11" s="344"/>
+      <c r="F11" s="344"/>
+      <c r="G11" s="344"/>
+      <c r="H11" s="287"/>
+      <c r="I11" s="331" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="336"/>
-      <c r="K11" s="336"/>
-      <c r="L11" s="336"/>
-      <c r="M11" s="336"/>
-      <c r="N11" s="336"/>
-      <c r="O11" s="336"/>
-      <c r="P11" s="336"/>
-      <c r="Q11" s="336"/>
-      <c r="R11" s="336"/>
-      <c r="S11" s="336"/>
-      <c r="T11" s="336"/>
-      <c r="U11" s="336"/>
-      <c r="V11" s="336"/>
-      <c r="W11" s="336"/>
-      <c r="X11" s="336"/>
-      <c r="Y11" s="336"/>
-      <c r="Z11" s="336"/>
-      <c r="AA11" s="336"/>
-      <c r="AB11" s="336"/>
-      <c r="AC11" s="336"/>
-      <c r="AD11" s="336"/>
-      <c r="AE11" s="336"/>
-      <c r="AF11" s="336"/>
-      <c r="AG11" s="336"/>
-      <c r="AH11" s="337"/>
+      <c r="J11" s="328"/>
+      <c r="K11" s="328"/>
+      <c r="L11" s="328"/>
+      <c r="M11" s="328"/>
+      <c r="N11" s="328"/>
+      <c r="O11" s="328"/>
+      <c r="P11" s="328"/>
+      <c r="Q11" s="328"/>
+      <c r="R11" s="328"/>
+      <c r="S11" s="328"/>
+      <c r="T11" s="328"/>
+      <c r="U11" s="328"/>
+      <c r="V11" s="328"/>
+      <c r="W11" s="328"/>
+      <c r="X11" s="328"/>
+      <c r="Y11" s="328"/>
+      <c r="Z11" s="328"/>
+      <c r="AA11" s="328"/>
+      <c r="AB11" s="328"/>
+      <c r="AC11" s="328"/>
+      <c r="AD11" s="328"/>
+      <c r="AE11" s="328"/>
+      <c r="AF11" s="328"/>
+      <c r="AG11" s="328"/>
+      <c r="AH11" s="329"/>
       <c r="AI11" s="40"/>
     </row>
-    <row r="12" spans="1:38" s="39" customFormat="1">
-      <c r="D12" s="314" t="s">
+    <row r="12" spans="1:38" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="286" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="334"/>
-      <c r="F12" s="334"/>
-      <c r="G12" s="334"/>
-      <c r="H12" s="315"/>
-      <c r="I12" s="335" t="s">
+      <c r="E12" s="344"/>
+      <c r="F12" s="344"/>
+      <c r="G12" s="344"/>
+      <c r="H12" s="287"/>
+      <c r="I12" s="331" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="336"/>
-      <c r="K12" s="336"/>
-      <c r="L12" s="336"/>
-      <c r="M12" s="336"/>
-      <c r="N12" s="336"/>
-      <c r="O12" s="336"/>
-      <c r="P12" s="336"/>
-      <c r="Q12" s="336"/>
-      <c r="R12" s="336"/>
-      <c r="S12" s="336"/>
-      <c r="T12" s="336"/>
-      <c r="U12" s="336"/>
-      <c r="V12" s="336"/>
-      <c r="W12" s="336"/>
-      <c r="X12" s="336"/>
-      <c r="Y12" s="336"/>
-      <c r="Z12" s="336"/>
-      <c r="AA12" s="336"/>
-      <c r="AB12" s="336"/>
-      <c r="AC12" s="336"/>
-      <c r="AD12" s="336"/>
-      <c r="AE12" s="336"/>
-      <c r="AF12" s="336"/>
-      <c r="AG12" s="336"/>
-      <c r="AH12" s="337"/>
+      <c r="J12" s="328"/>
+      <c r="K12" s="328"/>
+      <c r="L12" s="328"/>
+      <c r="M12" s="328"/>
+      <c r="N12" s="328"/>
+      <c r="O12" s="328"/>
+      <c r="P12" s="328"/>
+      <c r="Q12" s="328"/>
+      <c r="R12" s="328"/>
+      <c r="S12" s="328"/>
+      <c r="T12" s="328"/>
+      <c r="U12" s="328"/>
+      <c r="V12" s="328"/>
+      <c r="W12" s="328"/>
+      <c r="X12" s="328"/>
+      <c r="Y12" s="328"/>
+      <c r="Z12" s="328"/>
+      <c r="AA12" s="328"/>
+      <c r="AB12" s="328"/>
+      <c r="AC12" s="328"/>
+      <c r="AD12" s="328"/>
+      <c r="AE12" s="328"/>
+      <c r="AF12" s="328"/>
+      <c r="AG12" s="328"/>
+      <c r="AH12" s="329"/>
       <c r="AI12" s="40"/>
     </row>
-    <row r="13" spans="1:38" s="41" customFormat="1">
+    <row r="13" spans="1:38" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D13" s="42"/>
       <c r="E13" s="42"/>
       <c r="F13" s="42"/>
@@ -12041,7 +11960,7 @@
       <c r="AH13" s="42"/>
       <c r="AI13" s="42"/>
     </row>
-    <row r="14" spans="1:38" s="41" customFormat="1">
+    <row r="14" spans="1:38" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D14" s="42"/>
       <c r="E14" s="42"/>
       <c r="F14" s="42"/>
@@ -12075,110 +11994,110 @@
       <c r="AH14" s="42"/>
       <c r="AI14" s="42"/>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C15" s="38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="3:34">
+    <row r="17" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D17" s="38" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="3:34">
+    <row r="20" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C20" s="38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="3:34">
+    <row r="22" spans="3:34" x14ac:dyDescent="0.2">
       <c r="D22" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="319" t="s">
+      <c r="E22" s="291" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="320"/>
-      <c r="G22" s="321"/>
-      <c r="H22" s="316" t="s">
+      <c r="F22" s="292"/>
+      <c r="G22" s="293"/>
+      <c r="H22" s="288" t="s">
         <v>66</v>
       </c>
-      <c r="I22" s="317"/>
-      <c r="J22" s="318"/>
-      <c r="K22" s="319" t="s">
+      <c r="I22" s="289"/>
+      <c r="J22" s="290"/>
+      <c r="K22" s="291" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="320"/>
-      <c r="M22" s="320"/>
-      <c r="N22" s="320"/>
-      <c r="O22" s="320"/>
-      <c r="P22" s="320"/>
-      <c r="Q22" s="320"/>
-      <c r="R22" s="320"/>
-      <c r="S22" s="320"/>
-      <c r="T22" s="320"/>
-      <c r="U22" s="320"/>
-      <c r="V22" s="320"/>
-      <c r="W22" s="320"/>
-      <c r="X22" s="320"/>
-      <c r="Y22" s="320"/>
-      <c r="Z22" s="320"/>
-      <c r="AA22" s="320"/>
-      <c r="AB22" s="320"/>
-      <c r="AC22" s="320"/>
-      <c r="AD22" s="320"/>
-      <c r="AE22" s="320"/>
-      <c r="AF22" s="320"/>
-      <c r="AG22" s="320"/>
-      <c r="AH22" s="321"/>
-    </row>
-    <row r="23" spans="3:34" ht="11.25" customHeight="1">
+      <c r="L22" s="292"/>
+      <c r="M22" s="292"/>
+      <c r="N22" s="292"/>
+      <c r="O22" s="292"/>
+      <c r="P22" s="292"/>
+      <c r="Q22" s="292"/>
+      <c r="R22" s="292"/>
+      <c r="S22" s="292"/>
+      <c r="T22" s="292"/>
+      <c r="U22" s="292"/>
+      <c r="V22" s="292"/>
+      <c r="W22" s="292"/>
+      <c r="X22" s="292"/>
+      <c r="Y22" s="292"/>
+      <c r="Z22" s="292"/>
+      <c r="AA22" s="292"/>
+      <c r="AB22" s="292"/>
+      <c r="AC22" s="292"/>
+      <c r="AD22" s="292"/>
+      <c r="AE22" s="292"/>
+      <c r="AF22" s="292"/>
+      <c r="AG22" s="292"/>
+      <c r="AH22" s="293"/>
+    </row>
+    <row r="23" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="44">
         <v>1</v>
       </c>
-      <c r="E23" s="335">
+      <c r="E23" s="331">
         <v>0</v>
       </c>
-      <c r="F23" s="336"/>
-      <c r="G23" s="337"/>
-      <c r="H23" s="335" t="s">
+      <c r="F23" s="328"/>
+      <c r="G23" s="329"/>
+      <c r="H23" s="331" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="336"/>
-      <c r="J23" s="337"/>
-      <c r="K23" s="335" t="s">
+      <c r="I23" s="328"/>
+      <c r="J23" s="329"/>
+      <c r="K23" s="331" t="s">
         <v>68</v>
       </c>
-      <c r="L23" s="336"/>
-      <c r="M23" s="336"/>
-      <c r="N23" s="336"/>
-      <c r="O23" s="336"/>
-      <c r="P23" s="336"/>
-      <c r="Q23" s="336"/>
-      <c r="R23" s="336"/>
-      <c r="S23" s="336"/>
-      <c r="T23" s="336"/>
-      <c r="U23" s="336"/>
-      <c r="V23" s="336"/>
-      <c r="W23" s="336"/>
-      <c r="X23" s="336"/>
-      <c r="Y23" s="336"/>
-      <c r="Z23" s="336"/>
-      <c r="AA23" s="336"/>
-      <c r="AB23" s="336"/>
-      <c r="AC23" s="336"/>
-      <c r="AD23" s="336"/>
-      <c r="AE23" s="336"/>
-      <c r="AF23" s="336"/>
-      <c r="AG23" s="336"/>
-      <c r="AH23" s="337"/>
-    </row>
-    <row r="26" spans="3:34">
+      <c r="L23" s="328"/>
+      <c r="M23" s="328"/>
+      <c r="N23" s="328"/>
+      <c r="O23" s="328"/>
+      <c r="P23" s="328"/>
+      <c r="Q23" s="328"/>
+      <c r="R23" s="328"/>
+      <c r="S23" s="328"/>
+      <c r="T23" s="328"/>
+      <c r="U23" s="328"/>
+      <c r="V23" s="328"/>
+      <c r="W23" s="328"/>
+      <c r="X23" s="328"/>
+      <c r="Y23" s="328"/>
+      <c r="Z23" s="328"/>
+      <c r="AA23" s="328"/>
+      <c r="AB23" s="328"/>
+      <c r="AC23" s="328"/>
+      <c r="AD23" s="328"/>
+      <c r="AE23" s="328"/>
+      <c r="AF23" s="328"/>
+      <c r="AG23" s="328"/>
+      <c r="AH23" s="329"/>
+    </row>
+    <row r="26" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C26" s="38" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="3:34">
-      <c r="D28" s="357" t="s">
+    <row r="28" spans="3:34" x14ac:dyDescent="0.2">
+      <c r="D28" s="340" t="s">
         <v>36</v>
       </c>
       <c r="E28" s="45" t="s">
@@ -12200,17 +12119,17 @@
       <c r="Q28" s="46"/>
       <c r="R28" s="46"/>
       <c r="S28" s="47"/>
-      <c r="T28" s="332" t="s">
+      <c r="T28" s="364" t="s">
         <v>72</v>
       </c>
-      <c r="U28" s="327" t="s">
+      <c r="U28" s="359" t="s">
         <v>73</v>
       </c>
-      <c r="V28" s="328"/>
-      <c r="W28" s="328"/>
-      <c r="X28" s="328"/>
-      <c r="Y28" s="328"/>
-      <c r="Z28" s="329"/>
+      <c r="V28" s="360"/>
+      <c r="W28" s="360"/>
+      <c r="X28" s="360"/>
+      <c r="Y28" s="360"/>
+      <c r="Z28" s="361"/>
       <c r="AA28" s="45" t="s">
         <v>74</v>
       </c>
@@ -12222,8 +12141,8 @@
       <c r="AG28" s="46"/>
       <c r="AH28" s="47"/>
     </row>
-    <row r="29" spans="3:34" s="39" customFormat="1">
-      <c r="D29" s="358"/>
+    <row r="29" spans="3:34" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="341"/>
       <c r="E29" s="48"/>
       <c r="F29" s="49"/>
       <c r="G29" s="49"/>
@@ -12239,7 +12158,7 @@
       <c r="Q29" s="49"/>
       <c r="R29" s="49"/>
       <c r="S29" s="50"/>
-      <c r="T29" s="333"/>
+      <c r="T29" s="354"/>
       <c r="U29" s="51" t="s">
         <v>75</v>
       </c>
@@ -12252,10 +12171,10 @@
       <c r="X29" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="Y29" s="325" t="s">
+      <c r="Y29" s="357" t="s">
         <v>79</v>
       </c>
-      <c r="Z29" s="326"/>
+      <c r="Z29" s="358"/>
       <c r="AA29" s="48"/>
       <c r="AB29" s="49"/>
       <c r="AC29" s="49"/>
@@ -12265,7 +12184,7 @@
       <c r="AG29" s="49"/>
       <c r="AH29" s="50"/>
     </row>
-    <row r="30" spans="3:34" s="39" customFormat="1" ht="11.25" customHeight="1">
+    <row r="30" spans="3:34" s="39" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="44">
         <v>1</v>
       </c>
@@ -12303,10 +12222,10 @@
       <c r="X30" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="Y30" s="330" t="s">
+      <c r="Y30" s="362" t="s">
         <v>45</v>
       </c>
-      <c r="Z30" s="331"/>
+      <c r="Z30" s="363"/>
       <c r="AA30" s="57"/>
       <c r="AB30" s="53"/>
       <c r="AC30" s="53"/>
@@ -12316,7 +12235,7 @@
       <c r="AG30" s="53"/>
       <c r="AH30" s="54"/>
     </row>
-    <row r="31" spans="3:34" ht="11.25" customHeight="1">
+    <row r="31" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D31" s="44">
         <v>2</v>
       </c>
@@ -12354,10 +12273,10 @@
       <c r="X31" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="Y31" s="330" t="s">
+      <c r="Y31" s="362" t="s">
         <v>45</v>
       </c>
-      <c r="Z31" s="331"/>
+      <c r="Z31" s="363"/>
       <c r="AA31" s="57"/>
       <c r="AB31" s="53"/>
       <c r="AC31" s="53"/>
@@ -12367,146 +12286,146 @@
       <c r="AG31" s="53"/>
       <c r="AH31" s="54"/>
     </row>
-    <row r="34" spans="3:36">
+    <row r="34" spans="3:36" x14ac:dyDescent="0.2">
       <c r="C34" s="38" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="3:36">
+    <row r="35" spans="3:36" x14ac:dyDescent="0.2">
       <c r="D35" s="38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="3:36" s="39" customFormat="1">
-      <c r="E37" s="352" t="s">
+    <row r="37" spans="3:36" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E37" s="342" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="352"/>
-      <c r="G37" s="352"/>
-      <c r="H37" s="352"/>
-      <c r="I37" s="352"/>
-      <c r="J37" s="352"/>
-      <c r="K37" s="352"/>
-      <c r="L37" s="352"/>
-      <c r="M37" s="352"/>
-      <c r="N37" s="352"/>
-      <c r="O37" s="352"/>
-      <c r="P37" s="352"/>
-      <c r="Q37" s="352"/>
-      <c r="R37" s="352"/>
-      <c r="S37" s="352"/>
-      <c r="T37" s="352"/>
-      <c r="U37" s="352"/>
-      <c r="V37" s="352"/>
-      <c r="W37" s="352"/>
-      <c r="X37" s="352"/>
-      <c r="Y37" s="352"/>
-      <c r="Z37" s="352"/>
-      <c r="AA37" s="352"/>
-      <c r="AB37" s="352"/>
-      <c r="AC37" s="352"/>
-      <c r="AD37" s="352"/>
-      <c r="AE37" s="352"/>
-      <c r="AF37" s="352"/>
-      <c r="AG37" s="352"/>
-      <c r="AH37" s="352"/>
+      <c r="F37" s="342"/>
+      <c r="G37" s="342"/>
+      <c r="H37" s="342"/>
+      <c r="I37" s="342"/>
+      <c r="J37" s="342"/>
+      <c r="K37" s="342"/>
+      <c r="L37" s="342"/>
+      <c r="M37" s="342"/>
+      <c r="N37" s="342"/>
+      <c r="O37" s="342"/>
+      <c r="P37" s="342"/>
+      <c r="Q37" s="342"/>
+      <c r="R37" s="342"/>
+      <c r="S37" s="342"/>
+      <c r="T37" s="342"/>
+      <c r="U37" s="342"/>
+      <c r="V37" s="342"/>
+      <c r="W37" s="342"/>
+      <c r="X37" s="342"/>
+      <c r="Y37" s="342"/>
+      <c r="Z37" s="342"/>
+      <c r="AA37" s="342"/>
+      <c r="AB37" s="342"/>
+      <c r="AC37" s="342"/>
+      <c r="AD37" s="342"/>
+      <c r="AE37" s="342"/>
+      <c r="AF37" s="342"/>
+      <c r="AG37" s="342"/>
+      <c r="AH37" s="342"/>
       <c r="AI37" s="58"/>
       <c r="AJ37" s="59"/>
     </row>
-    <row r="38" spans="3:36" s="39" customFormat="1">
-      <c r="E38" s="351" t="s">
+    <row r="38" spans="3:36" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="343" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="351" t="s">
+      <c r="F38" s="343" t="s">
         <v>88</v>
       </c>
-      <c r="G38" s="351"/>
-      <c r="H38" s="351"/>
-      <c r="I38" s="351"/>
-      <c r="J38" s="351"/>
-      <c r="K38" s="351"/>
-      <c r="L38" s="351" t="s">
+      <c r="G38" s="343"/>
+      <c r="H38" s="343"/>
+      <c r="I38" s="343"/>
+      <c r="J38" s="343"/>
+      <c r="K38" s="343"/>
+      <c r="L38" s="343" t="s">
         <v>87</v>
       </c>
-      <c r="M38" s="351"/>
-      <c r="N38" s="351"/>
-      <c r="O38" s="351"/>
-      <c r="P38" s="351"/>
-      <c r="Q38" s="333" t="s">
+      <c r="M38" s="343"/>
+      <c r="N38" s="343"/>
+      <c r="O38" s="343"/>
+      <c r="P38" s="343"/>
+      <c r="Q38" s="354" t="s">
         <v>175</v>
       </c>
-      <c r="R38" s="351" t="s">
+      <c r="R38" s="343" t="s">
         <v>89</v>
       </c>
-      <c r="S38" s="351"/>
-      <c r="T38" s="351"/>
-      <c r="U38" s="351"/>
-      <c r="V38" s="351"/>
-      <c r="W38" s="352" t="s">
+      <c r="S38" s="343"/>
+      <c r="T38" s="343"/>
+      <c r="U38" s="343"/>
+      <c r="V38" s="343"/>
+      <c r="W38" s="342" t="s">
         <v>74</v>
       </c>
-      <c r="X38" s="352"/>
-      <c r="Y38" s="352"/>
-      <c r="Z38" s="352"/>
-      <c r="AA38" s="352"/>
-      <c r="AB38" s="352"/>
-      <c r="AC38" s="352"/>
-      <c r="AD38" s="352"/>
-      <c r="AE38" s="352"/>
-      <c r="AF38" s="352"/>
-      <c r="AG38" s="352"/>
-      <c r="AH38" s="352"/>
+      <c r="X38" s="342"/>
+      <c r="Y38" s="342"/>
+      <c r="Z38" s="342"/>
+      <c r="AA38" s="342"/>
+      <c r="AB38" s="342"/>
+      <c r="AC38" s="342"/>
+      <c r="AD38" s="342"/>
+      <c r="AE38" s="342"/>
+      <c r="AF38" s="342"/>
+      <c r="AG38" s="342"/>
+      <c r="AH38" s="342"/>
       <c r="AI38" s="60"/>
       <c r="AJ38" s="59"/>
     </row>
-    <row r="39" spans="3:36" s="39" customFormat="1">
-      <c r="E39" s="352"/>
-      <c r="F39" s="352"/>
-      <c r="G39" s="352"/>
-      <c r="H39" s="352"/>
-      <c r="I39" s="352"/>
-      <c r="J39" s="352"/>
-      <c r="K39" s="352"/>
-      <c r="L39" s="352"/>
-      <c r="M39" s="352"/>
-      <c r="N39" s="352"/>
-      <c r="O39" s="352"/>
-      <c r="P39" s="352"/>
-      <c r="Q39" s="350"/>
-      <c r="R39" s="352" t="s">
+    <row r="39" spans="3:36" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="342"/>
+      <c r="F39" s="342"/>
+      <c r="G39" s="342"/>
+      <c r="H39" s="342"/>
+      <c r="I39" s="342"/>
+      <c r="J39" s="342"/>
+      <c r="K39" s="342"/>
+      <c r="L39" s="342"/>
+      <c r="M39" s="342"/>
+      <c r="N39" s="342"/>
+      <c r="O39" s="342"/>
+      <c r="P39" s="342"/>
+      <c r="Q39" s="355"/>
+      <c r="R39" s="342" t="s">
         <v>90</v>
       </c>
-      <c r="S39" s="352"/>
-      <c r="T39" s="352"/>
-      <c r="U39" s="352"/>
-      <c r="V39" s="352"/>
-      <c r="W39" s="352"/>
-      <c r="X39" s="352"/>
-      <c r="Y39" s="352"/>
-      <c r="Z39" s="352"/>
-      <c r="AA39" s="352"/>
-      <c r="AB39" s="352"/>
-      <c r="AC39" s="352"/>
-      <c r="AD39" s="352"/>
-      <c r="AE39" s="352"/>
-      <c r="AF39" s="352"/>
-      <c r="AG39" s="352"/>
-      <c r="AH39" s="352"/>
+      <c r="S39" s="342"/>
+      <c r="T39" s="342"/>
+      <c r="U39" s="342"/>
+      <c r="V39" s="342"/>
+      <c r="W39" s="342"/>
+      <c r="X39" s="342"/>
+      <c r="Y39" s="342"/>
+      <c r="Z39" s="342"/>
+      <c r="AA39" s="342"/>
+      <c r="AB39" s="342"/>
+      <c r="AC39" s="342"/>
+      <c r="AD39" s="342"/>
+      <c r="AE39" s="342"/>
+      <c r="AF39" s="342"/>
+      <c r="AG39" s="342"/>
+      <c r="AH39" s="342"/>
       <c r="AI39" s="60"/>
       <c r="AJ39" s="59"/>
     </row>
-    <row r="40" spans="3:36" s="39" customFormat="1">
+    <row r="40" spans="3:36" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E40" s="61">
         <v>1</v>
       </c>
-      <c r="F40" s="354" t="s">
+      <c r="F40" s="330" t="s">
         <v>80</v>
       </c>
-      <c r="G40" s="354"/>
-      <c r="H40" s="354"/>
-      <c r="I40" s="354"/>
-      <c r="J40" s="354"/>
-      <c r="K40" s="354"/>
+      <c r="G40" s="330"/>
+      <c r="H40" s="330"/>
+      <c r="I40" s="330"/>
+      <c r="J40" s="330"/>
+      <c r="K40" s="330"/>
       <c r="L40" s="62" t="s">
         <v>91</v>
       </c>
@@ -12517,40 +12436,40 @@
       <c r="Q40" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="R40" s="354" t="s">
+      <c r="R40" s="330" t="s">
         <v>45</v>
       </c>
-      <c r="S40" s="354"/>
-      <c r="T40" s="354"/>
-      <c r="U40" s="354"/>
-      <c r="V40" s="354"/>
-      <c r="W40" s="354"/>
-      <c r="X40" s="354"/>
-      <c r="Y40" s="354"/>
-      <c r="Z40" s="354"/>
-      <c r="AA40" s="354"/>
-      <c r="AB40" s="354"/>
-      <c r="AC40" s="354"/>
-      <c r="AD40" s="354"/>
-      <c r="AE40" s="354"/>
-      <c r="AF40" s="354"/>
-      <c r="AG40" s="354"/>
-      <c r="AH40" s="354"/>
+      <c r="S40" s="330"/>
+      <c r="T40" s="330"/>
+      <c r="U40" s="330"/>
+      <c r="V40" s="330"/>
+      <c r="W40" s="330"/>
+      <c r="X40" s="330"/>
+      <c r="Y40" s="330"/>
+      <c r="Z40" s="330"/>
+      <c r="AA40" s="330"/>
+      <c r="AB40" s="330"/>
+      <c r="AC40" s="330"/>
+      <c r="AD40" s="330"/>
+      <c r="AE40" s="330"/>
+      <c r="AF40" s="330"/>
+      <c r="AG40" s="330"/>
+      <c r="AH40" s="330"/>
       <c r="AI40" s="60"/>
       <c r="AJ40" s="59"/>
     </row>
-    <row r="41" spans="3:36" ht="11.25" customHeight="1">
+    <row r="41" spans="3:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E41" s="61">
         <v>2</v>
       </c>
-      <c r="F41" s="354" t="s">
+      <c r="F41" s="330" t="s">
         <v>80</v>
       </c>
-      <c r="G41" s="354"/>
-      <c r="H41" s="354"/>
-      <c r="I41" s="354"/>
-      <c r="J41" s="354"/>
-      <c r="K41" s="354"/>
+      <c r="G41" s="330"/>
+      <c r="H41" s="330"/>
+      <c r="I41" s="330"/>
+      <c r="J41" s="330"/>
+      <c r="K41" s="330"/>
       <c r="L41" s="62" t="s">
         <v>92</v>
       </c>
@@ -12561,40 +12480,40 @@
       <c r="Q41" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="R41" s="354" t="s">
+      <c r="R41" s="330" t="s">
         <v>45</v>
       </c>
-      <c r="S41" s="354"/>
-      <c r="T41" s="354"/>
-      <c r="U41" s="354"/>
-      <c r="V41" s="354"/>
-      <c r="W41" s="354"/>
-      <c r="X41" s="354"/>
-      <c r="Y41" s="354"/>
-      <c r="Z41" s="354"/>
-      <c r="AA41" s="354"/>
-      <c r="AB41" s="354"/>
-      <c r="AC41" s="354"/>
-      <c r="AD41" s="354"/>
-      <c r="AE41" s="354"/>
-      <c r="AF41" s="354"/>
-      <c r="AG41" s="354"/>
-      <c r="AH41" s="354"/>
+      <c r="S41" s="330"/>
+      <c r="T41" s="330"/>
+      <c r="U41" s="330"/>
+      <c r="V41" s="330"/>
+      <c r="W41" s="330"/>
+      <c r="X41" s="330"/>
+      <c r="Y41" s="330"/>
+      <c r="Z41" s="330"/>
+      <c r="AA41" s="330"/>
+      <c r="AB41" s="330"/>
+      <c r="AC41" s="330"/>
+      <c r="AD41" s="330"/>
+      <c r="AE41" s="330"/>
+      <c r="AF41" s="330"/>
+      <c r="AG41" s="330"/>
+      <c r="AH41" s="330"/>
       <c r="AI41" s="66"/>
       <c r="AJ41" s="67"/>
     </row>
-    <row r="42" spans="3:36" ht="11.25" customHeight="1">
+    <row r="42" spans="3:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E42" s="61">
         <v>3</v>
       </c>
-      <c r="F42" s="354" t="s">
+      <c r="F42" s="330" t="s">
         <v>80</v>
       </c>
-      <c r="G42" s="354"/>
-      <c r="H42" s="354"/>
-      <c r="I42" s="354"/>
-      <c r="J42" s="354"/>
-      <c r="K42" s="354"/>
+      <c r="G42" s="330"/>
+      <c r="H42" s="330"/>
+      <c r="I42" s="330"/>
+      <c r="J42" s="330"/>
+      <c r="K42" s="330"/>
       <c r="L42" s="62" t="s">
         <v>93</v>
       </c>
@@ -12605,40 +12524,40 @@
       <c r="Q42" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="R42" s="354" t="s">
+      <c r="R42" s="330" t="s">
         <v>45</v>
       </c>
-      <c r="S42" s="354"/>
-      <c r="T42" s="354"/>
-      <c r="U42" s="354"/>
-      <c r="V42" s="354"/>
-      <c r="W42" s="354"/>
-      <c r="X42" s="354"/>
-      <c r="Y42" s="354"/>
-      <c r="Z42" s="354"/>
-      <c r="AA42" s="354"/>
-      <c r="AB42" s="354"/>
-      <c r="AC42" s="354"/>
-      <c r="AD42" s="354"/>
-      <c r="AE42" s="354"/>
-      <c r="AF42" s="354"/>
-      <c r="AG42" s="354"/>
-      <c r="AH42" s="354"/>
+      <c r="S42" s="330"/>
+      <c r="T42" s="330"/>
+      <c r="U42" s="330"/>
+      <c r="V42" s="330"/>
+      <c r="W42" s="330"/>
+      <c r="X42" s="330"/>
+      <c r="Y42" s="330"/>
+      <c r="Z42" s="330"/>
+      <c r="AA42" s="330"/>
+      <c r="AB42" s="330"/>
+      <c r="AC42" s="330"/>
+      <c r="AD42" s="330"/>
+      <c r="AE42" s="330"/>
+      <c r="AF42" s="330"/>
+      <c r="AG42" s="330"/>
+      <c r="AH42" s="330"/>
       <c r="AI42" s="66"/>
       <c r="AJ42" s="67"/>
     </row>
-    <row r="43" spans="3:36" ht="11.25" customHeight="1">
+    <row r="43" spans="3:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E43" s="61">
         <v>4</v>
       </c>
-      <c r="F43" s="354" t="s">
+      <c r="F43" s="330" t="s">
         <v>80</v>
       </c>
-      <c r="G43" s="354"/>
-      <c r="H43" s="354"/>
-      <c r="I43" s="354"/>
-      <c r="J43" s="354"/>
-      <c r="K43" s="354"/>
+      <c r="G43" s="330"/>
+      <c r="H43" s="330"/>
+      <c r="I43" s="330"/>
+      <c r="J43" s="330"/>
+      <c r="K43" s="330"/>
       <c r="L43" s="62" t="s">
         <v>94</v>
       </c>
@@ -12649,40 +12568,40 @@
       <c r="Q43" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="R43" s="354" t="s">
+      <c r="R43" s="330" t="s">
         <v>45</v>
       </c>
-      <c r="S43" s="354"/>
-      <c r="T43" s="354"/>
-      <c r="U43" s="354"/>
-      <c r="V43" s="354"/>
-      <c r="W43" s="354"/>
-      <c r="X43" s="354"/>
-      <c r="Y43" s="354"/>
-      <c r="Z43" s="354"/>
-      <c r="AA43" s="354"/>
-      <c r="AB43" s="354"/>
-      <c r="AC43" s="354"/>
-      <c r="AD43" s="354"/>
-      <c r="AE43" s="354"/>
-      <c r="AF43" s="354"/>
-      <c r="AG43" s="354"/>
-      <c r="AH43" s="354"/>
+      <c r="S43" s="330"/>
+      <c r="T43" s="330"/>
+      <c r="U43" s="330"/>
+      <c r="V43" s="330"/>
+      <c r="W43" s="330"/>
+      <c r="X43" s="330"/>
+      <c r="Y43" s="330"/>
+      <c r="Z43" s="330"/>
+      <c r="AA43" s="330"/>
+      <c r="AB43" s="330"/>
+      <c r="AC43" s="330"/>
+      <c r="AD43" s="330"/>
+      <c r="AE43" s="330"/>
+      <c r="AF43" s="330"/>
+      <c r="AG43" s="330"/>
+      <c r="AH43" s="330"/>
       <c r="AI43" s="66"/>
       <c r="AJ43" s="67"/>
     </row>
-    <row r="44" spans="3:36" ht="11.25" customHeight="1">
+    <row r="44" spans="3:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E44" s="61">
         <v>5</v>
       </c>
-      <c r="F44" s="354" t="s">
+      <c r="F44" s="330" t="s">
         <v>80</v>
       </c>
-      <c r="G44" s="354"/>
-      <c r="H44" s="354"/>
-      <c r="I44" s="354"/>
-      <c r="J44" s="354"/>
-      <c r="K44" s="354"/>
+      <c r="G44" s="330"/>
+      <c r="H44" s="330"/>
+      <c r="I44" s="330"/>
+      <c r="J44" s="330"/>
+      <c r="K44" s="330"/>
       <c r="L44" s="62" t="s">
         <v>95</v>
       </c>
@@ -12693,40 +12612,40 @@
       <c r="Q44" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="R44" s="354" t="s">
+      <c r="R44" s="330" t="s">
         <v>45</v>
       </c>
-      <c r="S44" s="354"/>
-      <c r="T44" s="354"/>
-      <c r="U44" s="354"/>
-      <c r="V44" s="354"/>
-      <c r="W44" s="354"/>
-      <c r="X44" s="354"/>
-      <c r="Y44" s="354"/>
-      <c r="Z44" s="354"/>
-      <c r="AA44" s="354"/>
-      <c r="AB44" s="354"/>
-      <c r="AC44" s="354"/>
-      <c r="AD44" s="354"/>
-      <c r="AE44" s="354"/>
-      <c r="AF44" s="354"/>
-      <c r="AG44" s="354"/>
-      <c r="AH44" s="354"/>
+      <c r="S44" s="330"/>
+      <c r="T44" s="330"/>
+      <c r="U44" s="330"/>
+      <c r="V44" s="330"/>
+      <c r="W44" s="330"/>
+      <c r="X44" s="330"/>
+      <c r="Y44" s="330"/>
+      <c r="Z44" s="330"/>
+      <c r="AA44" s="330"/>
+      <c r="AB44" s="330"/>
+      <c r="AC44" s="330"/>
+      <c r="AD44" s="330"/>
+      <c r="AE44" s="330"/>
+      <c r="AF44" s="330"/>
+      <c r="AG44" s="330"/>
+      <c r="AH44" s="330"/>
       <c r="AI44" s="66"/>
       <c r="AJ44" s="67"/>
     </row>
-    <row r="45" spans="3:36" ht="11.25" customHeight="1">
+    <row r="45" spans="3:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E45" s="61">
         <v>6</v>
       </c>
-      <c r="F45" s="354" t="s">
+      <c r="F45" s="330" t="s">
         <v>80</v>
       </c>
-      <c r="G45" s="354"/>
-      <c r="H45" s="354"/>
-      <c r="I45" s="354"/>
-      <c r="J45" s="354"/>
-      <c r="K45" s="354"/>
+      <c r="G45" s="330"/>
+      <c r="H45" s="330"/>
+      <c r="I45" s="330"/>
+      <c r="J45" s="330"/>
+      <c r="K45" s="330"/>
       <c r="L45" s="62" t="s">
         <v>96</v>
       </c>
@@ -12737,40 +12656,40 @@
       <c r="Q45" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="R45" s="354" t="s">
+      <c r="R45" s="330" t="s">
         <v>45</v>
       </c>
-      <c r="S45" s="354"/>
-      <c r="T45" s="354"/>
-      <c r="U45" s="354"/>
-      <c r="V45" s="354"/>
-      <c r="W45" s="354"/>
-      <c r="X45" s="354"/>
-      <c r="Y45" s="354"/>
-      <c r="Z45" s="354"/>
-      <c r="AA45" s="354"/>
-      <c r="AB45" s="354"/>
-      <c r="AC45" s="354"/>
-      <c r="AD45" s="354"/>
-      <c r="AE45" s="354"/>
-      <c r="AF45" s="354"/>
-      <c r="AG45" s="354"/>
-      <c r="AH45" s="354"/>
+      <c r="S45" s="330"/>
+      <c r="T45" s="330"/>
+      <c r="U45" s="330"/>
+      <c r="V45" s="330"/>
+      <c r="W45" s="330"/>
+      <c r="X45" s="330"/>
+      <c r="Y45" s="330"/>
+      <c r="Z45" s="330"/>
+      <c r="AA45" s="330"/>
+      <c r="AB45" s="330"/>
+      <c r="AC45" s="330"/>
+      <c r="AD45" s="330"/>
+      <c r="AE45" s="330"/>
+      <c r="AF45" s="330"/>
+      <c r="AG45" s="330"/>
+      <c r="AH45" s="330"/>
       <c r="AI45" s="66"/>
       <c r="AJ45" s="67"/>
     </row>
-    <row r="46" spans="3:36" ht="11.25" customHeight="1">
+    <row r="46" spans="3:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E46" s="61">
         <v>7</v>
       </c>
-      <c r="F46" s="354" t="s">
+      <c r="F46" s="330" t="s">
         <v>80</v>
       </c>
-      <c r="G46" s="354"/>
-      <c r="H46" s="354"/>
-      <c r="I46" s="354"/>
-      <c r="J46" s="354"/>
-      <c r="K46" s="354"/>
+      <c r="G46" s="330"/>
+      <c r="H46" s="330"/>
+      <c r="I46" s="330"/>
+      <c r="J46" s="330"/>
+      <c r="K46" s="330"/>
       <c r="L46" s="62" t="s">
         <v>97</v>
       </c>
@@ -12781,40 +12700,40 @@
       <c r="Q46" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="R46" s="354" t="s">
+      <c r="R46" s="330" t="s">
         <v>45</v>
       </c>
-      <c r="S46" s="354"/>
-      <c r="T46" s="354"/>
-      <c r="U46" s="354"/>
-      <c r="V46" s="354"/>
-      <c r="W46" s="354"/>
-      <c r="X46" s="354"/>
-      <c r="Y46" s="354"/>
-      <c r="Z46" s="354"/>
-      <c r="AA46" s="354"/>
-      <c r="AB46" s="354"/>
-      <c r="AC46" s="354"/>
-      <c r="AD46" s="354"/>
-      <c r="AE46" s="354"/>
-      <c r="AF46" s="354"/>
-      <c r="AG46" s="354"/>
-      <c r="AH46" s="354"/>
+      <c r="S46" s="330"/>
+      <c r="T46" s="330"/>
+      <c r="U46" s="330"/>
+      <c r="V46" s="330"/>
+      <c r="W46" s="330"/>
+      <c r="X46" s="330"/>
+      <c r="Y46" s="330"/>
+      <c r="Z46" s="330"/>
+      <c r="AA46" s="330"/>
+      <c r="AB46" s="330"/>
+      <c r="AC46" s="330"/>
+      <c r="AD46" s="330"/>
+      <c r="AE46" s="330"/>
+      <c r="AF46" s="330"/>
+      <c r="AG46" s="330"/>
+      <c r="AH46" s="330"/>
       <c r="AI46" s="66"/>
       <c r="AJ46" s="67"/>
     </row>
-    <row r="47" spans="3:36" ht="11.25" customHeight="1">
+    <row r="47" spans="3:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E47" s="61">
         <v>8</v>
       </c>
-      <c r="F47" s="354" t="s">
+      <c r="F47" s="330" t="s">
         <v>80</v>
       </c>
-      <c r="G47" s="354"/>
-      <c r="H47" s="354"/>
-      <c r="I47" s="354"/>
-      <c r="J47" s="354"/>
-      <c r="K47" s="354"/>
+      <c r="G47" s="330"/>
+      <c r="H47" s="330"/>
+      <c r="I47" s="330"/>
+      <c r="J47" s="330"/>
+      <c r="K47" s="330"/>
       <c r="L47" s="62" t="s">
         <v>98</v>
       </c>
@@ -12825,40 +12744,40 @@
       <c r="Q47" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="R47" s="354" t="s">
+      <c r="R47" s="330" t="s">
         <v>45</v>
       </c>
-      <c r="S47" s="354"/>
-      <c r="T47" s="354"/>
-      <c r="U47" s="354"/>
-      <c r="V47" s="354"/>
-      <c r="W47" s="354"/>
-      <c r="X47" s="354"/>
-      <c r="Y47" s="354"/>
-      <c r="Z47" s="354"/>
-      <c r="AA47" s="354"/>
-      <c r="AB47" s="354"/>
-      <c r="AC47" s="354"/>
-      <c r="AD47" s="354"/>
-      <c r="AE47" s="354"/>
-      <c r="AF47" s="354"/>
-      <c r="AG47" s="354"/>
-      <c r="AH47" s="354"/>
+      <c r="S47" s="330"/>
+      <c r="T47" s="330"/>
+      <c r="U47" s="330"/>
+      <c r="V47" s="330"/>
+      <c r="W47" s="330"/>
+      <c r="X47" s="330"/>
+      <c r="Y47" s="330"/>
+      <c r="Z47" s="330"/>
+      <c r="AA47" s="330"/>
+      <c r="AB47" s="330"/>
+      <c r="AC47" s="330"/>
+      <c r="AD47" s="330"/>
+      <c r="AE47" s="330"/>
+      <c r="AF47" s="330"/>
+      <c r="AG47" s="330"/>
+      <c r="AH47" s="330"/>
       <c r="AI47" s="66"/>
       <c r="AJ47" s="67"/>
     </row>
-    <row r="48" spans="3:36" ht="11.25" customHeight="1">
+    <row r="48" spans="3:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E48" s="61">
         <v>9</v>
       </c>
-      <c r="F48" s="354" t="s">
+      <c r="F48" s="330" t="s">
         <v>80</v>
       </c>
-      <c r="G48" s="354"/>
-      <c r="H48" s="354"/>
-      <c r="I48" s="354"/>
-      <c r="J48" s="354"/>
-      <c r="K48" s="354"/>
+      <c r="G48" s="330"/>
+      <c r="H48" s="330"/>
+      <c r="I48" s="330"/>
+      <c r="J48" s="330"/>
+      <c r="K48" s="330"/>
       <c r="L48" s="62" t="s">
         <v>99</v>
       </c>
@@ -12869,40 +12788,40 @@
       <c r="Q48" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="R48" s="354" t="s">
+      <c r="R48" s="330" t="s">
         <v>45</v>
       </c>
-      <c r="S48" s="354"/>
-      <c r="T48" s="354"/>
-      <c r="U48" s="354"/>
-      <c r="V48" s="354"/>
-      <c r="W48" s="354"/>
-      <c r="X48" s="354"/>
-      <c r="Y48" s="354"/>
-      <c r="Z48" s="354"/>
-      <c r="AA48" s="354"/>
-      <c r="AB48" s="354"/>
-      <c r="AC48" s="354"/>
-      <c r="AD48" s="354"/>
-      <c r="AE48" s="354"/>
-      <c r="AF48" s="354"/>
-      <c r="AG48" s="354"/>
-      <c r="AH48" s="354"/>
+      <c r="S48" s="330"/>
+      <c r="T48" s="330"/>
+      <c r="U48" s="330"/>
+      <c r="V48" s="330"/>
+      <c r="W48" s="330"/>
+      <c r="X48" s="330"/>
+      <c r="Y48" s="330"/>
+      <c r="Z48" s="330"/>
+      <c r="AA48" s="330"/>
+      <c r="AB48" s="330"/>
+      <c r="AC48" s="330"/>
+      <c r="AD48" s="330"/>
+      <c r="AE48" s="330"/>
+      <c r="AF48" s="330"/>
+      <c r="AG48" s="330"/>
+      <c r="AH48" s="330"/>
       <c r="AI48" s="66"/>
       <c r="AJ48" s="67"/>
     </row>
-    <row r="49" spans="2:36" ht="11.25" customHeight="1">
+    <row r="49" spans="2:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E49" s="61">
         <v>10</v>
       </c>
-      <c r="F49" s="354" t="s">
+      <c r="F49" s="330" t="s">
         <v>80</v>
       </c>
-      <c r="G49" s="354"/>
-      <c r="H49" s="354"/>
-      <c r="I49" s="354"/>
-      <c r="J49" s="354"/>
-      <c r="K49" s="354"/>
+      <c r="G49" s="330"/>
+      <c r="H49" s="330"/>
+      <c r="I49" s="330"/>
+      <c r="J49" s="330"/>
+      <c r="K49" s="330"/>
       <c r="L49" s="62" t="s">
         <v>100</v>
       </c>
@@ -12913,40 +12832,40 @@
       <c r="Q49" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="R49" s="354" t="s">
+      <c r="R49" s="330" t="s">
         <v>45</v>
       </c>
-      <c r="S49" s="354"/>
-      <c r="T49" s="354"/>
-      <c r="U49" s="354"/>
-      <c r="V49" s="354"/>
-      <c r="W49" s="354"/>
-      <c r="X49" s="354"/>
-      <c r="Y49" s="354"/>
-      <c r="Z49" s="354"/>
-      <c r="AA49" s="354"/>
-      <c r="AB49" s="354"/>
-      <c r="AC49" s="354"/>
-      <c r="AD49" s="354"/>
-      <c r="AE49" s="354"/>
-      <c r="AF49" s="354"/>
-      <c r="AG49" s="354"/>
-      <c r="AH49" s="354"/>
+      <c r="S49" s="330"/>
+      <c r="T49" s="330"/>
+      <c r="U49" s="330"/>
+      <c r="V49" s="330"/>
+      <c r="W49" s="330"/>
+      <c r="X49" s="330"/>
+      <c r="Y49" s="330"/>
+      <c r="Z49" s="330"/>
+      <c r="AA49" s="330"/>
+      <c r="AB49" s="330"/>
+      <c r="AC49" s="330"/>
+      <c r="AD49" s="330"/>
+      <c r="AE49" s="330"/>
+      <c r="AF49" s="330"/>
+      <c r="AG49" s="330"/>
+      <c r="AH49" s="330"/>
       <c r="AI49" s="66"/>
       <c r="AJ49" s="67"/>
     </row>
-    <row r="50" spans="2:36" ht="11.25" customHeight="1">
+    <row r="50" spans="2:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E50" s="61">
         <v>11</v>
       </c>
-      <c r="F50" s="354" t="s">
+      <c r="F50" s="330" t="s">
         <v>80</v>
       </c>
-      <c r="G50" s="354"/>
-      <c r="H50" s="354"/>
-      <c r="I50" s="354"/>
-      <c r="J50" s="354"/>
-      <c r="K50" s="354"/>
+      <c r="G50" s="330"/>
+      <c r="H50" s="330"/>
+      <c r="I50" s="330"/>
+      <c r="J50" s="330"/>
+      <c r="K50" s="330"/>
       <c r="L50" s="62" t="s">
         <v>74</v>
       </c>
@@ -12957,40 +12876,40 @@
       <c r="Q50" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="R50" s="354" t="s">
+      <c r="R50" s="330" t="s">
         <v>45</v>
       </c>
-      <c r="S50" s="354"/>
-      <c r="T50" s="354"/>
-      <c r="U50" s="354"/>
-      <c r="V50" s="354"/>
-      <c r="W50" s="354"/>
-      <c r="X50" s="354"/>
-      <c r="Y50" s="354"/>
-      <c r="Z50" s="354"/>
-      <c r="AA50" s="354"/>
-      <c r="AB50" s="354"/>
-      <c r="AC50" s="354"/>
-      <c r="AD50" s="354"/>
-      <c r="AE50" s="354"/>
-      <c r="AF50" s="354"/>
-      <c r="AG50" s="354"/>
-      <c r="AH50" s="354"/>
+      <c r="S50" s="330"/>
+      <c r="T50" s="330"/>
+      <c r="U50" s="330"/>
+      <c r="V50" s="330"/>
+      <c r="W50" s="330"/>
+      <c r="X50" s="330"/>
+      <c r="Y50" s="330"/>
+      <c r="Z50" s="330"/>
+      <c r="AA50" s="330"/>
+      <c r="AB50" s="330"/>
+      <c r="AC50" s="330"/>
+      <c r="AD50" s="330"/>
+      <c r="AE50" s="330"/>
+      <c r="AF50" s="330"/>
+      <c r="AG50" s="330"/>
+      <c r="AH50" s="330"/>
       <c r="AI50" s="66"/>
       <c r="AJ50" s="67"/>
     </row>
-    <row r="51" spans="2:36" ht="11.25" customHeight="1">
+    <row r="51" spans="2:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E51" s="61">
         <v>12</v>
       </c>
-      <c r="F51" s="354" t="s">
+      <c r="F51" s="330" t="s">
         <v>80</v>
       </c>
-      <c r="G51" s="354"/>
-      <c r="H51" s="354"/>
-      <c r="I51" s="354"/>
-      <c r="J51" s="354"/>
-      <c r="K51" s="354"/>
+      <c r="G51" s="330"/>
+      <c r="H51" s="330"/>
+      <c r="I51" s="330"/>
+      <c r="J51" s="330"/>
+      <c r="K51" s="330"/>
       <c r="L51" s="62" t="s">
         <v>101</v>
       </c>
@@ -13001,40 +12920,40 @@
       <c r="Q51" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="R51" s="354" t="s">
+      <c r="R51" s="330" t="s">
         <v>45</v>
       </c>
-      <c r="S51" s="354"/>
-      <c r="T51" s="354"/>
-      <c r="U51" s="354"/>
-      <c r="V51" s="354"/>
-      <c r="W51" s="354"/>
-      <c r="X51" s="354"/>
-      <c r="Y51" s="354"/>
-      <c r="Z51" s="354"/>
-      <c r="AA51" s="354"/>
-      <c r="AB51" s="354"/>
-      <c r="AC51" s="354"/>
-      <c r="AD51" s="354"/>
-      <c r="AE51" s="354"/>
-      <c r="AF51" s="354"/>
-      <c r="AG51" s="354"/>
-      <c r="AH51" s="354"/>
+      <c r="S51" s="330"/>
+      <c r="T51" s="330"/>
+      <c r="U51" s="330"/>
+      <c r="V51" s="330"/>
+      <c r="W51" s="330"/>
+      <c r="X51" s="330"/>
+      <c r="Y51" s="330"/>
+      <c r="Z51" s="330"/>
+      <c r="AA51" s="330"/>
+      <c r="AB51" s="330"/>
+      <c r="AC51" s="330"/>
+      <c r="AD51" s="330"/>
+      <c r="AE51" s="330"/>
+      <c r="AF51" s="330"/>
+      <c r="AG51" s="330"/>
+      <c r="AH51" s="330"/>
       <c r="AI51" s="66"/>
       <c r="AJ51" s="67"/>
     </row>
-    <row r="52" spans="2:36" ht="11.25" customHeight="1">
+    <row r="52" spans="2:36" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E52" s="61">
         <v>13</v>
       </c>
-      <c r="F52" s="354" t="s">
+      <c r="F52" s="330" t="s">
         <v>80</v>
       </c>
-      <c r="G52" s="354"/>
-      <c r="H52" s="354"/>
-      <c r="I52" s="354"/>
-      <c r="J52" s="354"/>
-      <c r="K52" s="354"/>
+      <c r="G52" s="330"/>
+      <c r="H52" s="330"/>
+      <c r="I52" s="330"/>
+      <c r="J52" s="330"/>
+      <c r="K52" s="330"/>
       <c r="L52" s="62" t="s">
         <v>102</v>
       </c>
@@ -13045,65 +12964,65 @@
       <c r="Q52" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="R52" s="354" t="s">
+      <c r="R52" s="330" t="s">
         <v>45</v>
       </c>
-      <c r="S52" s="354"/>
-      <c r="T52" s="354"/>
-      <c r="U52" s="354"/>
-      <c r="V52" s="354"/>
-      <c r="W52" s="354"/>
-      <c r="X52" s="354"/>
-      <c r="Y52" s="354"/>
-      <c r="Z52" s="354"/>
-      <c r="AA52" s="354"/>
-      <c r="AB52" s="354"/>
-      <c r="AC52" s="354"/>
-      <c r="AD52" s="354"/>
-      <c r="AE52" s="354"/>
-      <c r="AF52" s="354"/>
-      <c r="AG52" s="354"/>
-      <c r="AH52" s="354"/>
+      <c r="S52" s="330"/>
+      <c r="T52" s="330"/>
+      <c r="U52" s="330"/>
+      <c r="V52" s="330"/>
+      <c r="W52" s="330"/>
+      <c r="X52" s="330"/>
+      <c r="Y52" s="330"/>
+      <c r="Z52" s="330"/>
+      <c r="AA52" s="330"/>
+      <c r="AB52" s="330"/>
+      <c r="AC52" s="330"/>
+      <c r="AD52" s="330"/>
+      <c r="AE52" s="330"/>
+      <c r="AF52" s="330"/>
+      <c r="AG52" s="330"/>
+      <c r="AH52" s="330"/>
       <c r="AI52" s="66"/>
       <c r="AJ52" s="67"/>
     </row>
-    <row r="53" spans="2:36">
-      <c r="E53" s="316" t="s">
+    <row r="53" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="E53" s="288" t="s">
         <v>103</v>
       </c>
-      <c r="F53" s="317"/>
-      <c r="G53" s="317"/>
-      <c r="H53" s="317"/>
-      <c r="I53" s="317"/>
-      <c r="J53" s="317"/>
-      <c r="K53" s="317"/>
-      <c r="L53" s="317"/>
-      <c r="M53" s="317"/>
-      <c r="N53" s="317"/>
-      <c r="O53" s="317"/>
-      <c r="P53" s="317"/>
-      <c r="Q53" s="317"/>
-      <c r="R53" s="317"/>
-      <c r="S53" s="317"/>
-      <c r="T53" s="317"/>
-      <c r="U53" s="317"/>
-      <c r="V53" s="317"/>
-      <c r="W53" s="317"/>
-      <c r="X53" s="317"/>
-      <c r="Y53" s="317"/>
-      <c r="Z53" s="317"/>
-      <c r="AA53" s="317"/>
-      <c r="AB53" s="317"/>
-      <c r="AC53" s="317"/>
-      <c r="AD53" s="317"/>
-      <c r="AE53" s="317"/>
-      <c r="AF53" s="317"/>
-      <c r="AG53" s="317"/>
-      <c r="AH53" s="318"/>
+      <c r="F53" s="289"/>
+      <c r="G53" s="289"/>
+      <c r="H53" s="289"/>
+      <c r="I53" s="289"/>
+      <c r="J53" s="289"/>
+      <c r="K53" s="289"/>
+      <c r="L53" s="289"/>
+      <c r="M53" s="289"/>
+      <c r="N53" s="289"/>
+      <c r="O53" s="289"/>
+      <c r="P53" s="289"/>
+      <c r="Q53" s="289"/>
+      <c r="R53" s="289"/>
+      <c r="S53" s="289"/>
+      <c r="T53" s="289"/>
+      <c r="U53" s="289"/>
+      <c r="V53" s="289"/>
+      <c r="W53" s="289"/>
+      <c r="X53" s="289"/>
+      <c r="Y53" s="289"/>
+      <c r="Z53" s="289"/>
+      <c r="AA53" s="289"/>
+      <c r="AB53" s="289"/>
+      <c r="AC53" s="289"/>
+      <c r="AD53" s="289"/>
+      <c r="AE53" s="289"/>
+      <c r="AF53" s="289"/>
+      <c r="AG53" s="289"/>
+      <c r="AH53" s="290"/>
       <c r="AI53" s="67"/>
       <c r="AJ53" s="67"/>
     </row>
-    <row r="54" spans="2:36">
+    <row r="54" spans="2:36" x14ac:dyDescent="0.2">
       <c r="E54" s="68"/>
       <c r="F54" s="69"/>
       <c r="G54" s="69"/>
@@ -13137,7 +13056,7 @@
       <c r="AI54" s="67"/>
       <c r="AJ54" s="67"/>
     </row>
-    <row r="55" spans="2:36">
+    <row r="55" spans="2:36" x14ac:dyDescent="0.2">
       <c r="E55" s="73"/>
       <c r="F55" s="74"/>
       <c r="G55" s="69" t="s">
@@ -13173,7 +13092,7 @@
       <c r="AI55" s="67"/>
       <c r="AJ55" s="67"/>
     </row>
-    <row r="56" spans="2:36">
+    <row r="56" spans="2:36" x14ac:dyDescent="0.2">
       <c r="E56" s="73"/>
       <c r="F56" s="74" t="s">
         <v>107</v>
@@ -13211,7 +13130,7 @@
       <c r="AI56" s="67"/>
       <c r="AJ56" s="67"/>
     </row>
-    <row r="57" spans="2:36">
+    <row r="57" spans="2:36" x14ac:dyDescent="0.2">
       <c r="E57" s="77"/>
       <c r="F57" s="78"/>
       <c r="G57" s="78"/>
@@ -13245,7 +13164,7 @@
       <c r="AI57" s="67"/>
       <c r="AJ57" s="67"/>
     </row>
-    <row r="58" spans="2:36">
+    <row r="58" spans="2:36" x14ac:dyDescent="0.2">
       <c r="E58" s="75"/>
       <c r="F58" s="75"/>
       <c r="G58" s="75"/>
@@ -13279,7 +13198,7 @@
       <c r="AI58" s="67"/>
       <c r="AJ58" s="67"/>
     </row>
-    <row r="59" spans="2:36">
+    <row r="59" spans="2:36" x14ac:dyDescent="0.2">
       <c r="B59" s="80"/>
       <c r="C59" s="80"/>
       <c r="D59" s="80"/>
@@ -13314,122 +13233,122 @@
       <c r="AG59" s="60"/>
       <c r="AH59" s="60"/>
     </row>
-    <row r="60" spans="2:36">
+    <row r="60" spans="2:36" x14ac:dyDescent="0.2">
       <c r="C60" s="38" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="2:36">
+    <row r="61" spans="2:36" x14ac:dyDescent="0.2">
       <c r="D61" s="83" t="s">
         <v>111</v>
       </c>
       <c r="E61" s="83"/>
     </row>
-    <row r="62" spans="2:36">
+    <row r="62" spans="2:36" x14ac:dyDescent="0.2">
       <c r="E62" s="38" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="64" spans="2:36">
+    <row r="64" spans="2:36" x14ac:dyDescent="0.2">
       <c r="D64" s="83" t="s">
         <v>113</v>
       </c>
       <c r="E64" s="83"/>
     </row>
-    <row r="65" spans="2:70">
+    <row r="65" spans="2:70" x14ac:dyDescent="0.2">
       <c r="E65" s="38" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="2:70">
+    <row r="67" spans="2:70" x14ac:dyDescent="0.2">
       <c r="E67" s="38" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="2:70">
-      <c r="E68" s="319" t="s">
+    <row r="68" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="E68" s="291" t="s">
         <v>65</v>
       </c>
-      <c r="F68" s="320"/>
-      <c r="G68" s="321"/>
-      <c r="H68" s="316" t="s">
+      <c r="F68" s="292"/>
+      <c r="G68" s="293"/>
+      <c r="H68" s="288" t="s">
         <v>66</v>
       </c>
-      <c r="I68" s="317"/>
-      <c r="J68" s="318"/>
-      <c r="K68" s="305" t="s">
+      <c r="I68" s="289"/>
+      <c r="J68" s="290"/>
+      <c r="K68" s="271" t="s">
         <v>116</v>
       </c>
-      <c r="L68" s="306"/>
-      <c r="M68" s="306"/>
-      <c r="N68" s="307"/>
-      <c r="O68" s="353" t="s">
+      <c r="L68" s="272"/>
+      <c r="M68" s="272"/>
+      <c r="N68" s="273"/>
+      <c r="O68" s="356" t="s">
         <v>117</v>
       </c>
-      <c r="P68" s="353"/>
-      <c r="Q68" s="353"/>
-      <c r="R68" s="353"/>
-      <c r="S68" s="353"/>
-      <c r="T68" s="353"/>
-      <c r="U68" s="353"/>
-      <c r="V68" s="353"/>
-      <c r="W68" s="353"/>
-      <c r="X68" s="353"/>
-      <c r="Y68" s="353"/>
-      <c r="Z68" s="353"/>
-      <c r="AA68" s="353"/>
-      <c r="AB68" s="353"/>
-    </row>
-    <row r="69" spans="2:70">
-      <c r="E69" s="335">
+      <c r="P68" s="356"/>
+      <c r="Q68" s="356"/>
+      <c r="R68" s="356"/>
+      <c r="S68" s="356"/>
+      <c r="T68" s="356"/>
+      <c r="U68" s="356"/>
+      <c r="V68" s="356"/>
+      <c r="W68" s="356"/>
+      <c r="X68" s="356"/>
+      <c r="Y68" s="356"/>
+      <c r="Z68" s="356"/>
+      <c r="AA68" s="356"/>
+      <c r="AB68" s="356"/>
+    </row>
+    <row r="69" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="E69" s="331">
         <v>0</v>
       </c>
-      <c r="F69" s="336"/>
-      <c r="G69" s="337"/>
-      <c r="H69" s="335" t="s">
+      <c r="F69" s="328"/>
+      <c r="G69" s="329"/>
+      <c r="H69" s="331" t="s">
         <v>45</v>
       </c>
-      <c r="I69" s="336"/>
-      <c r="J69" s="337"/>
-      <c r="K69" s="359" t="s">
+      <c r="I69" s="328"/>
+      <c r="J69" s="329"/>
+      <c r="K69" s="327" t="s">
         <v>45</v>
       </c>
-      <c r="L69" s="360"/>
-      <c r="M69" s="360"/>
-      <c r="N69" s="361"/>
-      <c r="O69" s="277" t="s">
+      <c r="L69" s="332"/>
+      <c r="M69" s="332"/>
+      <c r="N69" s="333"/>
+      <c r="O69" s="297" t="s">
         <v>45</v>
       </c>
-      <c r="P69" s="277"/>
-      <c r="Q69" s="277"/>
-      <c r="R69" s="277"/>
-      <c r="S69" s="277"/>
-      <c r="T69" s="277"/>
-      <c r="U69" s="277"/>
-      <c r="V69" s="277"/>
-      <c r="W69" s="277"/>
-      <c r="X69" s="277"/>
-      <c r="Y69" s="277"/>
-      <c r="Z69" s="277"/>
-      <c r="AA69" s="277"/>
-      <c r="AB69" s="277"/>
-    </row>
-    <row r="71" spans="2:70">
+      <c r="P69" s="297"/>
+      <c r="Q69" s="297"/>
+      <c r="R69" s="297"/>
+      <c r="S69" s="297"/>
+      <c r="T69" s="297"/>
+      <c r="U69" s="297"/>
+      <c r="V69" s="297"/>
+      <c r="W69" s="297"/>
+      <c r="X69" s="297"/>
+      <c r="Y69" s="297"/>
+      <c r="Z69" s="297"/>
+      <c r="AA69" s="297"/>
+      <c r="AB69" s="297"/>
+    </row>
+    <row r="71" spans="2:70" x14ac:dyDescent="0.2">
       <c r="D71" s="83" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="72" spans="2:70">
+    <row r="72" spans="2:70" x14ac:dyDescent="0.2">
       <c r="D72" s="83"/>
       <c r="E72" s="83" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="2:70">
+    <row r="73" spans="2:70" x14ac:dyDescent="0.2">
       <c r="D73" s="83"/>
       <c r="E73" s="83"/>
     </row>
-    <row r="75" spans="2:70" s="85" customFormat="1">
+    <row r="75" spans="2:70" s="85" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="84"/>
       <c r="C75" s="38" t="s">
         <v>120</v>
@@ -13468,7 +13387,7 @@
       <c r="AN75" s="38"/>
       <c r="BR75" s="38"/>
     </row>
-    <row r="76" spans="2:70">
+    <row r="76" spans="2:70" x14ac:dyDescent="0.2">
       <c r="D76" s="86" t="s">
         <v>121</v>
       </c>
@@ -13503,7 +13422,7 @@
       <c r="AG76" s="86"/>
       <c r="AH76" s="86"/>
     </row>
-    <row r="77" spans="2:70">
+    <row r="77" spans="2:70" x14ac:dyDescent="0.2">
       <c r="D77" s="86"/>
       <c r="E77" s="86" t="s">
         <v>122</v>
@@ -13538,7 +13457,7 @@
       <c r="AG77" s="86"/>
       <c r="AH77" s="86"/>
     </row>
-    <row r="78" spans="2:70">
+    <row r="78" spans="2:70" x14ac:dyDescent="0.2">
       <c r="D78" s="86"/>
       <c r="E78" s="86"/>
       <c r="F78" s="86"/>
@@ -13571,7 +13490,7 @@
       <c r="AG78" s="86"/>
       <c r="AH78" s="86"/>
     </row>
-    <row r="79" spans="2:70">
+    <row r="79" spans="2:70" x14ac:dyDescent="0.2">
       <c r="D79" s="86"/>
       <c r="F79" s="87" t="s">
         <v>123</v>
@@ -13605,7 +13524,7 @@
       <c r="AG79" s="86"/>
       <c r="AH79" s="86"/>
     </row>
-    <row r="80" spans="2:70">
+    <row r="80" spans="2:70" x14ac:dyDescent="0.2">
       <c r="D80" s="86"/>
       <c r="F80" s="87"/>
       <c r="G80" s="86"/>
@@ -13637,47 +13556,47 @@
       <c r="AG80" s="86"/>
       <c r="AH80" s="86"/>
     </row>
-    <row r="81" spans="4:67">
+    <row r="81" spans="4:67" x14ac:dyDescent="0.2">
       <c r="D81" s="86"/>
-      <c r="F81" s="362" t="s">
+      <c r="F81" s="334" t="s">
         <v>124</v>
       </c>
-      <c r="G81" s="363"/>
-      <c r="H81" s="364"/>
-      <c r="I81" s="338" t="s">
+      <c r="G81" s="335"/>
+      <c r="H81" s="336"/>
+      <c r="I81" s="337" t="s">
         <v>125</v>
       </c>
-      <c r="J81" s="339"/>
-      <c r="K81" s="339"/>
-      <c r="L81" s="339"/>
-      <c r="M81" s="340"/>
-      <c r="N81" s="362" t="s">
+      <c r="J81" s="338"/>
+      <c r="K81" s="338"/>
+      <c r="L81" s="338"/>
+      <c r="M81" s="339"/>
+      <c r="N81" s="334" t="s">
         <v>126</v>
       </c>
-      <c r="O81" s="363"/>
-      <c r="P81" s="364"/>
-      <c r="Q81" s="338" t="s">
+      <c r="O81" s="335"/>
+      <c r="P81" s="336"/>
+      <c r="Q81" s="337" t="s">
         <v>127</v>
       </c>
-      <c r="R81" s="339"/>
-      <c r="S81" s="339"/>
-      <c r="T81" s="339"/>
-      <c r="U81" s="339"/>
-      <c r="V81" s="339"/>
-      <c r="W81" s="339"/>
-      <c r="X81" s="339"/>
-      <c r="Y81" s="339"/>
-      <c r="Z81" s="339"/>
-      <c r="AA81" s="339"/>
-      <c r="AB81" s="339"/>
-      <c r="AC81" s="339"/>
-      <c r="AD81" s="339"/>
-      <c r="AE81" s="339"/>
-      <c r="AF81" s="339"/>
-      <c r="AG81" s="339"/>
-      <c r="AH81" s="340"/>
-    </row>
-    <row r="82" spans="4:67" s="88" customFormat="1">
+      <c r="R81" s="338"/>
+      <c r="S81" s="338"/>
+      <c r="T81" s="338"/>
+      <c r="U81" s="338"/>
+      <c r="V81" s="338"/>
+      <c r="W81" s="338"/>
+      <c r="X81" s="338"/>
+      <c r="Y81" s="338"/>
+      <c r="Z81" s="338"/>
+      <c r="AA81" s="338"/>
+      <c r="AB81" s="338"/>
+      <c r="AC81" s="338"/>
+      <c r="AD81" s="338"/>
+      <c r="AE81" s="338"/>
+      <c r="AF81" s="338"/>
+      <c r="AG81" s="338"/>
+      <c r="AH81" s="339"/>
+    </row>
+    <row r="82" spans="4:67" s="88" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D82" s="89"/>
       <c r="F82" s="90"/>
       <c r="G82" s="90"/>
@@ -13709,7 +13628,7 @@
       <c r="AG82" s="90"/>
       <c r="AH82" s="90"/>
     </row>
-    <row r="83" spans="4:67">
+    <row r="83" spans="4:67" x14ac:dyDescent="0.2">
       <c r="D83" s="86"/>
       <c r="E83" s="86" t="s">
         <v>128</v>
@@ -13748,7 +13667,7 @@
       <c r="BN83" s="67"/>
       <c r="BO83" s="67"/>
     </row>
-    <row r="84" spans="4:67">
+    <row r="84" spans="4:67" x14ac:dyDescent="0.2">
       <c r="D84" s="86"/>
       <c r="E84" s="86"/>
       <c r="F84" s="86"/>
@@ -13781,16 +13700,16 @@
       <c r="AG84" s="86"/>
       <c r="AH84" s="86"/>
     </row>
-    <row r="85" spans="4:67">
-      <c r="F85" s="341" t="s">
+    <row r="85" spans="4:67" x14ac:dyDescent="0.2">
+      <c r="F85" s="345" t="s">
         <v>36</v>
       </c>
-      <c r="G85" s="343" t="s">
+      <c r="G85" s="347" t="s">
         <v>129</v>
       </c>
-      <c r="H85" s="343"/>
-      <c r="I85" s="343"/>
-      <c r="J85" s="343"/>
+      <c r="H85" s="347"/>
+      <c r="I85" s="347"/>
+      <c r="J85" s="347"/>
       <c r="K85" s="91" t="s">
         <v>130</v>
       </c>
@@ -13817,20 +13736,20 @@
       <c r="AB85" s="92"/>
       <c r="AC85" s="92"/>
       <c r="AD85" s="93"/>
-      <c r="AE85" s="344" t="s">
+      <c r="AE85" s="348" t="s">
         <v>74</v>
       </c>
-      <c r="AF85" s="345"/>
-      <c r="AG85" s="345"/>
-      <c r="AH85" s="346"/>
+      <c r="AF85" s="349"/>
+      <c r="AG85" s="349"/>
+      <c r="AH85" s="350"/>
       <c r="AI85" s="97"/>
     </row>
-    <row r="86" spans="4:67">
-      <c r="F86" s="342"/>
-      <c r="G86" s="343"/>
-      <c r="H86" s="343"/>
-      <c r="I86" s="343"/>
-      <c r="J86" s="343"/>
+    <row r="86" spans="4:67" x14ac:dyDescent="0.2">
+      <c r="F86" s="346"/>
+      <c r="G86" s="347"/>
+      <c r="H86" s="347"/>
+      <c r="I86" s="347"/>
+      <c r="J86" s="347"/>
       <c r="K86" s="98"/>
       <c r="L86" s="99"/>
       <c r="M86" s="99"/>
@@ -13855,13 +13774,13 @@
       <c r="AB86" s="99"/>
       <c r="AC86" s="99"/>
       <c r="AD86" s="100"/>
-      <c r="AE86" s="347"/>
-      <c r="AF86" s="348"/>
-      <c r="AG86" s="348"/>
-      <c r="AH86" s="349"/>
+      <c r="AE86" s="351"/>
+      <c r="AF86" s="352"/>
+      <c r="AG86" s="352"/>
+      <c r="AH86" s="353"/>
       <c r="AI86" s="97"/>
     </row>
-    <row r="87" spans="4:67" ht="11.25" customHeight="1">
+    <row r="87" spans="4:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F87" s="104">
         <v>1</v>
       </c>
@@ -13879,13 +13798,13 @@
       <c r="N87" s="109"/>
       <c r="O87" s="109"/>
       <c r="P87" s="110"/>
-      <c r="Q87" s="355" t="s">
+      <c r="Q87" s="325" t="s">
         <v>80</v>
       </c>
-      <c r="R87" s="356"/>
-      <c r="S87" s="356"/>
-      <c r="T87" s="356"/>
-      <c r="U87" s="356"/>
+      <c r="R87" s="326"/>
+      <c r="S87" s="326"/>
+      <c r="T87" s="326"/>
+      <c r="U87" s="326"/>
       <c r="V87" s="62" t="s">
         <v>91</v>
       </c>
@@ -13899,13 +13818,13 @@
       <c r="AB87" s="114"/>
       <c r="AC87" s="114"/>
       <c r="AD87" s="115"/>
-      <c r="AE87" s="359"/>
-      <c r="AF87" s="336"/>
-      <c r="AG87" s="336"/>
-      <c r="AH87" s="337"/>
+      <c r="AE87" s="327"/>
+      <c r="AF87" s="328"/>
+      <c r="AG87" s="328"/>
+      <c r="AH87" s="329"/>
       <c r="AI87" s="97"/>
     </row>
-    <row r="88" spans="4:67" ht="11.25" customHeight="1">
+    <row r="88" spans="4:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F88" s="104">
         <v>2</v>
       </c>
@@ -13923,13 +13842,13 @@
       <c r="N88" s="109"/>
       <c r="O88" s="109"/>
       <c r="P88" s="110"/>
-      <c r="Q88" s="355" t="s">
+      <c r="Q88" s="325" t="s">
         <v>80</v>
       </c>
-      <c r="R88" s="356"/>
-      <c r="S88" s="356"/>
-      <c r="T88" s="356"/>
-      <c r="U88" s="356"/>
+      <c r="R88" s="326"/>
+      <c r="S88" s="326"/>
+      <c r="T88" s="326"/>
+      <c r="U88" s="326"/>
       <c r="V88" s="62" t="s">
         <v>92</v>
       </c>
@@ -13943,12 +13862,12 @@
       <c r="AB88" s="114"/>
       <c r="AC88" s="114"/>
       <c r="AD88" s="115"/>
-      <c r="AE88" s="359"/>
-      <c r="AF88" s="336"/>
-      <c r="AG88" s="336"/>
-      <c r="AH88" s="337"/>
-    </row>
-    <row r="89" spans="4:67" ht="11.25" customHeight="1">
+      <c r="AE88" s="327"/>
+      <c r="AF88" s="328"/>
+      <c r="AG88" s="328"/>
+      <c r="AH88" s="329"/>
+    </row>
+    <row r="89" spans="4:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F89" s="104">
         <v>3</v>
       </c>
@@ -13966,13 +13885,13 @@
       <c r="N89" s="109"/>
       <c r="O89" s="109"/>
       <c r="P89" s="110"/>
-      <c r="Q89" s="355" t="s">
+      <c r="Q89" s="325" t="s">
         <v>80</v>
       </c>
-      <c r="R89" s="356"/>
-      <c r="S89" s="356"/>
-      <c r="T89" s="356"/>
-      <c r="U89" s="356"/>
+      <c r="R89" s="326"/>
+      <c r="S89" s="326"/>
+      <c r="T89" s="326"/>
+      <c r="U89" s="326"/>
       <c r="V89" s="62" t="s">
         <v>93</v>
       </c>
@@ -13986,12 +13905,12 @@
       <c r="AB89" s="114"/>
       <c r="AC89" s="114"/>
       <c r="AD89" s="115"/>
-      <c r="AE89" s="359"/>
-      <c r="AF89" s="336"/>
-      <c r="AG89" s="336"/>
-      <c r="AH89" s="337"/>
-    </row>
-    <row r="90" spans="4:67" ht="11.25" customHeight="1">
+      <c r="AE89" s="327"/>
+      <c r="AF89" s="328"/>
+      <c r="AG89" s="328"/>
+      <c r="AH89" s="329"/>
+    </row>
+    <row r="90" spans="4:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F90" s="104">
         <v>4</v>
       </c>
@@ -14009,13 +13928,13 @@
       <c r="N90" s="109"/>
       <c r="O90" s="109"/>
       <c r="P90" s="110"/>
-      <c r="Q90" s="355" t="s">
+      <c r="Q90" s="325" t="s">
         <v>80</v>
       </c>
-      <c r="R90" s="356"/>
-      <c r="S90" s="356"/>
-      <c r="T90" s="356"/>
-      <c r="U90" s="356"/>
+      <c r="R90" s="326"/>
+      <c r="S90" s="326"/>
+      <c r="T90" s="326"/>
+      <c r="U90" s="326"/>
       <c r="V90" s="62" t="s">
         <v>94</v>
       </c>
@@ -14029,13 +13948,13 @@
       <c r="AB90" s="114"/>
       <c r="AC90" s="114"/>
       <c r="AD90" s="115"/>
-      <c r="AE90" s="359"/>
-      <c r="AF90" s="336"/>
-      <c r="AG90" s="336"/>
-      <c r="AH90" s="337"/>
+      <c r="AE90" s="327"/>
+      <c r="AF90" s="328"/>
+      <c r="AG90" s="328"/>
+      <c r="AH90" s="329"/>
       <c r="AI90" s="97"/>
     </row>
-    <row r="91" spans="4:67" ht="11.25" customHeight="1">
+    <row r="91" spans="4:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F91" s="104">
         <v>5</v>
       </c>
@@ -14053,13 +13972,13 @@
       <c r="N91" s="109"/>
       <c r="O91" s="109"/>
       <c r="P91" s="110"/>
-      <c r="Q91" s="355" t="s">
+      <c r="Q91" s="325" t="s">
         <v>80</v>
       </c>
-      <c r="R91" s="356"/>
-      <c r="S91" s="356"/>
-      <c r="T91" s="356"/>
-      <c r="U91" s="356"/>
+      <c r="R91" s="326"/>
+      <c r="S91" s="326"/>
+      <c r="T91" s="326"/>
+      <c r="U91" s="326"/>
       <c r="V91" s="62" t="s">
         <v>95</v>
       </c>
@@ -14073,12 +13992,12 @@
       <c r="AB91" s="114"/>
       <c r="AC91" s="114"/>
       <c r="AD91" s="115"/>
-      <c r="AE91" s="359"/>
-      <c r="AF91" s="336"/>
-      <c r="AG91" s="336"/>
-      <c r="AH91" s="337"/>
-    </row>
-    <row r="92" spans="4:67" ht="11.25" customHeight="1">
+      <c r="AE91" s="327"/>
+      <c r="AF91" s="328"/>
+      <c r="AG91" s="328"/>
+      <c r="AH91" s="329"/>
+    </row>
+    <row r="92" spans="4:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F92" s="104">
         <v>6</v>
       </c>
@@ -14096,13 +14015,13 @@
       <c r="N92" s="109"/>
       <c r="O92" s="109"/>
       <c r="P92" s="110"/>
-      <c r="Q92" s="355" t="s">
+      <c r="Q92" s="325" t="s">
         <v>80</v>
       </c>
-      <c r="R92" s="356"/>
-      <c r="S92" s="356"/>
-      <c r="T92" s="356"/>
-      <c r="U92" s="356"/>
+      <c r="R92" s="326"/>
+      <c r="S92" s="326"/>
+      <c r="T92" s="326"/>
+      <c r="U92" s="326"/>
       <c r="V92" s="62" t="s">
         <v>96</v>
       </c>
@@ -14116,12 +14035,12 @@
       <c r="AB92" s="114"/>
       <c r="AC92" s="114"/>
       <c r="AD92" s="115"/>
-      <c r="AE92" s="359"/>
-      <c r="AF92" s="336"/>
-      <c r="AG92" s="336"/>
-      <c r="AH92" s="337"/>
-    </row>
-    <row r="93" spans="4:67" ht="11.25" customHeight="1">
+      <c r="AE92" s="327"/>
+      <c r="AF92" s="328"/>
+      <c r="AG92" s="328"/>
+      <c r="AH92" s="329"/>
+    </row>
+    <row r="93" spans="4:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F93" s="104">
         <v>7</v>
       </c>
@@ -14139,13 +14058,13 @@
       <c r="N93" s="109"/>
       <c r="O93" s="109"/>
       <c r="P93" s="110"/>
-      <c r="Q93" s="355" t="s">
+      <c r="Q93" s="325" t="s">
         <v>80</v>
       </c>
-      <c r="R93" s="356"/>
-      <c r="S93" s="356"/>
-      <c r="T93" s="356"/>
-      <c r="U93" s="356"/>
+      <c r="R93" s="326"/>
+      <c r="S93" s="326"/>
+      <c r="T93" s="326"/>
+      <c r="U93" s="326"/>
       <c r="V93" s="62" t="s">
         <v>97</v>
       </c>
@@ -14159,13 +14078,13 @@
       <c r="AB93" s="114"/>
       <c r="AC93" s="114"/>
       <c r="AD93" s="115"/>
-      <c r="AE93" s="359"/>
-      <c r="AF93" s="336"/>
-      <c r="AG93" s="336"/>
-      <c r="AH93" s="337"/>
+      <c r="AE93" s="327"/>
+      <c r="AF93" s="328"/>
+      <c r="AG93" s="328"/>
+      <c r="AH93" s="329"/>
       <c r="AI93" s="97"/>
     </row>
-    <row r="94" spans="4:67" ht="11.25" customHeight="1">
+    <row r="94" spans="4:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F94" s="104">
         <v>8</v>
       </c>
@@ -14183,13 +14102,13 @@
       <c r="N94" s="109"/>
       <c r="O94" s="109"/>
       <c r="P94" s="110"/>
-      <c r="Q94" s="355" t="s">
+      <c r="Q94" s="325" t="s">
         <v>80</v>
       </c>
-      <c r="R94" s="356"/>
-      <c r="S94" s="356"/>
-      <c r="T94" s="356"/>
-      <c r="U94" s="356"/>
+      <c r="R94" s="326"/>
+      <c r="S94" s="326"/>
+      <c r="T94" s="326"/>
+      <c r="U94" s="326"/>
       <c r="V94" s="62" t="s">
         <v>98</v>
       </c>
@@ -14203,12 +14122,12 @@
       <c r="AB94" s="114"/>
       <c r="AC94" s="114"/>
       <c r="AD94" s="115"/>
-      <c r="AE94" s="359"/>
-      <c r="AF94" s="336"/>
-      <c r="AG94" s="336"/>
-      <c r="AH94" s="337"/>
-    </row>
-    <row r="95" spans="4:67" ht="11.25" customHeight="1">
+      <c r="AE94" s="327"/>
+      <c r="AF94" s="328"/>
+      <c r="AG94" s="328"/>
+      <c r="AH94" s="329"/>
+    </row>
+    <row r="95" spans="4:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F95" s="104">
         <v>9</v>
       </c>
@@ -14226,13 +14145,13 @@
       <c r="N95" s="109"/>
       <c r="O95" s="109"/>
       <c r="P95" s="110"/>
-      <c r="Q95" s="355" t="s">
+      <c r="Q95" s="325" t="s">
         <v>80</v>
       </c>
-      <c r="R95" s="356"/>
-      <c r="S95" s="356"/>
-      <c r="T95" s="356"/>
-      <c r="U95" s="356"/>
+      <c r="R95" s="326"/>
+      <c r="S95" s="326"/>
+      <c r="T95" s="326"/>
+      <c r="U95" s="326"/>
       <c r="V95" s="62" t="s">
         <v>99</v>
       </c>
@@ -14246,12 +14165,12 @@
       <c r="AB95" s="114"/>
       <c r="AC95" s="114"/>
       <c r="AD95" s="115"/>
-      <c r="AE95" s="359"/>
-      <c r="AF95" s="336"/>
-      <c r="AG95" s="336"/>
-      <c r="AH95" s="337"/>
-    </row>
-    <row r="96" spans="4:67" ht="11.25" customHeight="1">
+      <c r="AE95" s="327"/>
+      <c r="AF95" s="328"/>
+      <c r="AG95" s="328"/>
+      <c r="AH95" s="329"/>
+    </row>
+    <row r="96" spans="4:67" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F96" s="104">
         <v>10</v>
       </c>
@@ -14269,13 +14188,13 @@
       <c r="N96" s="109"/>
       <c r="O96" s="109"/>
       <c r="P96" s="110"/>
-      <c r="Q96" s="355" t="s">
+      <c r="Q96" s="325" t="s">
         <v>80</v>
       </c>
-      <c r="R96" s="356"/>
-      <c r="S96" s="356"/>
-      <c r="T96" s="356"/>
-      <c r="U96" s="356"/>
+      <c r="R96" s="326"/>
+      <c r="S96" s="326"/>
+      <c r="T96" s="326"/>
+      <c r="U96" s="326"/>
       <c r="V96" s="62" t="s">
         <v>100</v>
       </c>
@@ -14289,13 +14208,13 @@
       <c r="AB96" s="114"/>
       <c r="AC96" s="114"/>
       <c r="AD96" s="115"/>
-      <c r="AE96" s="359"/>
-      <c r="AF96" s="336"/>
-      <c r="AG96" s="336"/>
-      <c r="AH96" s="337"/>
+      <c r="AE96" s="327"/>
+      <c r="AF96" s="328"/>
+      <c r="AG96" s="328"/>
+      <c r="AH96" s="329"/>
       <c r="AI96" s="97"/>
     </row>
-    <row r="97" spans="3:35" ht="11.25" customHeight="1">
+    <row r="97" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F97" s="104">
         <v>11</v>
       </c>
@@ -14313,13 +14232,13 @@
       <c r="N97" s="109"/>
       <c r="O97" s="109"/>
       <c r="P97" s="110"/>
-      <c r="Q97" s="355" t="s">
+      <c r="Q97" s="325" t="s">
         <v>80</v>
       </c>
-      <c r="R97" s="356"/>
-      <c r="S97" s="356"/>
-      <c r="T97" s="356"/>
-      <c r="U97" s="356"/>
+      <c r="R97" s="326"/>
+      <c r="S97" s="326"/>
+      <c r="T97" s="326"/>
+      <c r="U97" s="326"/>
       <c r="V97" s="62" t="s">
         <v>74</v>
       </c>
@@ -14333,12 +14252,12 @@
       <c r="AB97" s="114"/>
       <c r="AC97" s="114"/>
       <c r="AD97" s="115"/>
-      <c r="AE97" s="359"/>
-      <c r="AF97" s="336"/>
-      <c r="AG97" s="336"/>
-      <c r="AH97" s="337"/>
-    </row>
-    <row r="98" spans="3:35" ht="11.25" customHeight="1">
+      <c r="AE97" s="327"/>
+      <c r="AF97" s="328"/>
+      <c r="AG97" s="328"/>
+      <c r="AH97" s="329"/>
+    </row>
+    <row r="98" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F98" s="104">
         <v>12</v>
       </c>
@@ -14356,13 +14275,13 @@
       <c r="N98" s="109"/>
       <c r="O98" s="109"/>
       <c r="P98" s="110"/>
-      <c r="Q98" s="355" t="s">
+      <c r="Q98" s="325" t="s">
         <v>80</v>
       </c>
-      <c r="R98" s="356"/>
-      <c r="S98" s="356"/>
-      <c r="T98" s="356"/>
-      <c r="U98" s="356"/>
+      <c r="R98" s="326"/>
+      <c r="S98" s="326"/>
+      <c r="T98" s="326"/>
+      <c r="U98" s="326"/>
       <c r="V98" s="62" t="s">
         <v>101</v>
       </c>
@@ -14376,12 +14295,12 @@
       <c r="AB98" s="114"/>
       <c r="AC98" s="114"/>
       <c r="AD98" s="115"/>
-      <c r="AE98" s="359"/>
-      <c r="AF98" s="336"/>
-      <c r="AG98" s="336"/>
-      <c r="AH98" s="337"/>
-    </row>
-    <row r="99" spans="3:35" ht="11.25" customHeight="1">
+      <c r="AE98" s="327"/>
+      <c r="AF98" s="328"/>
+      <c r="AG98" s="328"/>
+      <c r="AH98" s="329"/>
+    </row>
+    <row r="99" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F99" s="104">
         <v>13</v>
       </c>
@@ -14399,13 +14318,13 @@
       <c r="N99" s="109"/>
       <c r="O99" s="109"/>
       <c r="P99" s="110"/>
-      <c r="Q99" s="355" t="s">
+      <c r="Q99" s="325" t="s">
         <v>80</v>
       </c>
-      <c r="R99" s="356"/>
-      <c r="S99" s="356"/>
-      <c r="T99" s="356"/>
-      <c r="U99" s="356"/>
+      <c r="R99" s="326"/>
+      <c r="S99" s="326"/>
+      <c r="T99" s="326"/>
+      <c r="U99" s="326"/>
       <c r="V99" s="62" t="s">
         <v>102</v>
       </c>
@@ -14419,16 +14338,16 @@
       <c r="AB99" s="114"/>
       <c r="AC99" s="114"/>
       <c r="AD99" s="115"/>
-      <c r="AE99" s="359"/>
-      <c r="AF99" s="336"/>
-      <c r="AG99" s="336"/>
-      <c r="AH99" s="337"/>
+      <c r="AE99" s="327"/>
+      <c r="AF99" s="328"/>
+      <c r="AG99" s="328"/>
+      <c r="AH99" s="329"/>
       <c r="AI99" s="97"/>
     </row>
-    <row r="102" spans="3:35">
+    <row r="102" spans="3:35" x14ac:dyDescent="0.2">
       <c r="AI102" s="80"/>
     </row>
-    <row r="111" spans="3:35">
+    <row r="111" spans="3:35" x14ac:dyDescent="0.2">
       <c r="C111" s="116"/>
       <c r="D111" s="116"/>
       <c r="E111" s="116"/>
@@ -14464,30 +14383,82 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="Q92:U92"/>
-    <mergeCell ref="AE92:AH92"/>
-    <mergeCell ref="Q87:U87"/>
-    <mergeCell ref="AE87:AH87"/>
-    <mergeCell ref="Q88:U88"/>
-    <mergeCell ref="AE88:AH88"/>
-    <mergeCell ref="Q89:U89"/>
-    <mergeCell ref="AE89:AH89"/>
-    <mergeCell ref="Q90:U90"/>
-    <mergeCell ref="AE90:AH90"/>
-    <mergeCell ref="Q91:U91"/>
-    <mergeCell ref="AE91:AH91"/>
-    <mergeCell ref="Q98:U98"/>
-    <mergeCell ref="AE98:AH98"/>
-    <mergeCell ref="Q93:U93"/>
-    <mergeCell ref="AE93:AH93"/>
-    <mergeCell ref="Q94:U94"/>
-    <mergeCell ref="AE94:AH94"/>
-    <mergeCell ref="Q95:U95"/>
-    <mergeCell ref="AE95:AH95"/>
-    <mergeCell ref="Q96:U96"/>
-    <mergeCell ref="AE96:AH96"/>
-    <mergeCell ref="Q97:U97"/>
-    <mergeCell ref="AE97:AH97"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="U28:Z28"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="I10:AH10"/>
+    <mergeCell ref="I11:AH11"/>
+    <mergeCell ref="I12:AH12"/>
+    <mergeCell ref="Q81:AH81"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G85:J86"/>
+    <mergeCell ref="AE85:AH86"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="R38:V38"/>
+    <mergeCell ref="W38:AH39"/>
+    <mergeCell ref="R39:V39"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="O68:AB68"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="R40:V40"/>
+    <mergeCell ref="W40:AH40"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="R41:V41"/>
+    <mergeCell ref="W41:AH41"/>
+    <mergeCell ref="Q99:U99"/>
+    <mergeCell ref="K22:AH22"/>
+    <mergeCell ref="K23:AH23"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E37:AH37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:K39"/>
+    <mergeCell ref="L38:P39"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="R42:V42"/>
+    <mergeCell ref="W42:AH42"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="R46:V46"/>
+    <mergeCell ref="W46:AH46"/>
+    <mergeCell ref="F47:K47"/>
+    <mergeCell ref="R47:V47"/>
+    <mergeCell ref="W47:AH47"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="R43:V43"/>
+    <mergeCell ref="W43:AH43"/>
+    <mergeCell ref="F44:K44"/>
+    <mergeCell ref="R44:V44"/>
+    <mergeCell ref="W44:AH44"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="R45:V45"/>
+    <mergeCell ref="W45:AH45"/>
     <mergeCell ref="AE99:AH99"/>
     <mergeCell ref="F50:K50"/>
     <mergeCell ref="R50:V50"/>
@@ -14512,82 +14483,30 @@
     <mergeCell ref="F81:H81"/>
     <mergeCell ref="I81:M81"/>
     <mergeCell ref="N81:P81"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="R42:V42"/>
-    <mergeCell ref="W42:AH42"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="R46:V46"/>
-    <mergeCell ref="W46:AH46"/>
-    <mergeCell ref="F47:K47"/>
-    <mergeCell ref="R47:V47"/>
-    <mergeCell ref="W47:AH47"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="R43:V43"/>
-    <mergeCell ref="W43:AH43"/>
-    <mergeCell ref="F44:K44"/>
-    <mergeCell ref="R44:V44"/>
-    <mergeCell ref="W44:AH44"/>
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="R45:V45"/>
-    <mergeCell ref="W45:AH45"/>
-    <mergeCell ref="Q99:U99"/>
-    <mergeCell ref="K22:AH22"/>
-    <mergeCell ref="K23:AH23"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E37:AH37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:K39"/>
-    <mergeCell ref="L38:P39"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="I10:AH10"/>
-    <mergeCell ref="I11:AH11"/>
-    <mergeCell ref="I12:AH12"/>
-    <mergeCell ref="Q81:AH81"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G85:J86"/>
-    <mergeCell ref="AE85:AH86"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="R38:V38"/>
-    <mergeCell ref="W38:AH39"/>
-    <mergeCell ref="R39:V39"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="O68:AB68"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="R40:V40"/>
-    <mergeCell ref="W40:AH40"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="R41:V41"/>
-    <mergeCell ref="W41:AH41"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="U28:Z28"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="T28:T29"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="Q98:U98"/>
+    <mergeCell ref="AE98:AH98"/>
+    <mergeCell ref="Q93:U93"/>
+    <mergeCell ref="AE93:AH93"/>
+    <mergeCell ref="Q94:U94"/>
+    <mergeCell ref="AE94:AH94"/>
+    <mergeCell ref="Q95:U95"/>
+    <mergeCell ref="AE95:AH95"/>
+    <mergeCell ref="Q96:U96"/>
+    <mergeCell ref="AE96:AH96"/>
+    <mergeCell ref="Q97:U97"/>
+    <mergeCell ref="AE97:AH97"/>
+    <mergeCell ref="Q92:U92"/>
+    <mergeCell ref="AE92:AH92"/>
+    <mergeCell ref="Q87:U87"/>
+    <mergeCell ref="AE87:AH87"/>
+    <mergeCell ref="Q88:U88"/>
+    <mergeCell ref="AE88:AH88"/>
+    <mergeCell ref="Q89:U89"/>
+    <mergeCell ref="AE89:AH89"/>
+    <mergeCell ref="Q90:U90"/>
+    <mergeCell ref="AE90:AH90"/>
+    <mergeCell ref="Q91:U91"/>
+    <mergeCell ref="AE91:AH91"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <dataValidations count="3">
@@ -14622,42 +14541,42 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="12">
+    <row r="1" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="12">
+    <row r="2" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="12">
+    <row r="3" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="12">
+    <row r="4" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="12">
+    <row r="5" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="12">
+    <row r="6" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="12">
+    <row r="7" spans="1:1" ht="12" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
         <v>53</v>
       </c>
